--- a/边角料/搜索记录.xlsx
+++ b/边角料/搜索记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <r>
       <rPr>
@@ -451,12 +451,52 @@
     <t>http://blog.csdn.net/renfufei/article/details/24600507/</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>http://www.cnblogs.com/lhxiaosoft/p/6400812.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>git基本命令</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>在 Shell 提示符中显示 Git 分支名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/cuoreqzt/p/5848224.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/jammg/article/details/49952685</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Git版本库理解和Git bash 命令行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Step by Step – (1) Git 简介</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Git Step by Step – (2) 本地Repo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wilber2013/p/4185643.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wilber2013/p/4189920.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -624,6 +664,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="18">
     <fill>
@@ -755,7 +802,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -845,10 +892,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z445"/>
+  <dimension ref="A1:Z449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21:R21"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44:Z44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1699,7 +1749,7 @@
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="31" t="s">
+      <c r="J19" s="32" t="s">
         <v>30</v>
       </c>
       <c r="K19" s="12"/>
@@ -2251,17 +2301,17 @@
       </c>
       <c r="H37" s="23"/>
       <c r="I37" s="23"/>
-      <c r="J37" s="12" t="s">
+      <c r="J37" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="Q37" s="31"/>
+      <c r="R37" s="31"/>
       <c r="S37" s="13" t="s">
         <v>50</v>
       </c>
@@ -2283,17 +2333,17 @@
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="23"/>
-      <c r="J38" s="12" t="s">
+      <c r="J38" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="12"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
       <c r="S38" s="13" t="s">
         <v>52</v>
       </c>
@@ -2315,7 +2365,9 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
-      <c r="J39" s="12"/>
+      <c r="J39" s="12" t="s">
+        <v>97</v>
+      </c>
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
       <c r="M39" s="12"/>
@@ -2324,7 +2376,9 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
+      <c r="S39" s="13" t="s">
+        <v>96</v>
+      </c>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
@@ -2343,7 +2397,9 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="23"/>
-      <c r="J40" s="12"/>
+      <c r="J40" s="12" t="s">
+        <v>98</v>
+      </c>
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
       <c r="M40" s="12"/>
@@ -2352,7 +2408,9 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
+      <c r="S40" s="13" t="s">
+        <v>99</v>
+      </c>
       <c r="T40" s="12"/>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
@@ -2371,7 +2429,9 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="12"/>
+      <c r="J41" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
       <c r="M41" s="12"/>
@@ -2380,7 +2440,9 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
+      <c r="S41" s="13" t="s">
+        <v>100</v>
+      </c>
       <c r="T41" s="12"/>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
@@ -2389,7 +2451,7 @@
       <c r="Y41" s="12"/>
       <c r="Z41" s="12"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
@@ -2399,25 +2461,29 @@
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="12"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J42" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+    </row>
+    <row r="43" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
@@ -2427,25 +2493,29 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="12"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="J43" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="Q43" s="31"/>
+      <c r="R43" s="31"/>
+      <c r="S43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+    </row>
+    <row r="44" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
@@ -2464,32 +2534,26 @@
       <c r="P44" s="12"/>
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="12"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+    </row>
+    <row r="45" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
-      <c r="D45" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="32" t="s">
-        <v>63</v>
-      </c>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="12"/>
       <c r="K45" s="12"/>
       <c r="L45" s="12"/>
       <c r="M45" s="12"/>
@@ -2498,30 +2562,26 @@
       <c r="P45" s="12"/>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
-      <c r="S45" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+      <c r="X45" s="13"/>
+      <c r="Y45" s="13"/>
+      <c r="Z45" s="13"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="15"/>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="12" t="s">
-        <v>71</v>
-      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="12"/>
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
       <c r="M46" s="12"/>
@@ -2530,9 +2590,7 @@
       <c r="P46" s="12"/>
       <c r="Q46" s="12"/>
       <c r="R46" s="12"/>
-      <c r="S46" s="13" t="s">
-        <v>64</v>
-      </c>
+      <c r="S46" s="12"/>
       <c r="T46" s="12"/>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
@@ -2545,15 +2603,13 @@
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="15"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="12" t="s">
-        <v>72</v>
-      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="12"/>
       <c r="K47" s="12"/>
       <c r="L47" s="12"/>
       <c r="M47" s="12"/>
@@ -2562,9 +2618,7 @@
       <c r="P47" s="12"/>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
-      <c r="S47" s="13" t="s">
-        <v>65</v>
-      </c>
+      <c r="S47" s="12"/>
       <c r="T47" s="12"/>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
@@ -2577,15 +2631,13 @@
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="15"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="12"/>
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
       <c r="M48" s="12"/>
@@ -2594,9 +2646,7 @@
       <c r="P48" s="12"/>
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
-      <c r="S48" s="13" t="s">
-        <v>66</v>
-      </c>
+      <c r="S48" s="12"/>
       <c r="T48" s="12"/>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
@@ -2609,14 +2659,18 @@
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
-      <c r="D49" s="24"/>
+      <c r="D49" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="15"/>
+      <c r="G49" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="12" t="s">
-        <v>74</v>
+      <c r="J49" s="31" t="s">
+        <v>63</v>
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="12"/>
@@ -2627,7 +2681,7 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
       <c r="S49" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="T49" s="12"/>
       <c r="U49" s="12"/>
@@ -2648,7 +2702,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K50" s="12"/>
       <c r="L50" s="12"/>
@@ -2659,7 +2713,7 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T50" s="12"/>
       <c r="U50" s="12"/>
@@ -2680,7 +2734,7 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="12" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="K51" s="12"/>
       <c r="L51" s="12"/>
@@ -2691,7 +2745,7 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T51" s="12"/>
       <c r="U51" s="12"/>
@@ -2712,7 +2766,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="12" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
@@ -2723,7 +2777,7 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
       <c r="S52" s="13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
@@ -2743,7 +2797,9 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-      <c r="J53" s="12"/>
+      <c r="J53" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="K53" s="12"/>
       <c r="L53" s="12"/>
       <c r="M53" s="12"/>
@@ -2752,7 +2808,9 @@
       <c r="P53" s="12"/>
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
+      <c r="S53" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="T53" s="12"/>
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
@@ -2771,7 +2829,9 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
-      <c r="J54" s="12"/>
+      <c r="J54" s="12" t="s">
+        <v>75</v>
+      </c>
       <c r="K54" s="12"/>
       <c r="L54" s="12"/>
       <c r="M54" s="12"/>
@@ -2780,7 +2840,9 @@
       <c r="P54" s="12"/>
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
-      <c r="S54" s="12"/>
+      <c r="S54" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="T54" s="12"/>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
@@ -2799,7 +2861,9 @@
       <c r="G55" s="15"/>
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
-      <c r="J55" s="12"/>
+      <c r="J55" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="K55" s="12"/>
       <c r="L55" s="12"/>
       <c r="M55" s="12"/>
@@ -2808,7 +2872,9 @@
       <c r="P55" s="12"/>
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
+      <c r="S55" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="T55" s="12"/>
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
@@ -2827,7 +2893,9 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
-      <c r="J56" s="12"/>
+      <c r="J56" s="12" t="s">
+        <v>77</v>
+      </c>
       <c r="K56" s="12"/>
       <c r="L56" s="12"/>
       <c r="M56" s="12"/>
@@ -2836,7 +2904,9 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
-      <c r="S56" s="12"/>
+      <c r="S56" s="13" t="s">
+        <v>70</v>
+      </c>
       <c r="T56" s="12"/>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
@@ -2964,11 +3034,9 @@
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
-      <c r="G61" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="12"/>
       <c r="K61" s="12"/>
       <c r="L61" s="12"/>
@@ -2994,9 +3062,9 @@
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="12"/>
       <c r="K62" s="12"/>
       <c r="L62" s="12"/>
@@ -3022,9 +3090,9 @@
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="12"/>
       <c r="K63" s="12"/>
       <c r="L63" s="12"/>
@@ -3050,9 +3118,9 @@
       <c r="D64" s="24"/>
       <c r="E64" s="24"/>
       <c r="F64" s="24"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="12"/>
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
@@ -3078,7 +3146,9 @@
       <c r="D65" s="24"/>
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
-      <c r="G65" s="19"/>
+      <c r="G65" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="12"/>
@@ -3435,23 +3505,17 @@
       <c r="Y77" s="12"/>
       <c r="Z77" s="12"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
-      <c r="D78" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="15"/>
-      <c r="I78" s="15"/>
-      <c r="J78" s="12" t="s">
-        <v>55</v>
-      </c>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="12"/>
       <c r="K78" s="12"/>
       <c r="L78" s="12"/>
       <c r="M78" s="12"/>
@@ -3460,9 +3524,7 @@
       <c r="P78" s="12"/>
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
-      <c r="S78" s="13" t="s">
-        <v>54</v>
-      </c>
+      <c r="S78" s="12"/>
       <c r="T78" s="12"/>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
@@ -3471,19 +3533,17 @@
       <c r="Y78" s="12"/>
       <c r="Z78" s="12"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="26"/>
-      <c r="F79" s="26"/>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="12" t="s">
-        <v>57</v>
-      </c>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="12"/>
       <c r="K79" s="12"/>
       <c r="L79" s="12"/>
       <c r="M79" s="12"/>
@@ -3492,9 +3552,7 @@
       <c r="P79" s="12"/>
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
-      <c r="S79" s="13" t="s">
-        <v>56</v>
-      </c>
+      <c r="S79" s="12"/>
       <c r="T79" s="12"/>
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
@@ -3503,19 +3561,17 @@
       <c r="Y79" s="12"/>
       <c r="Z79" s="12"/>
     </row>
-    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
-      <c r="D80" s="26"/>
-      <c r="E80" s="26"/>
-      <c r="F80" s="26"/>
-      <c r="G80" s="15"/>
-      <c r="H80" s="15"/>
-      <c r="I80" s="15"/>
-      <c r="J80" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="12"/>
       <c r="K80" s="12"/>
       <c r="L80" s="12"/>
       <c r="M80" s="12"/>
@@ -3524,9 +3580,7 @@
       <c r="P80" s="12"/>
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
-      <c r="S80" s="13" t="s">
-        <v>58</v>
-      </c>
+      <c r="S80" s="12"/>
       <c r="T80" s="12"/>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
@@ -3535,16 +3589,16 @@
       <c r="Y80" s="12"/>
       <c r="Z80" s="12"/>
     </row>
-    <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
-      <c r="D81" s="26"/>
-      <c r="E81" s="26"/>
-      <c r="F81" s="26"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="15"/>
-      <c r="I81" s="15"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
       <c r="J81" s="12"/>
       <c r="K81" s="12"/>
       <c r="L81" s="12"/>
@@ -3567,13 +3621,19 @@
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
       <c r="C82" s="18"/>
-      <c r="D82" s="26"/>
+      <c r="D82" s="25" t="s">
+        <v>22</v>
+      </c>
       <c r="E82" s="26"/>
       <c r="F82" s="26"/>
-      <c r="G82" s="15"/>
+      <c r="G82" s="15" t="s">
+        <v>90</v>
+      </c>
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
-      <c r="J82" s="12"/>
+      <c r="J82" s="12" t="s">
+        <v>55</v>
+      </c>
       <c r="K82" s="12"/>
       <c r="L82" s="12"/>
       <c r="M82" s="12"/>
@@ -3582,7 +3642,9 @@
       <c r="P82" s="12"/>
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
+      <c r="S82" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="T82" s="12"/>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
@@ -3601,7 +3663,9 @@
       <c r="G83" s="15"/>
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
-      <c r="J83" s="12"/>
+      <c r="J83" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="K83" s="12"/>
       <c r="L83" s="12"/>
       <c r="M83" s="12"/>
@@ -3610,7 +3674,9 @@
       <c r="P83" s="12"/>
       <c r="Q83" s="12"/>
       <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
+      <c r="S83" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="T83" s="12"/>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
@@ -3629,7 +3695,9 @@
       <c r="G84" s="15"/>
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
-      <c r="J84" s="12"/>
+      <c r="J84" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="K84" s="12"/>
       <c r="L84" s="12"/>
       <c r="M84" s="12"/>
@@ -3638,7 +3706,9 @@
       <c r="P84" s="12"/>
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
+      <c r="S84" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="T84" s="12"/>
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
@@ -3654,14 +3724,10 @@
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
       <c r="F85" s="26"/>
-      <c r="G85" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="12"/>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
       <c r="M85" s="12"/>
@@ -3670,9 +3736,7 @@
       <c r="P85" s="12"/>
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
-      <c r="S85" s="13" t="s">
-        <v>92</v>
-      </c>
+      <c r="S85" s="12"/>
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
@@ -3688,12 +3752,10 @@
       <c r="D86" s="26"/>
       <c r="E86" s="26"/>
       <c r="F86" s="26"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="12"/>
       <c r="K86" s="12"/>
       <c r="L86" s="12"/>
       <c r="M86" s="12"/>
@@ -3702,9 +3764,7 @@
       <c r="P86" s="12"/>
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
-      <c r="S86" s="13" t="s">
-        <v>95</v>
-      </c>
+      <c r="S86" s="12"/>
       <c r="T86" s="12"/>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
@@ -3713,16 +3773,16 @@
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
     </row>
-    <row r="87" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="18"/>
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="26"/>
       <c r="E87" s="26"/>
       <c r="F87" s="26"/>
-      <c r="G87" s="21"/>
-      <c r="H87" s="21"/>
-      <c r="I87" s="21"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="12"/>
       <c r="K87" s="12"/>
       <c r="L87" s="12"/>
@@ -3748,9 +3808,9 @@
       <c r="D88" s="26"/>
       <c r="E88" s="26"/>
       <c r="F88" s="26"/>
-      <c r="G88" s="21"/>
-      <c r="H88" s="21"/>
-      <c r="I88" s="21"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="12"/>
       <c r="K88" s="12"/>
       <c r="L88" s="12"/>
@@ -3776,10 +3836,14 @@
       <c r="D89" s="26"/>
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
-      <c r="G89" s="21"/>
+      <c r="G89" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="H89" s="21"/>
       <c r="I89" s="21"/>
-      <c r="J89" s="12"/>
+      <c r="J89" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
       <c r="M89" s="12"/>
@@ -3788,7 +3852,9 @@
       <c r="P89" s="12"/>
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
+      <c r="S89" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="T89" s="12"/>
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
@@ -3807,7 +3873,9 @@
       <c r="G90" s="21"/>
       <c r="H90" s="21"/>
       <c r="I90" s="21"/>
-      <c r="J90" s="12"/>
+      <c r="J90" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="K90" s="12"/>
       <c r="L90" s="12"/>
       <c r="M90" s="12"/>
@@ -3816,7 +3884,9 @@
       <c r="P90" s="12"/>
       <c r="Q90" s="12"/>
       <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
+      <c r="S90" s="13" t="s">
+        <v>95</v>
+      </c>
       <c r="T90" s="12"/>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
@@ -3825,18 +3895,16 @@
       <c r="Y90" s="12"/>
       <c r="Z90" s="12"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="18"/>
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="26"/>
       <c r="E91" s="26"/>
       <c r="F91" s="26"/>
-      <c r="G91" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
+      <c r="G91" s="21"/>
+      <c r="H91" s="21"/>
+      <c r="I91" s="21"/>
       <c r="J91" s="12"/>
       <c r="K91" s="12"/>
       <c r="L91" s="12"/>
@@ -3855,16 +3923,16 @@
       <c r="Y91" s="12"/>
       <c r="Z91" s="12"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="18"/>
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="26"/>
       <c r="E92" s="26"/>
       <c r="F92" s="26"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
       <c r="J92" s="12"/>
       <c r="K92" s="12"/>
       <c r="L92" s="12"/>
@@ -3883,16 +3951,16 @@
       <c r="Y92" s="12"/>
       <c r="Z92" s="12"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="26"/>
       <c r="E93" s="26"/>
       <c r="F93" s="26"/>
-      <c r="G93" s="19"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
+      <c r="G93" s="21"/>
+      <c r="H93" s="21"/>
+      <c r="I93" s="21"/>
       <c r="J93" s="12"/>
       <c r="K93" s="12"/>
       <c r="L93" s="12"/>
@@ -3911,16 +3979,16 @@
       <c r="Y93" s="12"/>
       <c r="Z93" s="12"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="18"/>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="26"/>
       <c r="E94" s="26"/>
       <c r="F94" s="26"/>
-      <c r="G94" s="19"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
+      <c r="G94" s="21"/>
+      <c r="H94" s="21"/>
+      <c r="I94" s="21"/>
       <c r="J94" s="12"/>
       <c r="K94" s="12"/>
       <c r="L94" s="12"/>
@@ -3946,7 +4014,9 @@
       <c r="D95" s="26"/>
       <c r="E95" s="26"/>
       <c r="F95" s="26"/>
-      <c r="G95" s="19"/>
+      <c r="G95" s="19" t="s">
+        <v>10</v>
+      </c>
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="12"/>
@@ -4699,16 +4769,12 @@
       <c r="A122" s="18"/>
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
-      <c r="D122" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H122" s="15"/>
-      <c r="I122" s="15"/>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26"/>
+      <c r="F122" s="26"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
       <c r="J122" s="12"/>
       <c r="K122" s="12"/>
       <c r="L122" s="12"/>
@@ -4731,12 +4797,12 @@
       <c r="A123" s="18"/>
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="15"/>
-      <c r="H123" s="15"/>
-      <c r="I123" s="15"/>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26"/>
+      <c r="F123" s="26"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
       <c r="J123" s="12"/>
       <c r="K123" s="12"/>
       <c r="L123" s="12"/>
@@ -4759,12 +4825,12 @@
       <c r="A124" s="18"/>
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26"/>
+      <c r="F124" s="26"/>
+      <c r="G124" s="19"/>
+      <c r="H124" s="19"/>
+      <c r="I124" s="19"/>
       <c r="J124" s="12"/>
       <c r="K124" s="12"/>
       <c r="L124" s="12"/>
@@ -4787,12 +4853,12 @@
       <c r="A125" s="18"/>
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26"/>
+      <c r="F125" s="26"/>
+      <c r="G125" s="19"/>
+      <c r="H125" s="19"/>
+      <c r="I125" s="19"/>
       <c r="J125" s="12"/>
       <c r="K125" s="12"/>
       <c r="L125" s="12"/>
@@ -4815,10 +4881,14 @@
       <c r="A126" s="18"/>
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
-      <c r="D126" s="28"/>
+      <c r="D126" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="E126" s="28"/>
       <c r="F126" s="28"/>
-      <c r="G126" s="15"/>
+      <c r="G126" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="12"/>
@@ -5238,11 +5308,9 @@
       <c r="D141" s="28"/>
       <c r="E141" s="28"/>
       <c r="F141" s="28"/>
-      <c r="G141" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="20"/>
-      <c r="I141" s="20"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
       <c r="J141" s="12"/>
       <c r="K141" s="12"/>
       <c r="L141" s="12"/>
@@ -5268,9 +5336,9 @@
       <c r="D142" s="28"/>
       <c r="E142" s="28"/>
       <c r="F142" s="28"/>
-      <c r="G142" s="20"/>
-      <c r="H142" s="20"/>
-      <c r="I142" s="20"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
       <c r="J142" s="12"/>
       <c r="K142" s="12"/>
       <c r="L142" s="12"/>
@@ -5296,9 +5364,9 @@
       <c r="D143" s="28"/>
       <c r="E143" s="28"/>
       <c r="F143" s="28"/>
-      <c r="G143" s="20"/>
-      <c r="H143" s="20"/>
-      <c r="I143" s="20"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
       <c r="J143" s="12"/>
       <c r="K143" s="12"/>
       <c r="L143" s="12"/>
@@ -5324,9 +5392,9 @@
       <c r="D144" s="28"/>
       <c r="E144" s="28"/>
       <c r="F144" s="28"/>
-      <c r="G144" s="20"/>
-      <c r="H144" s="20"/>
-      <c r="I144" s="20"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
       <c r="J144" s="12"/>
       <c r="K144" s="12"/>
       <c r="L144" s="12"/>
@@ -5352,7 +5420,9 @@
       <c r="D145" s="28"/>
       <c r="E145" s="28"/>
       <c r="F145" s="28"/>
-      <c r="G145" s="20"/>
+      <c r="G145" s="20" t="s">
+        <v>10</v>
+      </c>
       <c r="H145" s="20"/>
       <c r="I145" s="20"/>
       <c r="J145" s="12"/>
@@ -5713,16 +5783,12 @@
       <c r="A158" s="18"/>
       <c r="B158" s="18"/>
       <c r="C158" s="18"/>
-      <c r="D158" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H158" s="15"/>
-      <c r="I158" s="15"/>
+      <c r="D158" s="28"/>
+      <c r="E158" s="28"/>
+      <c r="F158" s="28"/>
+      <c r="G158" s="20"/>
+      <c r="H158" s="20"/>
+      <c r="I158" s="20"/>
       <c r="J158" s="12"/>
       <c r="K158" s="12"/>
       <c r="L158" s="12"/>
@@ -5745,12 +5811,12 @@
       <c r="A159" s="18"/>
       <c r="B159" s="18"/>
       <c r="C159" s="18"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
-      <c r="G159" s="15"/>
-      <c r="H159" s="15"/>
-      <c r="I159" s="15"/>
+      <c r="D159" s="28"/>
+      <c r="E159" s="28"/>
+      <c r="F159" s="28"/>
+      <c r="G159" s="20"/>
+      <c r="H159" s="20"/>
+      <c r="I159" s="20"/>
       <c r="J159" s="12"/>
       <c r="K159" s="12"/>
       <c r="L159" s="12"/>
@@ -5773,12 +5839,12 @@
       <c r="A160" s="18"/>
       <c r="B160" s="18"/>
       <c r="C160" s="18"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="15"/>
-      <c r="H160" s="15"/>
-      <c r="I160" s="15"/>
+      <c r="D160" s="28"/>
+      <c r="E160" s="28"/>
+      <c r="F160" s="28"/>
+      <c r="G160" s="20"/>
+      <c r="H160" s="20"/>
+      <c r="I160" s="20"/>
       <c r="J160" s="12"/>
       <c r="K160" s="12"/>
       <c r="L160" s="12"/>
@@ -5801,12 +5867,12 @@
       <c r="A161" s="18"/>
       <c r="B161" s="18"/>
       <c r="C161" s="18"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="15"/>
-      <c r="H161" s="15"/>
-      <c r="I161" s="15"/>
+      <c r="D161" s="28"/>
+      <c r="E161" s="28"/>
+      <c r="F161" s="28"/>
+      <c r="G161" s="20"/>
+      <c r="H161" s="20"/>
+      <c r="I161" s="20"/>
       <c r="J161" s="12"/>
       <c r="K161" s="12"/>
       <c r="L161" s="12"/>
@@ -5829,10 +5895,14 @@
       <c r="A162" s="18"/>
       <c r="B162" s="18"/>
       <c r="C162" s="18"/>
-      <c r="D162" s="17"/>
+      <c r="D162" s="17" t="s">
+        <v>8</v>
+      </c>
       <c r="E162" s="17"/>
       <c r="F162" s="17"/>
-      <c r="G162" s="15"/>
+      <c r="G162" s="15" t="s">
+        <v>11</v>
+      </c>
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
       <c r="J162" s="12"/>
@@ -6112,11 +6182,9 @@
       <c r="D172" s="17"/>
       <c r="E172" s="17"/>
       <c r="F172" s="17"/>
-      <c r="G172" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H172" s="21"/>
-      <c r="I172" s="21"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
       <c r="J172" s="12"/>
       <c r="K172" s="12"/>
       <c r="L172" s="12"/>
@@ -6142,9 +6210,9 @@
       <c r="D173" s="17"/>
       <c r="E173" s="17"/>
       <c r="F173" s="17"/>
-      <c r="G173" s="21"/>
-      <c r="H173" s="21"/>
-      <c r="I173" s="21"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
       <c r="J173" s="12"/>
       <c r="K173" s="12"/>
       <c r="L173" s="12"/>
@@ -6170,9 +6238,9 @@
       <c r="D174" s="17"/>
       <c r="E174" s="17"/>
       <c r="F174" s="17"/>
-      <c r="G174" s="21"/>
-      <c r="H174" s="21"/>
-      <c r="I174" s="21"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
       <c r="J174" s="12"/>
       <c r="K174" s="12"/>
       <c r="L174" s="12"/>
@@ -6198,9 +6266,9 @@
       <c r="D175" s="17"/>
       <c r="E175" s="17"/>
       <c r="F175" s="17"/>
-      <c r="G175" s="21"/>
-      <c r="H175" s="21"/>
-      <c r="I175" s="21"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
       <c r="J175" s="12"/>
       <c r="K175" s="12"/>
       <c r="L175" s="12"/>
@@ -6226,7 +6294,9 @@
       <c r="D176" s="17"/>
       <c r="E176" s="17"/>
       <c r="F176" s="17"/>
-      <c r="G176" s="21"/>
+      <c r="G176" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="H176" s="21"/>
       <c r="I176" s="21"/>
       <c r="J176" s="12"/>
@@ -6422,11 +6492,9 @@
       <c r="D183" s="17"/>
       <c r="E183" s="17"/>
       <c r="F183" s="17"/>
-      <c r="G183" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="H183" s="30"/>
-      <c r="I183" s="30"/>
+      <c r="G183" s="21"/>
+      <c r="H183" s="21"/>
+      <c r="I183" s="21"/>
       <c r="J183" s="12"/>
       <c r="K183" s="12"/>
       <c r="L183" s="12"/>
@@ -6452,9 +6520,9 @@
       <c r="D184" s="17"/>
       <c r="E184" s="17"/>
       <c r="F184" s="17"/>
-      <c r="G184" s="30"/>
-      <c r="H184" s="30"/>
-      <c r="I184" s="30"/>
+      <c r="G184" s="21"/>
+      <c r="H184" s="21"/>
+      <c r="I184" s="21"/>
       <c r="J184" s="12"/>
       <c r="K184" s="12"/>
       <c r="L184" s="12"/>
@@ -6480,9 +6548,9 @@
       <c r="D185" s="17"/>
       <c r="E185" s="17"/>
       <c r="F185" s="17"/>
-      <c r="G185" s="30"/>
-      <c r="H185" s="30"/>
-      <c r="I185" s="30"/>
+      <c r="G185" s="21"/>
+      <c r="H185" s="21"/>
+      <c r="I185" s="21"/>
       <c r="J185" s="12"/>
       <c r="K185" s="12"/>
       <c r="L185" s="12"/>
@@ -6508,9 +6576,9 @@
       <c r="D186" s="17"/>
       <c r="E186" s="17"/>
       <c r="F186" s="17"/>
-      <c r="G186" s="30"/>
-      <c r="H186" s="30"/>
-      <c r="I186" s="30"/>
+      <c r="G186" s="21"/>
+      <c r="H186" s="21"/>
+      <c r="I186" s="21"/>
       <c r="J186" s="12"/>
       <c r="K186" s="12"/>
       <c r="L186" s="12"/>
@@ -6536,7 +6604,9 @@
       <c r="D187" s="17"/>
       <c r="E187" s="17"/>
       <c r="F187" s="17"/>
-      <c r="G187" s="30"/>
+      <c r="G187" s="30" t="s">
+        <v>13</v>
+      </c>
       <c r="H187" s="30"/>
       <c r="I187" s="30"/>
       <c r="J187" s="12"/>
@@ -6725,81 +6795,117 @@
       <c r="Y193" s="12"/>
       <c r="Z193" s="12"/>
     </row>
-    <row r="195" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J195" s="16"/>
-      <c r="K195" s="16"/>
-      <c r="L195" s="16"/>
-      <c r="M195" s="16"/>
-      <c r="N195" s="16"/>
-      <c r="O195" s="16"/>
-      <c r="P195" s="16"/>
-      <c r="Q195" s="16"/>
-      <c r="R195" s="16"/>
-      <c r="S195" s="16"/>
-      <c r="T195" s="16"/>
-      <c r="U195" s="16"/>
-      <c r="V195" s="16"/>
-      <c r="W195" s="16"/>
-      <c r="X195" s="16"/>
-      <c r="Y195" s="16"/>
-      <c r="Z195" s="16"/>
-    </row>
-    <row r="196" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J196" s="16"/>
-      <c r="K196" s="16"/>
-      <c r="L196" s="16"/>
-      <c r="M196" s="16"/>
-      <c r="N196" s="16"/>
-      <c r="O196" s="16"/>
-      <c r="P196" s="16"/>
-      <c r="Q196" s="16"/>
-      <c r="R196" s="16"/>
-      <c r="S196" s="16"/>
-      <c r="T196" s="16"/>
-      <c r="U196" s="16"/>
-      <c r="V196" s="16"/>
-      <c r="W196" s="16"/>
-      <c r="X196" s="16"/>
-      <c r="Y196" s="16"/>
-      <c r="Z196" s="16"/>
-    </row>
-    <row r="197" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J197" s="16"/>
-      <c r="K197" s="16"/>
-      <c r="L197" s="16"/>
-      <c r="M197" s="16"/>
-      <c r="N197" s="16"/>
-      <c r="O197" s="16"/>
-      <c r="P197" s="16"/>
-      <c r="Q197" s="16"/>
-      <c r="R197" s="16"/>
-      <c r="S197" s="16"/>
-      <c r="T197" s="16"/>
-      <c r="U197" s="16"/>
-      <c r="V197" s="16"/>
-      <c r="W197" s="16"/>
-      <c r="X197" s="16"/>
-      <c r="Y197" s="16"/>
-      <c r="Z197" s="16"/>
-    </row>
-    <row r="198" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="J198" s="16"/>
-      <c r="K198" s="16"/>
-      <c r="L198" s="16"/>
-      <c r="M198" s="16"/>
-      <c r="N198" s="16"/>
-      <c r="O198" s="16"/>
-      <c r="P198" s="16"/>
-      <c r="Q198" s="16"/>
-      <c r="R198" s="16"/>
-      <c r="S198" s="16"/>
-      <c r="T198" s="16"/>
-      <c r="U198" s="16"/>
-      <c r="V198" s="16"/>
-      <c r="W198" s="16"/>
-      <c r="X198" s="16"/>
-      <c r="Y198" s="16"/>
-      <c r="Z198" s="16"/>
+    <row r="194" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A194" s="18"/>
+      <c r="B194" s="18"/>
+      <c r="C194" s="18"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
+      <c r="F194" s="17"/>
+      <c r="G194" s="30"/>
+      <c r="H194" s="30"/>
+      <c r="I194" s="30"/>
+      <c r="J194" s="12"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="12"/>
+      <c r="N194" s="12"/>
+      <c r="O194" s="12"/>
+      <c r="P194" s="12"/>
+      <c r="Q194" s="12"/>
+      <c r="R194" s="12"/>
+      <c r="S194" s="12"/>
+      <c r="T194" s="12"/>
+      <c r="U194" s="12"/>
+      <c r="V194" s="12"/>
+      <c r="W194" s="12"/>
+      <c r="X194" s="12"/>
+      <c r="Y194" s="12"/>
+      <c r="Z194" s="12"/>
+    </row>
+    <row r="195" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A195" s="18"/>
+      <c r="B195" s="18"/>
+      <c r="C195" s="18"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="30"/>
+      <c r="H195" s="30"/>
+      <c r="I195" s="30"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="12"/>
+      <c r="S195" s="12"/>
+      <c r="T195" s="12"/>
+      <c r="U195" s="12"/>
+      <c r="V195" s="12"/>
+      <c r="W195" s="12"/>
+      <c r="X195" s="12"/>
+      <c r="Y195" s="12"/>
+      <c r="Z195" s="12"/>
+    </row>
+    <row r="196" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A196" s="18"/>
+      <c r="B196" s="18"/>
+      <c r="C196" s="18"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
+      <c r="F196" s="17"/>
+      <c r="G196" s="30"/>
+      <c r="H196" s="30"/>
+      <c r="I196" s="30"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="12"/>
+      <c r="S196" s="12"/>
+      <c r="T196" s="12"/>
+      <c r="U196" s="12"/>
+      <c r="V196" s="12"/>
+      <c r="W196" s="12"/>
+      <c r="X196" s="12"/>
+      <c r="Y196" s="12"/>
+      <c r="Z196" s="12"/>
+    </row>
+    <row r="197" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A197" s="18"/>
+      <c r="B197" s="18"/>
+      <c r="C197" s="18"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="30"/>
+      <c r="H197" s="30"/>
+      <c r="I197" s="30"/>
+      <c r="J197" s="12"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="12"/>
+      <c r="N197" s="12"/>
+      <c r="O197" s="12"/>
+      <c r="P197" s="12"/>
+      <c r="Q197" s="12"/>
+      <c r="R197" s="12"/>
+      <c r="S197" s="12"/>
+      <c r="T197" s="12"/>
+      <c r="U197" s="12"/>
+      <c r="V197" s="12"/>
+      <c r="W197" s="12"/>
+      <c r="X197" s="12"/>
+      <c r="Y197" s="12"/>
+      <c r="Z197" s="12"/>
     </row>
     <row r="199" spans="1:26" ht="16.5" x14ac:dyDescent="0.2">
       <c r="J199" s="16"/>
@@ -11494,8 +11600,84 @@
       <c r="Y445" s="16"/>
       <c r="Z445" s="16"/>
     </row>
+    <row r="446" spans="10:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J446" s="16"/>
+      <c r="K446" s="16"/>
+      <c r="L446" s="16"/>
+      <c r="M446" s="16"/>
+      <c r="N446" s="16"/>
+      <c r="O446" s="16"/>
+      <c r="P446" s="16"/>
+      <c r="Q446" s="16"/>
+      <c r="R446" s="16"/>
+      <c r="S446" s="16"/>
+      <c r="T446" s="16"/>
+      <c r="U446" s="16"/>
+      <c r="V446" s="16"/>
+      <c r="W446" s="16"/>
+      <c r="X446" s="16"/>
+      <c r="Y446" s="16"/>
+      <c r="Z446" s="16"/>
+    </row>
+    <row r="447" spans="10:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J447" s="16"/>
+      <c r="K447" s="16"/>
+      <c r="L447" s="16"/>
+      <c r="M447" s="16"/>
+      <c r="N447" s="16"/>
+      <c r="O447" s="16"/>
+      <c r="P447" s="16"/>
+      <c r="Q447" s="16"/>
+      <c r="R447" s="16"/>
+      <c r="S447" s="16"/>
+      <c r="T447" s="16"/>
+      <c r="U447" s="16"/>
+      <c r="V447" s="16"/>
+      <c r="W447" s="16"/>
+      <c r="X447" s="16"/>
+      <c r="Y447" s="16"/>
+      <c r="Z447" s="16"/>
+    </row>
+    <row r="448" spans="10:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J448" s="16"/>
+      <c r="K448" s="16"/>
+      <c r="L448" s="16"/>
+      <c r="M448" s="16"/>
+      <c r="N448" s="16"/>
+      <c r="O448" s="16"/>
+      <c r="P448" s="16"/>
+      <c r="Q448" s="16"/>
+      <c r="R448" s="16"/>
+      <c r="S448" s="16"/>
+      <c r="T448" s="16"/>
+      <c r="U448" s="16"/>
+      <c r="V448" s="16"/>
+      <c r="W448" s="16"/>
+      <c r="X448" s="16"/>
+      <c r="Y448" s="16"/>
+      <c r="Z448" s="16"/>
+    </row>
+    <row r="449" spans="10:26" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="J449" s="16"/>
+      <c r="K449" s="16"/>
+      <c r="L449" s="16"/>
+      <c r="M449" s="16"/>
+      <c r="N449" s="16"/>
+      <c r="O449" s="16"/>
+      <c r="P449" s="16"/>
+      <c r="Q449" s="16"/>
+      <c r="R449" s="16"/>
+      <c r="S449" s="16"/>
+      <c r="T449" s="16"/>
+      <c r="U449" s="16"/>
+      <c r="V449" s="16"/>
+      <c r="W449" s="16"/>
+      <c r="X449" s="16"/>
+      <c r="Y449" s="16"/>
+      <c r="Z449" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="901">
+  <mergeCells count="909">
     <mergeCell ref="S24:Z24"/>
     <mergeCell ref="S25:Z25"/>
     <mergeCell ref="J12:R12"/>
@@ -11506,381 +11688,399 @@
     <mergeCell ref="S14:Z14"/>
     <mergeCell ref="J33:R33"/>
     <mergeCell ref="S33:Z33"/>
-    <mergeCell ref="J423:R423"/>
-    <mergeCell ref="S423:Z423"/>
+    <mergeCell ref="J32:R32"/>
+    <mergeCell ref="S32:Z32"/>
+    <mergeCell ref="J19:R19"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="J21:R21"/>
+    <mergeCell ref="J22:R22"/>
+    <mergeCell ref="J23:R23"/>
+    <mergeCell ref="J24:R24"/>
+    <mergeCell ref="J25:R25"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="S23:Z23"/>
+    <mergeCell ref="J427:R427"/>
+    <mergeCell ref="S427:Z427"/>
+    <mergeCell ref="J428:R428"/>
+    <mergeCell ref="S428:Z428"/>
+    <mergeCell ref="J429:R429"/>
+    <mergeCell ref="S429:Z429"/>
+    <mergeCell ref="J448:R448"/>
+    <mergeCell ref="S448:Z448"/>
+    <mergeCell ref="J449:R449"/>
+    <mergeCell ref="S449:Z449"/>
+    <mergeCell ref="J445:R445"/>
+    <mergeCell ref="S445:Z445"/>
+    <mergeCell ref="J446:R446"/>
+    <mergeCell ref="S446:Z446"/>
+    <mergeCell ref="J447:R447"/>
+    <mergeCell ref="S447:Z447"/>
+    <mergeCell ref="J442:R442"/>
+    <mergeCell ref="S442:Z442"/>
+    <mergeCell ref="J443:R443"/>
+    <mergeCell ref="S443:Z443"/>
+    <mergeCell ref="J444:R444"/>
+    <mergeCell ref="S444:Z444"/>
+    <mergeCell ref="J437:R437"/>
+    <mergeCell ref="S437:Z437"/>
     <mergeCell ref="J424:R424"/>
     <mergeCell ref="S424:Z424"/>
     <mergeCell ref="J425:R425"/>
     <mergeCell ref="S425:Z425"/>
-    <mergeCell ref="J444:R444"/>
-    <mergeCell ref="S444:Z444"/>
-    <mergeCell ref="J445:R445"/>
-    <mergeCell ref="S445:Z445"/>
-    <mergeCell ref="J441:R441"/>
-    <mergeCell ref="S441:Z441"/>
-    <mergeCell ref="J442:R442"/>
-    <mergeCell ref="S442:Z442"/>
-    <mergeCell ref="J443:R443"/>
-    <mergeCell ref="S443:Z443"/>
-    <mergeCell ref="J438:R438"/>
-    <mergeCell ref="S438:Z438"/>
-    <mergeCell ref="J439:R439"/>
-    <mergeCell ref="S439:Z439"/>
-    <mergeCell ref="J440:R440"/>
-    <mergeCell ref="S440:Z440"/>
-    <mergeCell ref="J433:R433"/>
-    <mergeCell ref="S433:Z433"/>
+    <mergeCell ref="J426:R426"/>
+    <mergeCell ref="S426:Z426"/>
+    <mergeCell ref="J419:R419"/>
+    <mergeCell ref="S419:Z419"/>
     <mergeCell ref="J420:R420"/>
     <mergeCell ref="S420:Z420"/>
     <mergeCell ref="J421:R421"/>
     <mergeCell ref="S421:Z421"/>
     <mergeCell ref="J422:R422"/>
     <mergeCell ref="S422:Z422"/>
+    <mergeCell ref="J423:R423"/>
+    <mergeCell ref="S423:Z423"/>
+    <mergeCell ref="J401:R401"/>
+    <mergeCell ref="S401:Z401"/>
+    <mergeCell ref="J402:R402"/>
+    <mergeCell ref="S402:Z402"/>
+    <mergeCell ref="J403:R403"/>
+    <mergeCell ref="S403:Z403"/>
+    <mergeCell ref="J414:R414"/>
+    <mergeCell ref="S414:Z414"/>
     <mergeCell ref="J415:R415"/>
     <mergeCell ref="S415:Z415"/>
-    <mergeCell ref="J416:R416"/>
-    <mergeCell ref="S416:Z416"/>
-    <mergeCell ref="J417:R417"/>
-    <mergeCell ref="S417:Z417"/>
-    <mergeCell ref="J418:R418"/>
-    <mergeCell ref="S418:Z418"/>
-    <mergeCell ref="J419:R419"/>
-    <mergeCell ref="S419:Z419"/>
-    <mergeCell ref="J397:R397"/>
-    <mergeCell ref="S397:Z397"/>
-    <mergeCell ref="J398:R398"/>
-    <mergeCell ref="S398:Z398"/>
-    <mergeCell ref="J399:R399"/>
-    <mergeCell ref="S399:Z399"/>
+    <mergeCell ref="J409:R409"/>
+    <mergeCell ref="S409:Z409"/>
     <mergeCell ref="J410:R410"/>
     <mergeCell ref="S410:Z410"/>
     <mergeCell ref="J411:R411"/>
     <mergeCell ref="S411:Z411"/>
-    <mergeCell ref="J405:R405"/>
-    <mergeCell ref="S405:Z405"/>
-    <mergeCell ref="J406:R406"/>
-    <mergeCell ref="S406:Z406"/>
-    <mergeCell ref="J407:R407"/>
-    <mergeCell ref="S407:Z407"/>
-    <mergeCell ref="J379:R379"/>
-    <mergeCell ref="S379:Z379"/>
-    <mergeCell ref="J380:R380"/>
-    <mergeCell ref="S380:Z380"/>
-    <mergeCell ref="J381:R381"/>
-    <mergeCell ref="S381:Z381"/>
+    <mergeCell ref="J383:R383"/>
+    <mergeCell ref="S383:Z383"/>
+    <mergeCell ref="J384:R384"/>
+    <mergeCell ref="S384:Z384"/>
+    <mergeCell ref="J385:R385"/>
+    <mergeCell ref="S385:Z385"/>
+    <mergeCell ref="J396:R396"/>
+    <mergeCell ref="S396:Z396"/>
+    <mergeCell ref="J397:R397"/>
+    <mergeCell ref="S397:Z397"/>
+    <mergeCell ref="J391:R391"/>
+    <mergeCell ref="S391:Z391"/>
     <mergeCell ref="J392:R392"/>
     <mergeCell ref="S392:Z392"/>
     <mergeCell ref="J393:R393"/>
     <mergeCell ref="S393:Z393"/>
-    <mergeCell ref="J387:R387"/>
-    <mergeCell ref="S387:Z387"/>
-    <mergeCell ref="J388:R388"/>
-    <mergeCell ref="S388:Z388"/>
-    <mergeCell ref="J389:R389"/>
-    <mergeCell ref="S389:Z389"/>
-    <mergeCell ref="J361:R361"/>
-    <mergeCell ref="S361:Z361"/>
-    <mergeCell ref="J362:R362"/>
-    <mergeCell ref="S362:Z362"/>
-    <mergeCell ref="J363:R363"/>
-    <mergeCell ref="S363:Z363"/>
+    <mergeCell ref="J365:R365"/>
+    <mergeCell ref="S365:Z365"/>
+    <mergeCell ref="J366:R366"/>
+    <mergeCell ref="S366:Z366"/>
+    <mergeCell ref="J367:R367"/>
+    <mergeCell ref="S367:Z367"/>
+    <mergeCell ref="J378:R378"/>
+    <mergeCell ref="S378:Z378"/>
+    <mergeCell ref="J379:R379"/>
+    <mergeCell ref="S379:Z379"/>
+    <mergeCell ref="J373:R373"/>
+    <mergeCell ref="S373:Z373"/>
     <mergeCell ref="J374:R374"/>
     <mergeCell ref="S374:Z374"/>
     <mergeCell ref="J375:R375"/>
     <mergeCell ref="S375:Z375"/>
-    <mergeCell ref="J369:R369"/>
-    <mergeCell ref="S369:Z369"/>
-    <mergeCell ref="J370:R370"/>
-    <mergeCell ref="S370:Z370"/>
-    <mergeCell ref="J371:R371"/>
-    <mergeCell ref="S371:Z371"/>
-    <mergeCell ref="J343:R343"/>
-    <mergeCell ref="S343:Z343"/>
-    <mergeCell ref="J344:R344"/>
-    <mergeCell ref="S344:Z344"/>
-    <mergeCell ref="J345:R345"/>
-    <mergeCell ref="S345:Z345"/>
+    <mergeCell ref="J347:R347"/>
+    <mergeCell ref="S347:Z347"/>
+    <mergeCell ref="J348:R348"/>
+    <mergeCell ref="S348:Z348"/>
+    <mergeCell ref="J349:R349"/>
+    <mergeCell ref="S349:Z349"/>
+    <mergeCell ref="J360:R360"/>
+    <mergeCell ref="S360:Z360"/>
+    <mergeCell ref="J361:R361"/>
+    <mergeCell ref="S361:Z361"/>
+    <mergeCell ref="J355:R355"/>
+    <mergeCell ref="S355:Z355"/>
     <mergeCell ref="J356:R356"/>
     <mergeCell ref="S356:Z356"/>
     <mergeCell ref="J357:R357"/>
     <mergeCell ref="S357:Z357"/>
-    <mergeCell ref="J351:R351"/>
-    <mergeCell ref="S351:Z351"/>
-    <mergeCell ref="J352:R352"/>
-    <mergeCell ref="S352:Z352"/>
-    <mergeCell ref="J353:R353"/>
-    <mergeCell ref="S353:Z353"/>
-    <mergeCell ref="J325:R325"/>
-    <mergeCell ref="S325:Z325"/>
-    <mergeCell ref="J326:R326"/>
-    <mergeCell ref="S326:Z326"/>
-    <mergeCell ref="J327:R327"/>
-    <mergeCell ref="S327:Z327"/>
+    <mergeCell ref="J329:R329"/>
+    <mergeCell ref="S329:Z329"/>
+    <mergeCell ref="J330:R330"/>
+    <mergeCell ref="S330:Z330"/>
+    <mergeCell ref="J331:R331"/>
+    <mergeCell ref="S331:Z331"/>
+    <mergeCell ref="J342:R342"/>
+    <mergeCell ref="S342:Z342"/>
+    <mergeCell ref="J343:R343"/>
+    <mergeCell ref="S343:Z343"/>
+    <mergeCell ref="J337:R337"/>
+    <mergeCell ref="S337:Z337"/>
     <mergeCell ref="J338:R338"/>
     <mergeCell ref="S338:Z338"/>
     <mergeCell ref="J339:R339"/>
     <mergeCell ref="S339:Z339"/>
-    <mergeCell ref="J333:R333"/>
-    <mergeCell ref="S333:Z333"/>
-    <mergeCell ref="J334:R334"/>
-    <mergeCell ref="S334:Z334"/>
-    <mergeCell ref="J335:R335"/>
-    <mergeCell ref="S335:Z335"/>
-    <mergeCell ref="J307:R307"/>
-    <mergeCell ref="S307:Z307"/>
-    <mergeCell ref="J308:R308"/>
-    <mergeCell ref="S308:Z308"/>
-    <mergeCell ref="J309:R309"/>
-    <mergeCell ref="S309:Z309"/>
+    <mergeCell ref="J311:R311"/>
+    <mergeCell ref="S311:Z311"/>
+    <mergeCell ref="J312:R312"/>
+    <mergeCell ref="S312:Z312"/>
+    <mergeCell ref="J313:R313"/>
+    <mergeCell ref="S313:Z313"/>
+    <mergeCell ref="J324:R324"/>
+    <mergeCell ref="S324:Z324"/>
+    <mergeCell ref="J325:R325"/>
+    <mergeCell ref="S325:Z325"/>
+    <mergeCell ref="J319:R319"/>
+    <mergeCell ref="S319:Z319"/>
     <mergeCell ref="J320:R320"/>
     <mergeCell ref="S320:Z320"/>
     <mergeCell ref="J321:R321"/>
     <mergeCell ref="S321:Z321"/>
-    <mergeCell ref="J315:R315"/>
-    <mergeCell ref="S315:Z315"/>
-    <mergeCell ref="J316:R316"/>
-    <mergeCell ref="S316:Z316"/>
-    <mergeCell ref="J317:R317"/>
-    <mergeCell ref="S317:Z317"/>
-    <mergeCell ref="J289:R289"/>
-    <mergeCell ref="S289:Z289"/>
-    <mergeCell ref="J290:R290"/>
-    <mergeCell ref="S290:Z290"/>
-    <mergeCell ref="J291:R291"/>
-    <mergeCell ref="S291:Z291"/>
+    <mergeCell ref="J293:R293"/>
+    <mergeCell ref="S293:Z293"/>
+    <mergeCell ref="J294:R294"/>
+    <mergeCell ref="S294:Z294"/>
+    <mergeCell ref="J295:R295"/>
+    <mergeCell ref="S295:Z295"/>
+    <mergeCell ref="J306:R306"/>
+    <mergeCell ref="S306:Z306"/>
+    <mergeCell ref="J307:R307"/>
+    <mergeCell ref="S307:Z307"/>
+    <mergeCell ref="J301:R301"/>
+    <mergeCell ref="S301:Z301"/>
     <mergeCell ref="J302:R302"/>
     <mergeCell ref="S302:Z302"/>
     <mergeCell ref="J303:R303"/>
     <mergeCell ref="S303:Z303"/>
-    <mergeCell ref="J297:R297"/>
-    <mergeCell ref="S297:Z297"/>
-    <mergeCell ref="J298:R298"/>
-    <mergeCell ref="S298:Z298"/>
-    <mergeCell ref="J299:R299"/>
-    <mergeCell ref="S299:Z299"/>
-    <mergeCell ref="J271:R271"/>
-    <mergeCell ref="S271:Z271"/>
-    <mergeCell ref="J272:R272"/>
-    <mergeCell ref="S272:Z272"/>
-    <mergeCell ref="J273:R273"/>
-    <mergeCell ref="S273:Z273"/>
+    <mergeCell ref="J275:R275"/>
+    <mergeCell ref="S275:Z275"/>
+    <mergeCell ref="J276:R276"/>
+    <mergeCell ref="S276:Z276"/>
+    <mergeCell ref="J277:R277"/>
+    <mergeCell ref="S277:Z277"/>
+    <mergeCell ref="J288:R288"/>
+    <mergeCell ref="S288:Z288"/>
+    <mergeCell ref="J289:R289"/>
+    <mergeCell ref="S289:Z289"/>
+    <mergeCell ref="J283:R283"/>
+    <mergeCell ref="S283:Z283"/>
     <mergeCell ref="J284:R284"/>
     <mergeCell ref="S284:Z284"/>
     <mergeCell ref="J285:R285"/>
     <mergeCell ref="S285:Z285"/>
-    <mergeCell ref="J279:R279"/>
-    <mergeCell ref="S279:Z279"/>
-    <mergeCell ref="J280:R280"/>
-    <mergeCell ref="S280:Z280"/>
-    <mergeCell ref="J281:R281"/>
-    <mergeCell ref="S281:Z281"/>
-    <mergeCell ref="J253:R253"/>
-    <mergeCell ref="S253:Z253"/>
-    <mergeCell ref="J254:R254"/>
-    <mergeCell ref="S254:Z254"/>
-    <mergeCell ref="J255:R255"/>
-    <mergeCell ref="S255:Z255"/>
+    <mergeCell ref="J257:R257"/>
+    <mergeCell ref="S257:Z257"/>
+    <mergeCell ref="J258:R258"/>
+    <mergeCell ref="S258:Z258"/>
+    <mergeCell ref="J259:R259"/>
+    <mergeCell ref="S259:Z259"/>
+    <mergeCell ref="J270:R270"/>
+    <mergeCell ref="S270:Z270"/>
+    <mergeCell ref="J271:R271"/>
+    <mergeCell ref="S271:Z271"/>
+    <mergeCell ref="J265:R265"/>
+    <mergeCell ref="S265:Z265"/>
     <mergeCell ref="J266:R266"/>
     <mergeCell ref="S266:Z266"/>
     <mergeCell ref="J267:R267"/>
     <mergeCell ref="S267:Z267"/>
-    <mergeCell ref="J261:R261"/>
-    <mergeCell ref="S261:Z261"/>
-    <mergeCell ref="J262:R262"/>
-    <mergeCell ref="S262:Z262"/>
-    <mergeCell ref="J263:R263"/>
-    <mergeCell ref="S263:Z263"/>
-    <mergeCell ref="J235:R235"/>
-    <mergeCell ref="S235:Z235"/>
-    <mergeCell ref="J236:R236"/>
-    <mergeCell ref="S236:Z236"/>
-    <mergeCell ref="J237:R237"/>
-    <mergeCell ref="S237:Z237"/>
+    <mergeCell ref="J239:R239"/>
+    <mergeCell ref="S239:Z239"/>
+    <mergeCell ref="J240:R240"/>
+    <mergeCell ref="S240:Z240"/>
+    <mergeCell ref="J241:R241"/>
+    <mergeCell ref="S241:Z241"/>
+    <mergeCell ref="J252:R252"/>
+    <mergeCell ref="S252:Z252"/>
+    <mergeCell ref="J253:R253"/>
+    <mergeCell ref="S253:Z253"/>
+    <mergeCell ref="J247:R247"/>
+    <mergeCell ref="S247:Z247"/>
     <mergeCell ref="J248:R248"/>
     <mergeCell ref="S248:Z248"/>
     <mergeCell ref="J249:R249"/>
     <mergeCell ref="S249:Z249"/>
-    <mergeCell ref="J243:R243"/>
-    <mergeCell ref="S243:Z243"/>
-    <mergeCell ref="J244:R244"/>
-    <mergeCell ref="S244:Z244"/>
-    <mergeCell ref="J245:R245"/>
-    <mergeCell ref="S245:Z245"/>
-    <mergeCell ref="J217:R217"/>
-    <mergeCell ref="S217:Z217"/>
-    <mergeCell ref="J218:R218"/>
-    <mergeCell ref="S218:Z218"/>
-    <mergeCell ref="J219:R219"/>
-    <mergeCell ref="S219:Z219"/>
+    <mergeCell ref="J221:R221"/>
+    <mergeCell ref="S221:Z221"/>
+    <mergeCell ref="J222:R222"/>
+    <mergeCell ref="S222:Z222"/>
+    <mergeCell ref="J223:R223"/>
+    <mergeCell ref="S223:Z223"/>
+    <mergeCell ref="J234:R234"/>
+    <mergeCell ref="S234:Z234"/>
+    <mergeCell ref="J235:R235"/>
+    <mergeCell ref="S235:Z235"/>
+    <mergeCell ref="J229:R229"/>
+    <mergeCell ref="S229:Z229"/>
     <mergeCell ref="J230:R230"/>
     <mergeCell ref="S230:Z230"/>
     <mergeCell ref="J231:R231"/>
     <mergeCell ref="S231:Z231"/>
-    <mergeCell ref="J225:R225"/>
-    <mergeCell ref="S225:Z225"/>
-    <mergeCell ref="J226:R226"/>
-    <mergeCell ref="S226:Z226"/>
-    <mergeCell ref="J227:R227"/>
-    <mergeCell ref="S227:Z227"/>
-    <mergeCell ref="J199:R199"/>
-    <mergeCell ref="S199:Z199"/>
-    <mergeCell ref="J200:R200"/>
-    <mergeCell ref="S200:Z200"/>
-    <mergeCell ref="J201:R201"/>
-    <mergeCell ref="S201:Z201"/>
+    <mergeCell ref="J203:R203"/>
+    <mergeCell ref="S203:Z203"/>
+    <mergeCell ref="J204:R204"/>
+    <mergeCell ref="S204:Z204"/>
+    <mergeCell ref="J205:R205"/>
+    <mergeCell ref="S205:Z205"/>
+    <mergeCell ref="J216:R216"/>
+    <mergeCell ref="S216:Z216"/>
+    <mergeCell ref="J217:R217"/>
+    <mergeCell ref="S217:Z217"/>
+    <mergeCell ref="J211:R211"/>
+    <mergeCell ref="S211:Z211"/>
     <mergeCell ref="J212:R212"/>
     <mergeCell ref="S212:Z212"/>
     <mergeCell ref="J213:R213"/>
     <mergeCell ref="S213:Z213"/>
-    <mergeCell ref="J207:R207"/>
-    <mergeCell ref="S207:Z207"/>
-    <mergeCell ref="J208:R208"/>
-    <mergeCell ref="S208:Z208"/>
-    <mergeCell ref="J209:R209"/>
-    <mergeCell ref="S209:Z209"/>
+    <mergeCell ref="J184:R184"/>
+    <mergeCell ref="S184:Z184"/>
+    <mergeCell ref="J185:R185"/>
+    <mergeCell ref="S185:Z185"/>
+    <mergeCell ref="J186:R186"/>
+    <mergeCell ref="S186:Z186"/>
+    <mergeCell ref="J197:R197"/>
+    <mergeCell ref="S197:Z197"/>
+    <mergeCell ref="J199:R199"/>
+    <mergeCell ref="S199:Z199"/>
+    <mergeCell ref="J192:R192"/>
+    <mergeCell ref="S192:Z192"/>
+    <mergeCell ref="J193:R193"/>
+    <mergeCell ref="S193:Z193"/>
+    <mergeCell ref="J194:R194"/>
+    <mergeCell ref="S194:Z194"/>
+    <mergeCell ref="J166:R166"/>
+    <mergeCell ref="S166:Z166"/>
+    <mergeCell ref="J167:R167"/>
+    <mergeCell ref="S167:Z167"/>
+    <mergeCell ref="J168:R168"/>
+    <mergeCell ref="S168:Z168"/>
+    <mergeCell ref="J179:R179"/>
+    <mergeCell ref="S179:Z179"/>
     <mergeCell ref="J180:R180"/>
     <mergeCell ref="S180:Z180"/>
-    <mergeCell ref="J181:R181"/>
-    <mergeCell ref="S181:Z181"/>
-    <mergeCell ref="J182:R182"/>
-    <mergeCell ref="S182:Z182"/>
-    <mergeCell ref="J193:R193"/>
-    <mergeCell ref="S193:Z193"/>
-    <mergeCell ref="J195:R195"/>
-    <mergeCell ref="S195:Z195"/>
-    <mergeCell ref="J188:R188"/>
-    <mergeCell ref="S188:Z188"/>
-    <mergeCell ref="J189:R189"/>
-    <mergeCell ref="S189:Z189"/>
-    <mergeCell ref="J190:R190"/>
-    <mergeCell ref="S190:Z190"/>
-    <mergeCell ref="J162:R162"/>
-    <mergeCell ref="S162:Z162"/>
-    <mergeCell ref="J163:R163"/>
-    <mergeCell ref="S163:Z163"/>
-    <mergeCell ref="J164:R164"/>
-    <mergeCell ref="S164:Z164"/>
+    <mergeCell ref="J174:R174"/>
+    <mergeCell ref="S174:Z174"/>
     <mergeCell ref="J175:R175"/>
     <mergeCell ref="S175:Z175"/>
     <mergeCell ref="J176:R176"/>
     <mergeCell ref="S176:Z176"/>
-    <mergeCell ref="J170:R170"/>
-    <mergeCell ref="S170:Z170"/>
-    <mergeCell ref="J171:R171"/>
-    <mergeCell ref="S171:Z171"/>
-    <mergeCell ref="J172:R172"/>
-    <mergeCell ref="S172:Z172"/>
-    <mergeCell ref="J144:R144"/>
-    <mergeCell ref="S144:Z144"/>
-    <mergeCell ref="J145:R145"/>
-    <mergeCell ref="S145:Z145"/>
-    <mergeCell ref="J146:R146"/>
-    <mergeCell ref="S146:Z146"/>
+    <mergeCell ref="J148:R148"/>
+    <mergeCell ref="S148:Z148"/>
+    <mergeCell ref="J149:R149"/>
+    <mergeCell ref="S149:Z149"/>
+    <mergeCell ref="J150:R150"/>
+    <mergeCell ref="S150:Z150"/>
+    <mergeCell ref="J161:R161"/>
+    <mergeCell ref="S161:Z161"/>
+    <mergeCell ref="J162:R162"/>
+    <mergeCell ref="S162:Z162"/>
+    <mergeCell ref="J156:R156"/>
+    <mergeCell ref="S156:Z156"/>
     <mergeCell ref="J157:R157"/>
     <mergeCell ref="S157:Z157"/>
     <mergeCell ref="J158:R158"/>
     <mergeCell ref="S158:Z158"/>
-    <mergeCell ref="J152:R152"/>
-    <mergeCell ref="S152:Z152"/>
-    <mergeCell ref="J153:R153"/>
-    <mergeCell ref="S153:Z153"/>
-    <mergeCell ref="J154:R154"/>
-    <mergeCell ref="S154:Z154"/>
-    <mergeCell ref="J126:R126"/>
-    <mergeCell ref="S126:Z126"/>
-    <mergeCell ref="J127:R127"/>
-    <mergeCell ref="S127:Z127"/>
-    <mergeCell ref="J128:R128"/>
-    <mergeCell ref="S128:Z128"/>
+    <mergeCell ref="J130:R130"/>
+    <mergeCell ref="S130:Z130"/>
+    <mergeCell ref="J131:R131"/>
+    <mergeCell ref="S131:Z131"/>
+    <mergeCell ref="J132:R132"/>
+    <mergeCell ref="S132:Z132"/>
+    <mergeCell ref="J143:R143"/>
+    <mergeCell ref="S143:Z143"/>
+    <mergeCell ref="J144:R144"/>
+    <mergeCell ref="S144:Z144"/>
+    <mergeCell ref="J138:R138"/>
+    <mergeCell ref="S138:Z138"/>
     <mergeCell ref="J139:R139"/>
     <mergeCell ref="S139:Z139"/>
     <mergeCell ref="J140:R140"/>
     <mergeCell ref="S140:Z140"/>
-    <mergeCell ref="J134:R134"/>
-    <mergeCell ref="S134:Z134"/>
-    <mergeCell ref="J135:R135"/>
-    <mergeCell ref="S135:Z135"/>
-    <mergeCell ref="J136:R136"/>
-    <mergeCell ref="S136:Z136"/>
-    <mergeCell ref="J108:R108"/>
-    <mergeCell ref="S108:Z108"/>
-    <mergeCell ref="J109:R109"/>
-    <mergeCell ref="S109:Z109"/>
-    <mergeCell ref="J110:R110"/>
-    <mergeCell ref="S110:Z110"/>
+    <mergeCell ref="J112:R112"/>
+    <mergeCell ref="S112:Z112"/>
+    <mergeCell ref="J113:R113"/>
+    <mergeCell ref="S113:Z113"/>
+    <mergeCell ref="J114:R114"/>
+    <mergeCell ref="S114:Z114"/>
+    <mergeCell ref="J125:R125"/>
+    <mergeCell ref="S125:Z125"/>
+    <mergeCell ref="J126:R126"/>
+    <mergeCell ref="S126:Z126"/>
+    <mergeCell ref="J120:R120"/>
+    <mergeCell ref="S120:Z120"/>
     <mergeCell ref="J121:R121"/>
     <mergeCell ref="S121:Z121"/>
     <mergeCell ref="J122:R122"/>
     <mergeCell ref="S122:Z122"/>
-    <mergeCell ref="J116:R116"/>
-    <mergeCell ref="S116:Z116"/>
-    <mergeCell ref="J117:R117"/>
-    <mergeCell ref="S117:Z117"/>
-    <mergeCell ref="J118:R118"/>
-    <mergeCell ref="S118:Z118"/>
-    <mergeCell ref="J90:R90"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="J91:R91"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="J92:R92"/>
-    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="J94:R94"/>
+    <mergeCell ref="S94:Z94"/>
+    <mergeCell ref="J95:R95"/>
+    <mergeCell ref="S95:Z95"/>
+    <mergeCell ref="J96:R96"/>
+    <mergeCell ref="S96:Z96"/>
+    <mergeCell ref="J107:R107"/>
+    <mergeCell ref="S107:Z107"/>
+    <mergeCell ref="J108:R108"/>
+    <mergeCell ref="S108:Z108"/>
+    <mergeCell ref="J102:R102"/>
+    <mergeCell ref="S102:Z102"/>
     <mergeCell ref="J103:R103"/>
     <mergeCell ref="S103:Z103"/>
     <mergeCell ref="J104:R104"/>
     <mergeCell ref="S104:Z104"/>
-    <mergeCell ref="J98:R98"/>
-    <mergeCell ref="S98:Z98"/>
-    <mergeCell ref="J99:R99"/>
-    <mergeCell ref="S99:Z99"/>
-    <mergeCell ref="J100:R100"/>
-    <mergeCell ref="S100:Z100"/>
-    <mergeCell ref="J71:R71"/>
-    <mergeCell ref="S71:Z71"/>
-    <mergeCell ref="J72:R72"/>
-    <mergeCell ref="S72:Z72"/>
-    <mergeCell ref="J73:R73"/>
-    <mergeCell ref="S73:Z73"/>
+    <mergeCell ref="J75:R75"/>
+    <mergeCell ref="S75:Z75"/>
+    <mergeCell ref="J76:R76"/>
+    <mergeCell ref="S76:Z76"/>
+    <mergeCell ref="J77:R77"/>
+    <mergeCell ref="S77:Z77"/>
+    <mergeCell ref="J88:R88"/>
+    <mergeCell ref="S88:Z88"/>
+    <mergeCell ref="J89:R89"/>
+    <mergeCell ref="S89:Z89"/>
+    <mergeCell ref="J83:R83"/>
+    <mergeCell ref="S83:Z83"/>
     <mergeCell ref="J84:R84"/>
     <mergeCell ref="S84:Z84"/>
     <mergeCell ref="J85:R85"/>
     <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="J79:R79"/>
-    <mergeCell ref="S79:Z79"/>
-    <mergeCell ref="J80:R80"/>
-    <mergeCell ref="S80:Z80"/>
-    <mergeCell ref="J81:R81"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="J53:R53"/>
-    <mergeCell ref="S53:Z53"/>
-    <mergeCell ref="J54:R54"/>
-    <mergeCell ref="S54:Z54"/>
-    <mergeCell ref="J55:R55"/>
-    <mergeCell ref="S55:Z55"/>
+    <mergeCell ref="J57:R57"/>
+    <mergeCell ref="S57:Z57"/>
+    <mergeCell ref="J58:R58"/>
+    <mergeCell ref="S58:Z58"/>
+    <mergeCell ref="J59:R59"/>
+    <mergeCell ref="S59:Z59"/>
+    <mergeCell ref="J70:R70"/>
+    <mergeCell ref="S70:Z70"/>
+    <mergeCell ref="J71:R71"/>
+    <mergeCell ref="S71:Z71"/>
+    <mergeCell ref="J65:R65"/>
+    <mergeCell ref="S65:Z65"/>
     <mergeCell ref="J66:R66"/>
     <mergeCell ref="S66:Z66"/>
     <mergeCell ref="J67:R67"/>
     <mergeCell ref="S67:Z67"/>
-    <mergeCell ref="J61:R61"/>
-    <mergeCell ref="S61:Z61"/>
-    <mergeCell ref="J62:R62"/>
-    <mergeCell ref="S62:Z62"/>
-    <mergeCell ref="J63:R63"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="J32:R32"/>
-    <mergeCell ref="S32:Z32"/>
     <mergeCell ref="J36:R36"/>
     <mergeCell ref="S36:Z36"/>
     <mergeCell ref="J37:R37"/>
     <mergeCell ref="S37:Z37"/>
+    <mergeCell ref="J52:R52"/>
+    <mergeCell ref="S52:Z52"/>
+    <mergeCell ref="J53:R53"/>
+    <mergeCell ref="S53:Z53"/>
+    <mergeCell ref="J47:R47"/>
+    <mergeCell ref="S47:Z47"/>
     <mergeCell ref="J48:R48"/>
     <mergeCell ref="S48:Z48"/>
     <mergeCell ref="J49:R49"/>
     <mergeCell ref="S49:Z49"/>
+    <mergeCell ref="J42:R42"/>
     <mergeCell ref="J43:R43"/>
+    <mergeCell ref="J44:R44"/>
+    <mergeCell ref="J45:R45"/>
+    <mergeCell ref="S42:Z42"/>
     <mergeCell ref="S43:Z43"/>
-    <mergeCell ref="J44:R44"/>
     <mergeCell ref="S44:Z44"/>
-    <mergeCell ref="J45:R45"/>
     <mergeCell ref="S45:Z45"/>
     <mergeCell ref="J34:R34"/>
     <mergeCell ref="J35:R35"/>
@@ -11900,467 +12100,457 @@
     <mergeCell ref="J17:R17"/>
     <mergeCell ref="S17:Z17"/>
     <mergeCell ref="J18:R18"/>
-    <mergeCell ref="J19:R19"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="J21:R21"/>
-    <mergeCell ref="J22:R22"/>
-    <mergeCell ref="J23:R23"/>
-    <mergeCell ref="J24:R24"/>
-    <mergeCell ref="J25:R25"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="S22:Z22"/>
-    <mergeCell ref="S23:Z23"/>
-    <mergeCell ref="D158:F193"/>
-    <mergeCell ref="A8:C193"/>
-    <mergeCell ref="G91:I121"/>
-    <mergeCell ref="G122:I140"/>
-    <mergeCell ref="G141:I157"/>
-    <mergeCell ref="G158:I171"/>
-    <mergeCell ref="G172:I182"/>
-    <mergeCell ref="D8:F44"/>
-    <mergeCell ref="G37:I44"/>
-    <mergeCell ref="D45:F77"/>
-    <mergeCell ref="D78:F121"/>
-    <mergeCell ref="D122:F157"/>
-    <mergeCell ref="G45:I60"/>
-    <mergeCell ref="G61:I77"/>
+    <mergeCell ref="D162:F197"/>
+    <mergeCell ref="A8:C197"/>
+    <mergeCell ref="G95:I125"/>
+    <mergeCell ref="G126:I144"/>
+    <mergeCell ref="G145:I161"/>
+    <mergeCell ref="G162:I175"/>
+    <mergeCell ref="G176:I186"/>
+    <mergeCell ref="D8:F48"/>
+    <mergeCell ref="G37:I48"/>
+    <mergeCell ref="D49:F81"/>
+    <mergeCell ref="D82:F125"/>
+    <mergeCell ref="D126:F161"/>
+    <mergeCell ref="G49:I64"/>
+    <mergeCell ref="G65:I81"/>
     <mergeCell ref="G16:I27"/>
     <mergeCell ref="G28:I36"/>
-    <mergeCell ref="G183:I193"/>
-    <mergeCell ref="G78:I84"/>
-    <mergeCell ref="G85:I90"/>
+    <mergeCell ref="G187:I197"/>
+    <mergeCell ref="G82:I88"/>
+    <mergeCell ref="G89:I94"/>
+    <mergeCell ref="J440:R440"/>
+    <mergeCell ref="S440:Z440"/>
+    <mergeCell ref="J441:R441"/>
+    <mergeCell ref="S441:Z441"/>
+    <mergeCell ref="J435:R435"/>
+    <mergeCell ref="S435:Z435"/>
     <mergeCell ref="J436:R436"/>
     <mergeCell ref="S436:Z436"/>
-    <mergeCell ref="J437:R437"/>
-    <mergeCell ref="S437:Z437"/>
+    <mergeCell ref="J430:R430"/>
+    <mergeCell ref="S430:Z430"/>
     <mergeCell ref="J431:R431"/>
     <mergeCell ref="S431:Z431"/>
     <mergeCell ref="J432:R432"/>
     <mergeCell ref="S432:Z432"/>
-    <mergeCell ref="J426:R426"/>
-    <mergeCell ref="S426:Z426"/>
-    <mergeCell ref="J427:R427"/>
-    <mergeCell ref="S427:Z427"/>
-    <mergeCell ref="J428:R428"/>
-    <mergeCell ref="S428:Z428"/>
-    <mergeCell ref="J429:R429"/>
-    <mergeCell ref="S429:Z429"/>
-    <mergeCell ref="J430:R430"/>
-    <mergeCell ref="S430:Z430"/>
+    <mergeCell ref="J433:R433"/>
+    <mergeCell ref="S433:Z433"/>
     <mergeCell ref="J434:R434"/>
     <mergeCell ref="S434:Z434"/>
-    <mergeCell ref="J435:R435"/>
-    <mergeCell ref="S435:Z435"/>
+    <mergeCell ref="J438:R438"/>
+    <mergeCell ref="S438:Z438"/>
+    <mergeCell ref="J439:R439"/>
+    <mergeCell ref="S439:Z439"/>
+    <mergeCell ref="J417:R417"/>
+    <mergeCell ref="S417:Z417"/>
+    <mergeCell ref="J418:R418"/>
+    <mergeCell ref="S418:Z418"/>
+    <mergeCell ref="J412:R412"/>
+    <mergeCell ref="S412:Z412"/>
     <mergeCell ref="J413:R413"/>
     <mergeCell ref="S413:Z413"/>
-    <mergeCell ref="J414:R414"/>
-    <mergeCell ref="S414:Z414"/>
+    <mergeCell ref="J404:R404"/>
+    <mergeCell ref="S404:Z404"/>
+    <mergeCell ref="J405:R405"/>
+    <mergeCell ref="S405:Z405"/>
+    <mergeCell ref="J406:R406"/>
+    <mergeCell ref="S406:Z406"/>
+    <mergeCell ref="J407:R407"/>
+    <mergeCell ref="S407:Z407"/>
     <mergeCell ref="J408:R408"/>
     <mergeCell ref="S408:Z408"/>
-    <mergeCell ref="J409:R409"/>
-    <mergeCell ref="S409:Z409"/>
+    <mergeCell ref="J416:R416"/>
+    <mergeCell ref="S416:Z416"/>
+    <mergeCell ref="J399:R399"/>
+    <mergeCell ref="S399:Z399"/>
     <mergeCell ref="J400:R400"/>
     <mergeCell ref="S400:Z400"/>
-    <mergeCell ref="J401:R401"/>
-    <mergeCell ref="S401:Z401"/>
-    <mergeCell ref="J402:R402"/>
-    <mergeCell ref="S402:Z402"/>
-    <mergeCell ref="J403:R403"/>
-    <mergeCell ref="S403:Z403"/>
-    <mergeCell ref="J404:R404"/>
-    <mergeCell ref="S404:Z404"/>
-    <mergeCell ref="J412:R412"/>
-    <mergeCell ref="S412:Z412"/>
+    <mergeCell ref="J394:R394"/>
+    <mergeCell ref="S394:Z394"/>
     <mergeCell ref="J395:R395"/>
     <mergeCell ref="S395:Z395"/>
-    <mergeCell ref="J396:R396"/>
-    <mergeCell ref="S396:Z396"/>
+    <mergeCell ref="J386:R386"/>
+    <mergeCell ref="S386:Z386"/>
+    <mergeCell ref="J387:R387"/>
+    <mergeCell ref="S387:Z387"/>
+    <mergeCell ref="J388:R388"/>
+    <mergeCell ref="S388:Z388"/>
+    <mergeCell ref="J389:R389"/>
+    <mergeCell ref="S389:Z389"/>
     <mergeCell ref="J390:R390"/>
     <mergeCell ref="S390:Z390"/>
-    <mergeCell ref="J391:R391"/>
-    <mergeCell ref="S391:Z391"/>
+    <mergeCell ref="J398:R398"/>
+    <mergeCell ref="S398:Z398"/>
+    <mergeCell ref="J381:R381"/>
+    <mergeCell ref="S381:Z381"/>
     <mergeCell ref="J382:R382"/>
     <mergeCell ref="S382:Z382"/>
-    <mergeCell ref="J383:R383"/>
-    <mergeCell ref="S383:Z383"/>
-    <mergeCell ref="J384:R384"/>
-    <mergeCell ref="S384:Z384"/>
-    <mergeCell ref="J385:R385"/>
-    <mergeCell ref="S385:Z385"/>
-    <mergeCell ref="J386:R386"/>
-    <mergeCell ref="S386:Z386"/>
-    <mergeCell ref="J394:R394"/>
-    <mergeCell ref="S394:Z394"/>
+    <mergeCell ref="J376:R376"/>
+    <mergeCell ref="S376:Z376"/>
     <mergeCell ref="J377:R377"/>
     <mergeCell ref="S377:Z377"/>
-    <mergeCell ref="J378:R378"/>
-    <mergeCell ref="S378:Z378"/>
+    <mergeCell ref="J368:R368"/>
+    <mergeCell ref="S368:Z368"/>
+    <mergeCell ref="J369:R369"/>
+    <mergeCell ref="S369:Z369"/>
+    <mergeCell ref="J370:R370"/>
+    <mergeCell ref="S370:Z370"/>
+    <mergeCell ref="J371:R371"/>
+    <mergeCell ref="S371:Z371"/>
     <mergeCell ref="J372:R372"/>
     <mergeCell ref="S372:Z372"/>
-    <mergeCell ref="J373:R373"/>
-    <mergeCell ref="S373:Z373"/>
+    <mergeCell ref="J380:R380"/>
+    <mergeCell ref="S380:Z380"/>
+    <mergeCell ref="J363:R363"/>
+    <mergeCell ref="S363:Z363"/>
     <mergeCell ref="J364:R364"/>
     <mergeCell ref="S364:Z364"/>
-    <mergeCell ref="J365:R365"/>
-    <mergeCell ref="S365:Z365"/>
-    <mergeCell ref="J366:R366"/>
-    <mergeCell ref="S366:Z366"/>
-    <mergeCell ref="J367:R367"/>
-    <mergeCell ref="S367:Z367"/>
-    <mergeCell ref="J368:R368"/>
-    <mergeCell ref="S368:Z368"/>
-    <mergeCell ref="J376:R376"/>
-    <mergeCell ref="S376:Z376"/>
+    <mergeCell ref="J358:R358"/>
+    <mergeCell ref="S358:Z358"/>
     <mergeCell ref="J359:R359"/>
     <mergeCell ref="S359:Z359"/>
-    <mergeCell ref="J360:R360"/>
-    <mergeCell ref="S360:Z360"/>
+    <mergeCell ref="J350:R350"/>
+    <mergeCell ref="S350:Z350"/>
+    <mergeCell ref="J351:R351"/>
+    <mergeCell ref="S351:Z351"/>
+    <mergeCell ref="J352:R352"/>
+    <mergeCell ref="S352:Z352"/>
+    <mergeCell ref="J353:R353"/>
+    <mergeCell ref="S353:Z353"/>
     <mergeCell ref="J354:R354"/>
     <mergeCell ref="S354:Z354"/>
-    <mergeCell ref="J355:R355"/>
-    <mergeCell ref="S355:Z355"/>
+    <mergeCell ref="J362:R362"/>
+    <mergeCell ref="S362:Z362"/>
+    <mergeCell ref="J345:R345"/>
+    <mergeCell ref="S345:Z345"/>
     <mergeCell ref="J346:R346"/>
     <mergeCell ref="S346:Z346"/>
-    <mergeCell ref="J347:R347"/>
-    <mergeCell ref="S347:Z347"/>
-    <mergeCell ref="J348:R348"/>
-    <mergeCell ref="S348:Z348"/>
-    <mergeCell ref="J349:R349"/>
-    <mergeCell ref="S349:Z349"/>
-    <mergeCell ref="J350:R350"/>
-    <mergeCell ref="S350:Z350"/>
-    <mergeCell ref="J358:R358"/>
-    <mergeCell ref="S358:Z358"/>
+    <mergeCell ref="J340:R340"/>
+    <mergeCell ref="S340:Z340"/>
     <mergeCell ref="J341:R341"/>
     <mergeCell ref="S341:Z341"/>
-    <mergeCell ref="J342:R342"/>
-    <mergeCell ref="S342:Z342"/>
+    <mergeCell ref="J332:R332"/>
+    <mergeCell ref="S332:Z332"/>
+    <mergeCell ref="J333:R333"/>
+    <mergeCell ref="S333:Z333"/>
+    <mergeCell ref="J334:R334"/>
+    <mergeCell ref="S334:Z334"/>
+    <mergeCell ref="J335:R335"/>
+    <mergeCell ref="S335:Z335"/>
     <mergeCell ref="J336:R336"/>
     <mergeCell ref="S336:Z336"/>
-    <mergeCell ref="J337:R337"/>
-    <mergeCell ref="S337:Z337"/>
+    <mergeCell ref="J344:R344"/>
+    <mergeCell ref="S344:Z344"/>
+    <mergeCell ref="J327:R327"/>
+    <mergeCell ref="S327:Z327"/>
     <mergeCell ref="J328:R328"/>
     <mergeCell ref="S328:Z328"/>
-    <mergeCell ref="J329:R329"/>
-    <mergeCell ref="S329:Z329"/>
-    <mergeCell ref="J330:R330"/>
-    <mergeCell ref="S330:Z330"/>
-    <mergeCell ref="J331:R331"/>
-    <mergeCell ref="S331:Z331"/>
-    <mergeCell ref="J332:R332"/>
-    <mergeCell ref="S332:Z332"/>
-    <mergeCell ref="J340:R340"/>
-    <mergeCell ref="S340:Z340"/>
+    <mergeCell ref="J322:R322"/>
+    <mergeCell ref="S322:Z322"/>
     <mergeCell ref="J323:R323"/>
     <mergeCell ref="S323:Z323"/>
-    <mergeCell ref="J324:R324"/>
-    <mergeCell ref="S324:Z324"/>
+    <mergeCell ref="J314:R314"/>
+    <mergeCell ref="S314:Z314"/>
+    <mergeCell ref="J315:R315"/>
+    <mergeCell ref="S315:Z315"/>
+    <mergeCell ref="J316:R316"/>
+    <mergeCell ref="S316:Z316"/>
+    <mergeCell ref="J317:R317"/>
+    <mergeCell ref="S317:Z317"/>
     <mergeCell ref="J318:R318"/>
     <mergeCell ref="S318:Z318"/>
-    <mergeCell ref="J319:R319"/>
-    <mergeCell ref="S319:Z319"/>
+    <mergeCell ref="J326:R326"/>
+    <mergeCell ref="S326:Z326"/>
+    <mergeCell ref="J309:R309"/>
+    <mergeCell ref="S309:Z309"/>
     <mergeCell ref="J310:R310"/>
     <mergeCell ref="S310:Z310"/>
-    <mergeCell ref="J311:R311"/>
-    <mergeCell ref="S311:Z311"/>
-    <mergeCell ref="J312:R312"/>
-    <mergeCell ref="S312:Z312"/>
-    <mergeCell ref="J313:R313"/>
-    <mergeCell ref="S313:Z313"/>
-    <mergeCell ref="J314:R314"/>
-    <mergeCell ref="S314:Z314"/>
-    <mergeCell ref="J322:R322"/>
-    <mergeCell ref="S322:Z322"/>
+    <mergeCell ref="J304:R304"/>
+    <mergeCell ref="S304:Z304"/>
     <mergeCell ref="J305:R305"/>
     <mergeCell ref="S305:Z305"/>
-    <mergeCell ref="J306:R306"/>
-    <mergeCell ref="S306:Z306"/>
+    <mergeCell ref="J296:R296"/>
+    <mergeCell ref="S296:Z296"/>
+    <mergeCell ref="J297:R297"/>
+    <mergeCell ref="S297:Z297"/>
+    <mergeCell ref="J298:R298"/>
+    <mergeCell ref="S298:Z298"/>
+    <mergeCell ref="J299:R299"/>
+    <mergeCell ref="S299:Z299"/>
     <mergeCell ref="J300:R300"/>
     <mergeCell ref="S300:Z300"/>
-    <mergeCell ref="J301:R301"/>
-    <mergeCell ref="S301:Z301"/>
+    <mergeCell ref="J308:R308"/>
+    <mergeCell ref="S308:Z308"/>
+    <mergeCell ref="J291:R291"/>
+    <mergeCell ref="S291:Z291"/>
     <mergeCell ref="J292:R292"/>
     <mergeCell ref="S292:Z292"/>
-    <mergeCell ref="J293:R293"/>
-    <mergeCell ref="S293:Z293"/>
-    <mergeCell ref="J294:R294"/>
-    <mergeCell ref="S294:Z294"/>
-    <mergeCell ref="J295:R295"/>
-    <mergeCell ref="S295:Z295"/>
-    <mergeCell ref="J296:R296"/>
-    <mergeCell ref="S296:Z296"/>
-    <mergeCell ref="J304:R304"/>
-    <mergeCell ref="S304:Z304"/>
+    <mergeCell ref="J286:R286"/>
+    <mergeCell ref="S286:Z286"/>
     <mergeCell ref="J287:R287"/>
     <mergeCell ref="S287:Z287"/>
-    <mergeCell ref="J288:R288"/>
-    <mergeCell ref="S288:Z288"/>
+    <mergeCell ref="J278:R278"/>
+    <mergeCell ref="S278:Z278"/>
+    <mergeCell ref="J279:R279"/>
+    <mergeCell ref="S279:Z279"/>
+    <mergeCell ref="J280:R280"/>
+    <mergeCell ref="S280:Z280"/>
+    <mergeCell ref="J281:R281"/>
+    <mergeCell ref="S281:Z281"/>
     <mergeCell ref="J282:R282"/>
     <mergeCell ref="S282:Z282"/>
-    <mergeCell ref="J283:R283"/>
-    <mergeCell ref="S283:Z283"/>
+    <mergeCell ref="J290:R290"/>
+    <mergeCell ref="S290:Z290"/>
+    <mergeCell ref="J273:R273"/>
+    <mergeCell ref="S273:Z273"/>
     <mergeCell ref="J274:R274"/>
     <mergeCell ref="S274:Z274"/>
-    <mergeCell ref="J275:R275"/>
-    <mergeCell ref="S275:Z275"/>
-    <mergeCell ref="J276:R276"/>
-    <mergeCell ref="S276:Z276"/>
-    <mergeCell ref="J277:R277"/>
-    <mergeCell ref="S277:Z277"/>
-    <mergeCell ref="J278:R278"/>
-    <mergeCell ref="S278:Z278"/>
-    <mergeCell ref="J286:R286"/>
-    <mergeCell ref="S286:Z286"/>
+    <mergeCell ref="J268:R268"/>
+    <mergeCell ref="S268:Z268"/>
     <mergeCell ref="J269:R269"/>
     <mergeCell ref="S269:Z269"/>
-    <mergeCell ref="J270:R270"/>
-    <mergeCell ref="S270:Z270"/>
+    <mergeCell ref="J260:R260"/>
+    <mergeCell ref="S260:Z260"/>
+    <mergeCell ref="J261:R261"/>
+    <mergeCell ref="S261:Z261"/>
+    <mergeCell ref="J262:R262"/>
+    <mergeCell ref="S262:Z262"/>
+    <mergeCell ref="J263:R263"/>
+    <mergeCell ref="S263:Z263"/>
     <mergeCell ref="J264:R264"/>
     <mergeCell ref="S264:Z264"/>
-    <mergeCell ref="J265:R265"/>
-    <mergeCell ref="S265:Z265"/>
+    <mergeCell ref="J272:R272"/>
+    <mergeCell ref="S272:Z272"/>
+    <mergeCell ref="J255:R255"/>
+    <mergeCell ref="S255:Z255"/>
     <mergeCell ref="J256:R256"/>
     <mergeCell ref="S256:Z256"/>
-    <mergeCell ref="J257:R257"/>
-    <mergeCell ref="S257:Z257"/>
-    <mergeCell ref="J258:R258"/>
-    <mergeCell ref="S258:Z258"/>
-    <mergeCell ref="J259:R259"/>
-    <mergeCell ref="S259:Z259"/>
-    <mergeCell ref="J260:R260"/>
-    <mergeCell ref="S260:Z260"/>
-    <mergeCell ref="J268:R268"/>
-    <mergeCell ref="S268:Z268"/>
+    <mergeCell ref="J250:R250"/>
+    <mergeCell ref="S250:Z250"/>
     <mergeCell ref="J251:R251"/>
     <mergeCell ref="S251:Z251"/>
-    <mergeCell ref="J252:R252"/>
-    <mergeCell ref="S252:Z252"/>
+    <mergeCell ref="J242:R242"/>
+    <mergeCell ref="S242:Z242"/>
+    <mergeCell ref="J243:R243"/>
+    <mergeCell ref="S243:Z243"/>
+    <mergeCell ref="J244:R244"/>
+    <mergeCell ref="S244:Z244"/>
+    <mergeCell ref="J245:R245"/>
+    <mergeCell ref="S245:Z245"/>
     <mergeCell ref="J246:R246"/>
     <mergeCell ref="S246:Z246"/>
-    <mergeCell ref="J247:R247"/>
-    <mergeCell ref="S247:Z247"/>
+    <mergeCell ref="J254:R254"/>
+    <mergeCell ref="S254:Z254"/>
+    <mergeCell ref="J237:R237"/>
+    <mergeCell ref="S237:Z237"/>
     <mergeCell ref="J238:R238"/>
     <mergeCell ref="S238:Z238"/>
-    <mergeCell ref="J239:R239"/>
-    <mergeCell ref="S239:Z239"/>
-    <mergeCell ref="J240:R240"/>
-    <mergeCell ref="S240:Z240"/>
-    <mergeCell ref="J241:R241"/>
-    <mergeCell ref="S241:Z241"/>
-    <mergeCell ref="J242:R242"/>
-    <mergeCell ref="S242:Z242"/>
-    <mergeCell ref="J250:R250"/>
-    <mergeCell ref="S250:Z250"/>
+    <mergeCell ref="J232:R232"/>
+    <mergeCell ref="S232:Z232"/>
     <mergeCell ref="J233:R233"/>
     <mergeCell ref="S233:Z233"/>
-    <mergeCell ref="J234:R234"/>
-    <mergeCell ref="S234:Z234"/>
+    <mergeCell ref="J224:R224"/>
+    <mergeCell ref="S224:Z224"/>
+    <mergeCell ref="J225:R225"/>
+    <mergeCell ref="S225:Z225"/>
+    <mergeCell ref="J226:R226"/>
+    <mergeCell ref="S226:Z226"/>
+    <mergeCell ref="J227:R227"/>
+    <mergeCell ref="S227:Z227"/>
     <mergeCell ref="J228:R228"/>
     <mergeCell ref="S228:Z228"/>
-    <mergeCell ref="J229:R229"/>
-    <mergeCell ref="S229:Z229"/>
+    <mergeCell ref="J236:R236"/>
+    <mergeCell ref="S236:Z236"/>
+    <mergeCell ref="J219:R219"/>
+    <mergeCell ref="S219:Z219"/>
     <mergeCell ref="J220:R220"/>
     <mergeCell ref="S220:Z220"/>
-    <mergeCell ref="J221:R221"/>
-    <mergeCell ref="S221:Z221"/>
-    <mergeCell ref="J222:R222"/>
-    <mergeCell ref="S222:Z222"/>
-    <mergeCell ref="J223:R223"/>
-    <mergeCell ref="S223:Z223"/>
-    <mergeCell ref="J224:R224"/>
-    <mergeCell ref="S224:Z224"/>
-    <mergeCell ref="J232:R232"/>
-    <mergeCell ref="S232:Z232"/>
+    <mergeCell ref="J214:R214"/>
+    <mergeCell ref="S214:Z214"/>
     <mergeCell ref="J215:R215"/>
     <mergeCell ref="S215:Z215"/>
-    <mergeCell ref="J216:R216"/>
-    <mergeCell ref="S216:Z216"/>
+    <mergeCell ref="J206:R206"/>
+    <mergeCell ref="S206:Z206"/>
+    <mergeCell ref="J207:R207"/>
+    <mergeCell ref="S207:Z207"/>
+    <mergeCell ref="J208:R208"/>
+    <mergeCell ref="S208:Z208"/>
+    <mergeCell ref="J209:R209"/>
+    <mergeCell ref="S209:Z209"/>
     <mergeCell ref="J210:R210"/>
     <mergeCell ref="S210:Z210"/>
-    <mergeCell ref="J211:R211"/>
-    <mergeCell ref="S211:Z211"/>
+    <mergeCell ref="J218:R218"/>
+    <mergeCell ref="S218:Z218"/>
+    <mergeCell ref="J201:R201"/>
+    <mergeCell ref="S201:Z201"/>
     <mergeCell ref="J202:R202"/>
     <mergeCell ref="S202:Z202"/>
-    <mergeCell ref="J203:R203"/>
-    <mergeCell ref="S203:Z203"/>
-    <mergeCell ref="J204:R204"/>
-    <mergeCell ref="S204:Z204"/>
-    <mergeCell ref="J205:R205"/>
-    <mergeCell ref="S205:Z205"/>
-    <mergeCell ref="J206:R206"/>
-    <mergeCell ref="S206:Z206"/>
-    <mergeCell ref="J214:R214"/>
-    <mergeCell ref="S214:Z214"/>
-    <mergeCell ref="J197:R197"/>
-    <mergeCell ref="S197:Z197"/>
-    <mergeCell ref="J198:R198"/>
-    <mergeCell ref="S198:Z198"/>
+    <mergeCell ref="J195:R195"/>
+    <mergeCell ref="S195:Z195"/>
+    <mergeCell ref="J196:R196"/>
+    <mergeCell ref="S196:Z196"/>
+    <mergeCell ref="J187:R187"/>
+    <mergeCell ref="S187:Z187"/>
+    <mergeCell ref="J188:R188"/>
+    <mergeCell ref="S188:Z188"/>
+    <mergeCell ref="J189:R189"/>
+    <mergeCell ref="S189:Z189"/>
+    <mergeCell ref="J190:R190"/>
+    <mergeCell ref="S190:Z190"/>
     <mergeCell ref="J191:R191"/>
     <mergeCell ref="S191:Z191"/>
-    <mergeCell ref="J192:R192"/>
-    <mergeCell ref="S192:Z192"/>
+    <mergeCell ref="J200:R200"/>
+    <mergeCell ref="S200:Z200"/>
+    <mergeCell ref="J182:R182"/>
+    <mergeCell ref="S182:Z182"/>
     <mergeCell ref="J183:R183"/>
     <mergeCell ref="S183:Z183"/>
-    <mergeCell ref="J184:R184"/>
-    <mergeCell ref="S184:Z184"/>
-    <mergeCell ref="J185:R185"/>
-    <mergeCell ref="S185:Z185"/>
-    <mergeCell ref="J186:R186"/>
-    <mergeCell ref="S186:Z186"/>
-    <mergeCell ref="J187:R187"/>
-    <mergeCell ref="S187:Z187"/>
-    <mergeCell ref="J196:R196"/>
-    <mergeCell ref="S196:Z196"/>
+    <mergeCell ref="J177:R177"/>
+    <mergeCell ref="S177:Z177"/>
     <mergeCell ref="J178:R178"/>
     <mergeCell ref="S178:Z178"/>
-    <mergeCell ref="J179:R179"/>
-    <mergeCell ref="S179:Z179"/>
+    <mergeCell ref="J169:R169"/>
+    <mergeCell ref="S169:Z169"/>
+    <mergeCell ref="J170:R170"/>
+    <mergeCell ref="S170:Z170"/>
+    <mergeCell ref="J171:R171"/>
+    <mergeCell ref="S171:Z171"/>
+    <mergeCell ref="J172:R172"/>
+    <mergeCell ref="S172:Z172"/>
     <mergeCell ref="J173:R173"/>
     <mergeCell ref="S173:Z173"/>
-    <mergeCell ref="J174:R174"/>
-    <mergeCell ref="S174:Z174"/>
+    <mergeCell ref="J181:R181"/>
+    <mergeCell ref="S181:Z181"/>
+    <mergeCell ref="J164:R164"/>
+    <mergeCell ref="S164:Z164"/>
     <mergeCell ref="J165:R165"/>
     <mergeCell ref="S165:Z165"/>
-    <mergeCell ref="J166:R166"/>
-    <mergeCell ref="S166:Z166"/>
-    <mergeCell ref="J167:R167"/>
-    <mergeCell ref="S167:Z167"/>
-    <mergeCell ref="J168:R168"/>
-    <mergeCell ref="S168:Z168"/>
-    <mergeCell ref="J169:R169"/>
-    <mergeCell ref="S169:Z169"/>
-    <mergeCell ref="J177:R177"/>
-    <mergeCell ref="S177:Z177"/>
+    <mergeCell ref="J159:R159"/>
+    <mergeCell ref="S159:Z159"/>
     <mergeCell ref="J160:R160"/>
     <mergeCell ref="S160:Z160"/>
-    <mergeCell ref="J161:R161"/>
-    <mergeCell ref="S161:Z161"/>
+    <mergeCell ref="J151:R151"/>
+    <mergeCell ref="S151:Z151"/>
+    <mergeCell ref="J152:R152"/>
+    <mergeCell ref="S152:Z152"/>
+    <mergeCell ref="J153:R153"/>
+    <mergeCell ref="S153:Z153"/>
+    <mergeCell ref="J154:R154"/>
+    <mergeCell ref="S154:Z154"/>
     <mergeCell ref="J155:R155"/>
     <mergeCell ref="S155:Z155"/>
-    <mergeCell ref="J156:R156"/>
-    <mergeCell ref="S156:Z156"/>
+    <mergeCell ref="J163:R163"/>
+    <mergeCell ref="S163:Z163"/>
+    <mergeCell ref="J146:R146"/>
+    <mergeCell ref="S146:Z146"/>
     <mergeCell ref="J147:R147"/>
     <mergeCell ref="S147:Z147"/>
-    <mergeCell ref="J148:R148"/>
-    <mergeCell ref="S148:Z148"/>
-    <mergeCell ref="J149:R149"/>
-    <mergeCell ref="S149:Z149"/>
-    <mergeCell ref="J150:R150"/>
-    <mergeCell ref="S150:Z150"/>
-    <mergeCell ref="J151:R151"/>
-    <mergeCell ref="S151:Z151"/>
-    <mergeCell ref="J159:R159"/>
-    <mergeCell ref="S159:Z159"/>
+    <mergeCell ref="J141:R141"/>
+    <mergeCell ref="S141:Z141"/>
     <mergeCell ref="J142:R142"/>
     <mergeCell ref="S142:Z142"/>
-    <mergeCell ref="J143:R143"/>
-    <mergeCell ref="S143:Z143"/>
+    <mergeCell ref="J133:R133"/>
+    <mergeCell ref="S133:Z133"/>
+    <mergeCell ref="J134:R134"/>
+    <mergeCell ref="S134:Z134"/>
+    <mergeCell ref="J135:R135"/>
+    <mergeCell ref="S135:Z135"/>
+    <mergeCell ref="J136:R136"/>
+    <mergeCell ref="S136:Z136"/>
     <mergeCell ref="J137:R137"/>
     <mergeCell ref="S137:Z137"/>
-    <mergeCell ref="J138:R138"/>
-    <mergeCell ref="S138:Z138"/>
+    <mergeCell ref="J145:R145"/>
+    <mergeCell ref="S145:Z145"/>
+    <mergeCell ref="J128:R128"/>
+    <mergeCell ref="S128:Z128"/>
     <mergeCell ref="J129:R129"/>
     <mergeCell ref="S129:Z129"/>
-    <mergeCell ref="J130:R130"/>
-    <mergeCell ref="S130:Z130"/>
-    <mergeCell ref="J131:R131"/>
-    <mergeCell ref="S131:Z131"/>
-    <mergeCell ref="J132:R132"/>
-    <mergeCell ref="S132:Z132"/>
-    <mergeCell ref="J133:R133"/>
-    <mergeCell ref="S133:Z133"/>
-    <mergeCell ref="J141:R141"/>
-    <mergeCell ref="S141:Z141"/>
+    <mergeCell ref="J123:R123"/>
+    <mergeCell ref="S123:Z123"/>
     <mergeCell ref="J124:R124"/>
     <mergeCell ref="S124:Z124"/>
-    <mergeCell ref="J125:R125"/>
-    <mergeCell ref="S125:Z125"/>
+    <mergeCell ref="J115:R115"/>
+    <mergeCell ref="S115:Z115"/>
+    <mergeCell ref="J116:R116"/>
+    <mergeCell ref="S116:Z116"/>
+    <mergeCell ref="J117:R117"/>
+    <mergeCell ref="S117:Z117"/>
+    <mergeCell ref="J118:R118"/>
+    <mergeCell ref="S118:Z118"/>
     <mergeCell ref="J119:R119"/>
     <mergeCell ref="S119:Z119"/>
-    <mergeCell ref="J120:R120"/>
-    <mergeCell ref="S120:Z120"/>
+    <mergeCell ref="J127:R127"/>
+    <mergeCell ref="S127:Z127"/>
+    <mergeCell ref="J110:R110"/>
+    <mergeCell ref="S110:Z110"/>
     <mergeCell ref="J111:R111"/>
     <mergeCell ref="S111:Z111"/>
-    <mergeCell ref="J112:R112"/>
-    <mergeCell ref="S112:Z112"/>
-    <mergeCell ref="J113:R113"/>
-    <mergeCell ref="S113:Z113"/>
-    <mergeCell ref="J114:R114"/>
-    <mergeCell ref="S114:Z114"/>
-    <mergeCell ref="J115:R115"/>
-    <mergeCell ref="S115:Z115"/>
-    <mergeCell ref="J123:R123"/>
-    <mergeCell ref="S123:Z123"/>
+    <mergeCell ref="J105:R105"/>
+    <mergeCell ref="S105:Z105"/>
     <mergeCell ref="J106:R106"/>
     <mergeCell ref="S106:Z106"/>
-    <mergeCell ref="J107:R107"/>
-    <mergeCell ref="S107:Z107"/>
+    <mergeCell ref="J97:R97"/>
+    <mergeCell ref="S97:Z97"/>
+    <mergeCell ref="J98:R98"/>
+    <mergeCell ref="S98:Z98"/>
+    <mergeCell ref="J99:R99"/>
+    <mergeCell ref="S99:Z99"/>
+    <mergeCell ref="J100:R100"/>
+    <mergeCell ref="S100:Z100"/>
     <mergeCell ref="J101:R101"/>
     <mergeCell ref="S101:Z101"/>
-    <mergeCell ref="J102:R102"/>
-    <mergeCell ref="S102:Z102"/>
+    <mergeCell ref="J109:R109"/>
+    <mergeCell ref="S109:Z109"/>
+    <mergeCell ref="J92:R92"/>
+    <mergeCell ref="S92:Z92"/>
     <mergeCell ref="J93:R93"/>
     <mergeCell ref="S93:Z93"/>
-    <mergeCell ref="J94:R94"/>
-    <mergeCell ref="S94:Z94"/>
-    <mergeCell ref="J95:R95"/>
-    <mergeCell ref="S95:Z95"/>
-    <mergeCell ref="J96:R96"/>
-    <mergeCell ref="S96:Z96"/>
-    <mergeCell ref="J97:R97"/>
-    <mergeCell ref="S97:Z97"/>
-    <mergeCell ref="J105:R105"/>
-    <mergeCell ref="S105:Z105"/>
-    <mergeCell ref="J88:R88"/>
-    <mergeCell ref="S88:Z88"/>
-    <mergeCell ref="J89:R89"/>
-    <mergeCell ref="S89:Z89"/>
-    <mergeCell ref="J82:R82"/>
-    <mergeCell ref="S82:Z82"/>
-    <mergeCell ref="J83:R83"/>
-    <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="J74:R74"/>
-    <mergeCell ref="S74:Z74"/>
-    <mergeCell ref="J75:R75"/>
-    <mergeCell ref="S75:Z75"/>
-    <mergeCell ref="J76:R76"/>
-    <mergeCell ref="S76:Z76"/>
-    <mergeCell ref="J77:R77"/>
-    <mergeCell ref="S77:Z77"/>
-    <mergeCell ref="J78:R78"/>
-    <mergeCell ref="S78:Z78"/>
     <mergeCell ref="J86:R86"/>
     <mergeCell ref="S86:Z86"/>
     <mergeCell ref="J87:R87"/>
     <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="J78:R78"/>
+    <mergeCell ref="S78:Z78"/>
+    <mergeCell ref="J79:R79"/>
+    <mergeCell ref="S79:Z79"/>
+    <mergeCell ref="J80:R80"/>
+    <mergeCell ref="S80:Z80"/>
+    <mergeCell ref="J81:R81"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="J82:R82"/>
+    <mergeCell ref="S82:Z82"/>
+    <mergeCell ref="J90:R90"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="J91:R91"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="J73:R73"/>
+    <mergeCell ref="S73:Z73"/>
+    <mergeCell ref="J74:R74"/>
+    <mergeCell ref="S74:Z74"/>
+    <mergeCell ref="J68:R68"/>
+    <mergeCell ref="S68:Z68"/>
     <mergeCell ref="J69:R69"/>
     <mergeCell ref="S69:Z69"/>
-    <mergeCell ref="J70:R70"/>
-    <mergeCell ref="S70:Z70"/>
+    <mergeCell ref="J60:R60"/>
+    <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="J61:R61"/>
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="J62:R62"/>
+    <mergeCell ref="S62:Z62"/>
+    <mergeCell ref="J63:R63"/>
+    <mergeCell ref="S63:Z63"/>
     <mergeCell ref="J64:R64"/>
     <mergeCell ref="S64:Z64"/>
-    <mergeCell ref="J65:R65"/>
-    <mergeCell ref="S65:Z65"/>
+    <mergeCell ref="J72:R72"/>
+    <mergeCell ref="S72:Z72"/>
+    <mergeCell ref="J55:R55"/>
+    <mergeCell ref="S55:Z55"/>
     <mergeCell ref="J56:R56"/>
     <mergeCell ref="S56:Z56"/>
-    <mergeCell ref="J57:R57"/>
-    <mergeCell ref="S57:Z57"/>
-    <mergeCell ref="J58:R58"/>
-    <mergeCell ref="S58:Z58"/>
-    <mergeCell ref="J59:R59"/>
-    <mergeCell ref="S59:Z59"/>
-    <mergeCell ref="J60:R60"/>
-    <mergeCell ref="S60:Z60"/>
-    <mergeCell ref="J68:R68"/>
-    <mergeCell ref="S68:Z68"/>
+    <mergeCell ref="J50:R50"/>
+    <mergeCell ref="S50:Z50"/>
     <mergeCell ref="J51:R51"/>
     <mergeCell ref="S51:Z51"/>
-    <mergeCell ref="J52:R52"/>
-    <mergeCell ref="S52:Z52"/>
-    <mergeCell ref="J46:R46"/>
-    <mergeCell ref="S46:Z46"/>
-    <mergeCell ref="J47:R47"/>
-    <mergeCell ref="S47:Z47"/>
     <mergeCell ref="J38:R38"/>
     <mergeCell ref="S38:Z38"/>
     <mergeCell ref="J39:R39"/>
@@ -12369,10 +12559,10 @@
     <mergeCell ref="S40:Z40"/>
     <mergeCell ref="J41:R41"/>
     <mergeCell ref="S41:Z41"/>
-    <mergeCell ref="J42:R42"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="J50:R50"/>
-    <mergeCell ref="S50:Z50"/>
+    <mergeCell ref="J46:R46"/>
+    <mergeCell ref="S46:Z46"/>
+    <mergeCell ref="J54:R54"/>
+    <mergeCell ref="S54:Z54"/>
     <mergeCell ref="A1:Z2"/>
     <mergeCell ref="A3:Z4"/>
     <mergeCell ref="A6:C7"/>
@@ -12439,29 +12629,34 @@
     <hyperlink ref="S11" r:id="rId13"/>
     <hyperlink ref="S37" r:id="rId14"/>
     <hyperlink ref="S38" r:id="rId15"/>
-    <hyperlink ref="S78" r:id="rId16"/>
-    <hyperlink ref="S79" r:id="rId17"/>
-    <hyperlink ref="S80" r:id="rId18"/>
+    <hyperlink ref="S82" r:id="rId16"/>
+    <hyperlink ref="S83" r:id="rId17"/>
+    <hyperlink ref="S84" r:id="rId18"/>
     <hyperlink ref="S13" r:id="rId19"/>
-    <hyperlink ref="S45" r:id="rId20"/>
-    <hyperlink ref="S46" r:id="rId21"/>
-    <hyperlink ref="S47" r:id="rId22"/>
-    <hyperlink ref="S48" r:id="rId23"/>
-    <hyperlink ref="S49" r:id="rId24"/>
-    <hyperlink ref="S50" r:id="rId25"/>
-    <hyperlink ref="S51" r:id="rId26"/>
-    <hyperlink ref="S52" r:id="rId27"/>
+    <hyperlink ref="S49" r:id="rId20"/>
+    <hyperlink ref="S50" r:id="rId21"/>
+    <hyperlink ref="S51" r:id="rId22"/>
+    <hyperlink ref="S52" r:id="rId23"/>
+    <hyperlink ref="S53" r:id="rId24"/>
+    <hyperlink ref="S54" r:id="rId25"/>
+    <hyperlink ref="S55" r:id="rId26"/>
+    <hyperlink ref="S56" r:id="rId27"/>
     <hyperlink ref="S28" r:id="rId28"/>
     <hyperlink ref="S33" r:id="rId29"/>
     <hyperlink ref="S32" r:id="rId30"/>
     <hyperlink ref="S31" r:id="rId31"/>
     <hyperlink ref="S30" r:id="rId32"/>
     <hyperlink ref="S29" r:id="rId33"/>
-    <hyperlink ref="S85" r:id="rId34"/>
-    <hyperlink ref="S86" r:id="rId35"/>
+    <hyperlink ref="S89" r:id="rId34"/>
+    <hyperlink ref="S90" r:id="rId35"/>
+    <hyperlink ref="S39" r:id="rId36"/>
+    <hyperlink ref="S40" r:id="rId37"/>
+    <hyperlink ref="S41" r:id="rId38"/>
+    <hyperlink ref="S42" r:id="rId39"/>
+    <hyperlink ref="S43" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/边角料/搜索记录.xlsx
+++ b/边角料/搜索记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="294">
   <si>
     <r>
       <rPr>
@@ -1218,12 +1218,36 @@
     <t>SQL基础</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>mysql的设置主键自增</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/155941973.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql 重命名表名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/huangxm/p/5736386.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wuhenke/archive/2010/08/02/1790750.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Postgresql数据库的一些字符串操作函数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1433,6 +1457,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Microsoft YaHei Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1606,7 +1638,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1723,6 +1755,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1747,10 +1782,10 @@
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2051,8 +2086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z584"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J296" sqref="J296:R296"/>
+    <sheetView tabSelected="1" topLeftCell="A307" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J311" sqref="J311:R311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2958,11 +2993,11 @@
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
       <c r="F32" s="23"/>
-      <c r="G32" s="42" t="s">
+      <c r="G32" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2992,9 +3027,9 @@
       <c r="D33" s="23"/>
       <c r="E33" s="23"/>
       <c r="F33" s="23"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="3" t="s">
         <v>26</v>
       </c>
@@ -3024,9 +3059,9 @@
       <c r="D34" s="23"/>
       <c r="E34" s="23"/>
       <c r="F34" s="23"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="3" t="s">
         <v>27</v>
       </c>
@@ -3056,9 +3091,9 @@
       <c r="D35" s="23"/>
       <c r="E35" s="23"/>
       <c r="F35" s="23"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="15" t="s">
         <v>29</v>
       </c>
@@ -3088,9 +3123,9 @@
       <c r="D36" s="23"/>
       <c r="E36" s="23"/>
       <c r="F36" s="23"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="3" t="s">
         <v>31</v>
       </c>
@@ -3120,9 +3155,9 @@
       <c r="D37" s="23"/>
       <c r="E37" s="23"/>
       <c r="F37" s="23"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
       <c r="J37" s="3" t="s">
         <v>32</v>
       </c>
@@ -3152,9 +3187,9 @@
       <c r="D38" s="23"/>
       <c r="E38" s="23"/>
       <c r="F38" s="23"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="3" t="s">
         <v>33</v>
       </c>
@@ -3184,9 +3219,9 @@
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
       <c r="J39" s="3" t="s">
         <v>34</v>
       </c>
@@ -3216,9 +3251,9 @@
       <c r="D40" s="23"/>
       <c r="E40" s="23"/>
       <c r="F40" s="23"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3244,9 +3279,9 @@
       <c r="D41" s="23"/>
       <c r="E41" s="23"/>
       <c r="F41" s="23"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3272,9 +3307,9 @@
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -3300,9 +3335,9 @@
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="23"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
@@ -3328,11 +3363,11 @@
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="23"/>
-      <c r="G44" s="43" t="s">
+      <c r="G44" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H44" s="43"/>
-      <c r="I44" s="44" t="s">
+      <c r="H44" s="44"/>
+      <c r="I44" s="45" t="s">
         <v>100</v>
       </c>
       <c r="J44" s="14" t="s">
@@ -3364,9 +3399,9 @@
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
       <c r="F45" s="23"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="45"/>
       <c r="J45" s="3" t="s">
         <v>102</v>
       </c>
@@ -3396,9 +3431,9 @@
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
       <c r="F46" s="23"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="14" t="s">
         <v>105</v>
       </c>
@@ -3428,9 +3463,9 @@
       <c r="D47" s="23"/>
       <c r="E47" s="23"/>
       <c r="F47" s="23"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="13" t="s">
         <v>106</v>
       </c>
@@ -3460,9 +3495,9 @@
       <c r="D48" s="23"/>
       <c r="E48" s="23"/>
       <c r="F48" s="23"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="43"/>
-      <c r="I48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="3" t="s">
         <v>114</v>
       </c>
@@ -3492,9 +3527,9 @@
       <c r="D49" s="23"/>
       <c r="E49" s="23"/>
       <c r="F49" s="23"/>
-      <c r="G49" s="43"/>
-      <c r="H49" s="43"/>
-      <c r="I49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="14" t="s">
         <v>113</v>
       </c>
@@ -3524,9 +3559,9 @@
       <c r="D50" s="23"/>
       <c r="E50" s="23"/>
       <c r="F50" s="23"/>
-      <c r="G50" s="43"/>
-      <c r="H50" s="43"/>
-      <c r="I50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="14" t="s">
         <v>112</v>
       </c>
@@ -3556,9 +3591,9 @@
       <c r="D51" s="23"/>
       <c r="E51" s="23"/>
       <c r="F51" s="23"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="3" t="s">
         <v>166</v>
       </c>
@@ -3588,9 +3623,9 @@
       <c r="D52" s="23"/>
       <c r="E52" s="23"/>
       <c r="F52" s="23"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
@@ -3616,9 +3651,9 @@
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="45"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
@@ -3644,9 +3679,9 @@
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
       <c r="F54" s="23"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="45" t="s">
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="46" t="s">
         <v>115</v>
       </c>
       <c r="J54" s="17" t="s">
@@ -3678,9 +3713,9 @@
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
       <c r="F55" s="23"/>
-      <c r="G55" s="43"/>
-      <c r="H55" s="43"/>
-      <c r="I55" s="45"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="46"/>
       <c r="J55" s="14" t="s">
         <v>118</v>
       </c>
@@ -3710,9 +3745,9 @@
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
       <c r="F56" s="23"/>
-      <c r="G56" s="43"/>
-      <c r="H56" s="43"/>
-      <c r="I56" s="45"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="46"/>
       <c r="J56" s="3" t="s">
         <v>120</v>
       </c>
@@ -3742,9 +3777,9 @@
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
       <c r="F57" s="23"/>
-      <c r="G57" s="43"/>
-      <c r="H57" s="43"/>
-      <c r="I57" s="45"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="46"/>
       <c r="J57" s="3" t="s">
         <v>120</v>
       </c>
@@ -3774,9 +3809,9 @@
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
-      <c r="G58" s="43"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="45"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="46"/>
       <c r="J58" s="3" t="s">
         <v>123</v>
       </c>
@@ -3806,9 +3841,9 @@
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="43"/>
-      <c r="H59" s="43"/>
-      <c r="I59" s="45"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="46"/>
       <c r="J59" s="3" t="s">
         <v>125</v>
       </c>
@@ -3838,9 +3873,9 @@
       <c r="D60" s="23"/>
       <c r="E60" s="23"/>
       <c r="F60" s="23"/>
-      <c r="G60" s="43"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="45"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="46"/>
       <c r="J60" s="3" t="s">
         <v>127</v>
       </c>
@@ -3870,9 +3905,9 @@
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="23"/>
-      <c r="G61" s="43"/>
-      <c r="H61" s="43"/>
-      <c r="I61" s="45"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="46"/>
       <c r="J61" s="3" t="s">
         <v>129</v>
       </c>
@@ -3902,9 +3937,9 @@
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="23"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="45"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="46"/>
       <c r="J62" s="15" t="s">
         <v>136</v>
       </c>
@@ -3934,9 +3969,9 @@
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="23"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="45"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="46"/>
       <c r="J63" s="3" t="s">
         <v>133</v>
       </c>
@@ -3966,9 +4001,9 @@
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="23"/>
-      <c r="G64" s="43"/>
-      <c r="H64" s="43"/>
-      <c r="I64" s="45"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="46"/>
       <c r="J64" s="14" t="s">
         <v>134</v>
       </c>
@@ -3998,9 +4033,9 @@
       <c r="D65" s="23"/>
       <c r="E65" s="23"/>
       <c r="F65" s="23"/>
-      <c r="G65" s="43"/>
-      <c r="H65" s="43"/>
-      <c r="I65" s="45"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="46"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
@@ -4026,9 +4061,9 @@
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
       <c r="F66" s="23"/>
-      <c r="G66" s="43"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="45"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="46"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
       <c r="L66" s="3"/>
@@ -4054,9 +4089,9 @@
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
       <c r="F67" s="23"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
-      <c r="I67" s="45"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="46"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
@@ -4082,9 +4117,9 @@
       <c r="D68" s="23"/>
       <c r="E68" s="23"/>
       <c r="F68" s="23"/>
-      <c r="G68" s="43"/>
-      <c r="H68" s="43"/>
-      <c r="I68" s="46" t="s">
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="47" t="s">
         <v>137</v>
       </c>
       <c r="J68" s="17" t="s">
@@ -4116,9 +4151,9 @@
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="43"/>
-      <c r="I69" s="46"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="47"/>
       <c r="J69" s="3" t="s">
         <v>143</v>
       </c>
@@ -4148,9 +4183,9 @@
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="23"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="46"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="47"/>
       <c r="J70" s="3" t="s">
         <v>144</v>
       </c>
@@ -4180,9 +4215,9 @@
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
       <c r="F71" s="23"/>
-      <c r="G71" s="43"/>
-      <c r="H71" s="43"/>
-      <c r="I71" s="46"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="3" t="s">
         <v>145</v>
       </c>
@@ -4212,9 +4247,9 @@
       <c r="D72" s="23"/>
       <c r="E72" s="23"/>
       <c r="F72" s="23"/>
-      <c r="G72" s="43"/>
-      <c r="H72" s="43"/>
-      <c r="I72" s="46"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="47"/>
       <c r="J72" s="3" t="s">
         <v>146</v>
       </c>
@@ -4244,9 +4279,9 @@
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="43"/>
-      <c r="H73" s="43"/>
-      <c r="I73" s="46"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="47"/>
       <c r="J73" s="3"/>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -4272,9 +4307,9 @@
       <c r="D74" s="23"/>
       <c r="E74" s="23"/>
       <c r="F74" s="23"/>
-      <c r="G74" s="43"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="46"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="47"/>
       <c r="J74" s="3"/>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -4300,9 +4335,9 @@
       <c r="D75" s="23"/>
       <c r="E75" s="23"/>
       <c r="F75" s="23"/>
-      <c r="G75" s="43"/>
-      <c r="H75" s="43"/>
-      <c r="I75" s="46"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="47"/>
       <c r="J75" s="3"/>
       <c r="K75" s="3"/>
       <c r="L75" s="3"/>
@@ -4328,9 +4363,9 @@
       <c r="D76" s="23"/>
       <c r="E76" s="23"/>
       <c r="F76" s="23"/>
-      <c r="G76" s="43"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="46"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="47"/>
       <c r="J76" s="3"/>
       <c r="K76" s="3"/>
       <c r="L76" s="3"/>
@@ -4356,9 +4391,9 @@
       <c r="D77" s="23"/>
       <c r="E77" s="23"/>
       <c r="F77" s="23"/>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="46"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="47"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
       <c r="L77" s="3"/>
@@ -4384,9 +4419,9 @@
       <c r="D78" s="23"/>
       <c r="E78" s="23"/>
       <c r="F78" s="23"/>
-      <c r="G78" s="43"/>
-      <c r="H78" s="43"/>
-      <c r="I78" s="46"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="47"/>
       <c r="J78" s="3"/>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
@@ -4412,9 +4447,9 @@
       <c r="D79" s="23"/>
       <c r="E79" s="23"/>
       <c r="F79" s="23"/>
-      <c r="G79" s="43"/>
-      <c r="H79" s="43"/>
-      <c r="I79" s="46"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="47"/>
       <c r="J79" s="3"/>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
@@ -4440,9 +4475,9 @@
       <c r="D80" s="23"/>
       <c r="E80" s="23"/>
       <c r="F80" s="23"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="46"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="47"/>
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
@@ -4468,8 +4503,8 @@
       <c r="D81" s="23"/>
       <c r="E81" s="23"/>
       <c r="F81" s="23"/>
-      <c r="G81" s="43"/>
-      <c r="H81" s="43"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
       <c r="I81" s="6" t="s">
         <v>148</v>
       </c>
@@ -4502,8 +4537,8 @@
       <c r="D82" s="23"/>
       <c r="E82" s="23"/>
       <c r="F82" s="23"/>
-      <c r="G82" s="43"/>
-      <c r="H82" s="43"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
       <c r="I82" s="6"/>
       <c r="J82" s="3" t="s">
         <v>155</v>
@@ -4534,8 +4569,8 @@
       <c r="D83" s="23"/>
       <c r="E83" s="23"/>
       <c r="F83" s="23"/>
-      <c r="G83" s="43"/>
-      <c r="H83" s="43"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
       <c r="I83" s="6"/>
       <c r="J83" s="3" t="s">
         <v>161</v>
@@ -4566,8 +4601,8 @@
       <c r="D84" s="23"/>
       <c r="E84" s="23"/>
       <c r="F84" s="23"/>
-      <c r="G84" s="43"/>
-      <c r="H84" s="43"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
       <c r="I84" s="6"/>
       <c r="J84" s="14" t="s">
         <v>164</v>
@@ -4598,8 +4633,8 @@
       <c r="D85" s="23"/>
       <c r="E85" s="23"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="43"/>
-      <c r="H85" s="43"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
       <c r="I85" s="6"/>
       <c r="J85" s="3" t="s">
         <v>156</v>
@@ -4630,8 +4665,8 @@
       <c r="D86" s="23"/>
       <c r="E86" s="23"/>
       <c r="F86" s="23"/>
-      <c r="G86" s="43"/>
-      <c r="H86" s="43"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
       <c r="I86" s="6"/>
       <c r="J86" s="14" t="s">
         <v>163</v>
@@ -4662,8 +4697,8 @@
       <c r="D87" s="23"/>
       <c r="E87" s="23"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
       <c r="I87" s="6"/>
       <c r="J87" s="3" t="s">
         <v>162</v>
@@ -4694,8 +4729,8 @@
       <c r="D88" s="23"/>
       <c r="E88" s="23"/>
       <c r="F88" s="23"/>
-      <c r="G88" s="43"/>
-      <c r="H88" s="43"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
       <c r="I88" s="6"/>
       <c r="J88" s="16" t="s">
         <v>170</v>
@@ -4726,8 +4761,8 @@
       <c r="D89" s="23"/>
       <c r="E89" s="23"/>
       <c r="F89" s="23"/>
-      <c r="G89" s="43"/>
-      <c r="H89" s="43"/>
+      <c r="G89" s="44"/>
+      <c r="H89" s="44"/>
       <c r="I89" s="6"/>
       <c r="J89" s="14" t="s">
         <v>171</v>
@@ -4758,8 +4793,8 @@
       <c r="D90" s="23"/>
       <c r="E90" s="23"/>
       <c r="F90" s="23"/>
-      <c r="G90" s="43"/>
-      <c r="H90" s="43"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
       <c r="I90" s="6"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
@@ -4786,8 +4821,8 @@
       <c r="D91" s="23"/>
       <c r="E91" s="23"/>
       <c r="F91" s="23"/>
-      <c r="G91" s="43"/>
-      <c r="H91" s="43"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
       <c r="I91" s="6"/>
       <c r="J91" s="3"/>
       <c r="K91" s="3"/>
@@ -4814,8 +4849,8 @@
       <c r="D92" s="23"/>
       <c r="E92" s="23"/>
       <c r="F92" s="23"/>
-      <c r="G92" s="43"/>
-      <c r="H92" s="43"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
       <c r="I92" s="6"/>
       <c r="J92" s="3"/>
       <c r="K92" s="3"/>
@@ -4842,9 +4877,9 @@
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="43"/>
-      <c r="I93" s="47" t="s">
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="48" t="s">
         <v>157</v>
       </c>
       <c r="J93" s="3" t="s">
@@ -4876,9 +4911,9 @@
       <c r="D94" s="23"/>
       <c r="E94" s="23"/>
       <c r="F94" s="23"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="43"/>
-      <c r="I94" s="47"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="48"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
@@ -4904,9 +4939,9 @@
       <c r="D95" s="23"/>
       <c r="E95" s="23"/>
       <c r="F95" s="23"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="43"/>
-      <c r="I95" s="47"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="48"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
@@ -4932,9 +4967,9 @@
       <c r="D96" s="23"/>
       <c r="E96" s="23"/>
       <c r="F96" s="23"/>
-      <c r="G96" s="43"/>
-      <c r="H96" s="43"/>
-      <c r="I96" s="47"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="48"/>
       <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
@@ -4960,9 +4995,9 @@
       <c r="D97" s="23"/>
       <c r="E97" s="23"/>
       <c r="F97" s="23"/>
-      <c r="G97" s="43"/>
-      <c r="H97" s="43"/>
-      <c r="I97" s="47"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="48"/>
       <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -4988,9 +5023,9 @@
       <c r="D98" s="23"/>
       <c r="E98" s="23"/>
       <c r="F98" s="23"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="47"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="48"/>
       <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
@@ -6009,17 +6044,17 @@
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="11"/>
-      <c r="J131" s="48" t="s">
+      <c r="J131" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="K131" s="48"/>
-      <c r="L131" s="48"/>
-      <c r="M131" s="48"/>
-      <c r="N131" s="48"/>
-      <c r="O131" s="48"/>
-      <c r="P131" s="48"/>
-      <c r="Q131" s="48"/>
-      <c r="R131" s="48"/>
+      <c r="K131" s="40"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="40"/>
+      <c r="O131" s="40"/>
+      <c r="P131" s="40"/>
+      <c r="Q131" s="40"/>
+      <c r="R131" s="40"/>
       <c r="S131" s="2" t="s">
         <v>194</v>
       </c>
@@ -8845,11 +8880,11 @@
       <c r="A228" s="8"/>
       <c r="B228" s="8"/>
       <c r="C228" s="8"/>
-      <c r="D228" s="40" t="s">
+      <c r="D228" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E228" s="41"/>
-      <c r="F228" s="41"/>
+      <c r="E228" s="42"/>
+      <c r="F228" s="42"/>
       <c r="G228" s="25" t="s">
         <v>9</v>
       </c>
@@ -8877,9 +8912,9 @@
       <c r="A229" s="8"/>
       <c r="B229" s="8"/>
       <c r="C229" s="8"/>
-      <c r="D229" s="41"/>
-      <c r="E229" s="41"/>
-      <c r="F229" s="41"/>
+      <c r="D229" s="42"/>
+      <c r="E229" s="42"/>
+      <c r="F229" s="42"/>
       <c r="G229" s="25"/>
       <c r="H229" s="25"/>
       <c r="I229" s="25"/>
@@ -8905,9 +8940,9 @@
       <c r="A230" s="8"/>
       <c r="B230" s="8"/>
       <c r="C230" s="8"/>
-      <c r="D230" s="41"/>
-      <c r="E230" s="41"/>
-      <c r="F230" s="41"/>
+      <c r="D230" s="42"/>
+      <c r="E230" s="42"/>
+      <c r="F230" s="42"/>
       <c r="G230" s="25"/>
       <c r="H230" s="25"/>
       <c r="I230" s="25"/>
@@ -8933,9 +8968,9 @@
       <c r="A231" s="8"/>
       <c r="B231" s="8"/>
       <c r="C231" s="8"/>
-      <c r="D231" s="41"/>
-      <c r="E231" s="41"/>
-      <c r="F231" s="41"/>
+      <c r="D231" s="42"/>
+      <c r="E231" s="42"/>
+      <c r="F231" s="42"/>
       <c r="G231" s="25"/>
       <c r="H231" s="25"/>
       <c r="I231" s="25"/>
@@ -8961,9 +8996,9 @@
       <c r="A232" s="8"/>
       <c r="B232" s="8"/>
       <c r="C232" s="8"/>
-      <c r="D232" s="41"/>
-      <c r="E232" s="41"/>
-      <c r="F232" s="41"/>
+      <c r="D232" s="42"/>
+      <c r="E232" s="42"/>
+      <c r="F232" s="42"/>
       <c r="G232" s="25"/>
       <c r="H232" s="25"/>
       <c r="I232" s="25"/>
@@ -8989,9 +9024,9 @@
       <c r="A233" s="8"/>
       <c r="B233" s="8"/>
       <c r="C233" s="8"/>
-      <c r="D233" s="41"/>
-      <c r="E233" s="41"/>
-      <c r="F233" s="41"/>
+      <c r="D233" s="42"/>
+      <c r="E233" s="42"/>
+      <c r="F233" s="42"/>
       <c r="G233" s="25"/>
       <c r="H233" s="25"/>
       <c r="I233" s="25"/>
@@ -9017,9 +9052,9 @@
       <c r="A234" s="8"/>
       <c r="B234" s="8"/>
       <c r="C234" s="8"/>
-      <c r="D234" s="41"/>
-      <c r="E234" s="41"/>
-      <c r="F234" s="41"/>
+      <c r="D234" s="42"/>
+      <c r="E234" s="42"/>
+      <c r="F234" s="42"/>
       <c r="G234" s="25"/>
       <c r="H234" s="25"/>
       <c r="I234" s="25"/>
@@ -9045,9 +9080,9 @@
       <c r="A235" s="8"/>
       <c r="B235" s="8"/>
       <c r="C235" s="8"/>
-      <c r="D235" s="41"/>
-      <c r="E235" s="41"/>
-      <c r="F235" s="41"/>
+      <c r="D235" s="42"/>
+      <c r="E235" s="42"/>
+      <c r="F235" s="42"/>
       <c r="G235" s="25"/>
       <c r="H235" s="25"/>
       <c r="I235" s="25"/>
@@ -9073,9 +9108,9 @@
       <c r="A236" s="8"/>
       <c r="B236" s="8"/>
       <c r="C236" s="8"/>
-      <c r="D236" s="41"/>
-      <c r="E236" s="41"/>
-      <c r="F236" s="41"/>
+      <c r="D236" s="42"/>
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
       <c r="G236" s="25"/>
       <c r="H236" s="25"/>
       <c r="I236" s="25"/>
@@ -9101,9 +9136,9 @@
       <c r="A237" s="8"/>
       <c r="B237" s="8"/>
       <c r="C237" s="8"/>
-      <c r="D237" s="41"/>
-      <c r="E237" s="41"/>
-      <c r="F237" s="41"/>
+      <c r="D237" s="42"/>
+      <c r="E237" s="42"/>
+      <c r="F237" s="42"/>
       <c r="G237" s="25"/>
       <c r="H237" s="25"/>
       <c r="I237" s="25"/>
@@ -9129,9 +9164,9 @@
       <c r="A238" s="8"/>
       <c r="B238" s="8"/>
       <c r="C238" s="8"/>
-      <c r="D238" s="41"/>
-      <c r="E238" s="41"/>
-      <c r="F238" s="41"/>
+      <c r="D238" s="42"/>
+      <c r="E238" s="42"/>
+      <c r="F238" s="42"/>
       <c r="G238" s="25"/>
       <c r="H238" s="25"/>
       <c r="I238" s="25"/>
@@ -9157,9 +9192,9 @@
       <c r="A239" s="8"/>
       <c r="B239" s="8"/>
       <c r="C239" s="8"/>
-      <c r="D239" s="41"/>
-      <c r="E239" s="41"/>
-      <c r="F239" s="41"/>
+      <c r="D239" s="42"/>
+      <c r="E239" s="42"/>
+      <c r="F239" s="42"/>
       <c r="G239" s="25"/>
       <c r="H239" s="25"/>
       <c r="I239" s="25"/>
@@ -9185,9 +9220,9 @@
       <c r="A240" s="8"/>
       <c r="B240" s="8"/>
       <c r="C240" s="8"/>
-      <c r="D240" s="41"/>
-      <c r="E240" s="41"/>
-      <c r="F240" s="41"/>
+      <c r="D240" s="42"/>
+      <c r="E240" s="42"/>
+      <c r="F240" s="42"/>
       <c r="G240" s="25"/>
       <c r="H240" s="25"/>
       <c r="I240" s="25"/>
@@ -9213,9 +9248,9 @@
       <c r="A241" s="8"/>
       <c r="B241" s="8"/>
       <c r="C241" s="8"/>
-      <c r="D241" s="41"/>
-      <c r="E241" s="41"/>
-      <c r="F241" s="41"/>
+      <c r="D241" s="42"/>
+      <c r="E241" s="42"/>
+      <c r="F241" s="42"/>
       <c r="G241" s="25"/>
       <c r="H241" s="25"/>
       <c r="I241" s="25"/>
@@ -9241,9 +9276,9 @@
       <c r="A242" s="8"/>
       <c r="B242" s="8"/>
       <c r="C242" s="8"/>
-      <c r="D242" s="41"/>
-      <c r="E242" s="41"/>
-      <c r="F242" s="41"/>
+      <c r="D242" s="42"/>
+      <c r="E242" s="42"/>
+      <c r="F242" s="42"/>
       <c r="G242" s="25"/>
       <c r="H242" s="25"/>
       <c r="I242" s="25"/>
@@ -9269,9 +9304,9 @@
       <c r="A243" s="8"/>
       <c r="B243" s="8"/>
       <c r="C243" s="8"/>
-      <c r="D243" s="41"/>
-      <c r="E243" s="41"/>
-      <c r="F243" s="41"/>
+      <c r="D243" s="42"/>
+      <c r="E243" s="42"/>
+      <c r="F243" s="42"/>
       <c r="G243" s="25"/>
       <c r="H243" s="25"/>
       <c r="I243" s="25"/>
@@ -9297,9 +9332,9 @@
       <c r="A244" s="8"/>
       <c r="B244" s="8"/>
       <c r="C244" s="8"/>
-      <c r="D244" s="41"/>
-      <c r="E244" s="41"/>
-      <c r="F244" s="41"/>
+      <c r="D244" s="42"/>
+      <c r="E244" s="42"/>
+      <c r="F244" s="42"/>
       <c r="G244" s="25"/>
       <c r="H244" s="25"/>
       <c r="I244" s="25"/>
@@ -9325,9 +9360,9 @@
       <c r="A245" s="8"/>
       <c r="B245" s="8"/>
       <c r="C245" s="8"/>
-      <c r="D245" s="41"/>
-      <c r="E245" s="41"/>
-      <c r="F245" s="41"/>
+      <c r="D245" s="42"/>
+      <c r="E245" s="42"/>
+      <c r="F245" s="42"/>
       <c r="G245" s="25"/>
       <c r="H245" s="25"/>
       <c r="I245" s="25"/>
@@ -9353,9 +9388,9 @@
       <c r="A246" s="8"/>
       <c r="B246" s="8"/>
       <c r="C246" s="8"/>
-      <c r="D246" s="41"/>
-      <c r="E246" s="41"/>
-      <c r="F246" s="41"/>
+      <c r="D246" s="42"/>
+      <c r="E246" s="42"/>
+      <c r="F246" s="42"/>
       <c r="G246" s="25"/>
       <c r="H246" s="25"/>
       <c r="I246" s="25"/>
@@ -9381,9 +9416,9 @@
       <c r="A247" s="8"/>
       <c r="B247" s="8"/>
       <c r="C247" s="8"/>
-      <c r="D247" s="41"/>
-      <c r="E247" s="41"/>
-      <c r="F247" s="41"/>
+      <c r="D247" s="42"/>
+      <c r="E247" s="42"/>
+      <c r="F247" s="42"/>
       <c r="G247" s="26" t="s">
         <v>10</v>
       </c>
@@ -9411,9 +9446,9 @@
       <c r="A248" s="8"/>
       <c r="B248" s="8"/>
       <c r="C248" s="8"/>
-      <c r="D248" s="41"/>
-      <c r="E248" s="41"/>
-      <c r="F248" s="41"/>
+      <c r="D248" s="42"/>
+      <c r="E248" s="42"/>
+      <c r="F248" s="42"/>
       <c r="G248" s="26"/>
       <c r="H248" s="26"/>
       <c r="I248" s="26"/>
@@ -9439,9 +9474,9 @@
       <c r="A249" s="8"/>
       <c r="B249" s="8"/>
       <c r="C249" s="8"/>
-      <c r="D249" s="41"/>
-      <c r="E249" s="41"/>
-      <c r="F249" s="41"/>
+      <c r="D249" s="42"/>
+      <c r="E249" s="42"/>
+      <c r="F249" s="42"/>
       <c r="G249" s="26"/>
       <c r="H249" s="26"/>
       <c r="I249" s="26"/>
@@ -9467,9 +9502,9 @@
       <c r="A250" s="8"/>
       <c r="B250" s="8"/>
       <c r="C250" s="8"/>
-      <c r="D250" s="41"/>
-      <c r="E250" s="41"/>
-      <c r="F250" s="41"/>
+      <c r="D250" s="42"/>
+      <c r="E250" s="42"/>
+      <c r="F250" s="42"/>
       <c r="G250" s="26"/>
       <c r="H250" s="26"/>
       <c r="I250" s="26"/>
@@ -9495,9 +9530,9 @@
       <c r="A251" s="8"/>
       <c r="B251" s="8"/>
       <c r="C251" s="8"/>
-      <c r="D251" s="41"/>
-      <c r="E251" s="41"/>
-      <c r="F251" s="41"/>
+      <c r="D251" s="42"/>
+      <c r="E251" s="42"/>
+      <c r="F251" s="42"/>
       <c r="G251" s="26"/>
       <c r="H251" s="26"/>
       <c r="I251" s="26"/>
@@ -9523,9 +9558,9 @@
       <c r="A252" s="8"/>
       <c r="B252" s="8"/>
       <c r="C252" s="8"/>
-      <c r="D252" s="41"/>
-      <c r="E252" s="41"/>
-      <c r="F252" s="41"/>
+      <c r="D252" s="42"/>
+      <c r="E252" s="42"/>
+      <c r="F252" s="42"/>
       <c r="G252" s="26"/>
       <c r="H252" s="26"/>
       <c r="I252" s="26"/>
@@ -9551,9 +9586,9 @@
       <c r="A253" s="8"/>
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
-      <c r="D253" s="41"/>
-      <c r="E253" s="41"/>
-      <c r="F253" s="41"/>
+      <c r="D253" s="42"/>
+      <c r="E253" s="42"/>
+      <c r="F253" s="42"/>
       <c r="G253" s="26"/>
       <c r="H253" s="26"/>
       <c r="I253" s="26"/>
@@ -9579,9 +9614,9 @@
       <c r="A254" s="8"/>
       <c r="B254" s="8"/>
       <c r="C254" s="8"/>
-      <c r="D254" s="41"/>
-      <c r="E254" s="41"/>
-      <c r="F254" s="41"/>
+      <c r="D254" s="42"/>
+      <c r="E254" s="42"/>
+      <c r="F254" s="42"/>
       <c r="G254" s="26"/>
       <c r="H254" s="26"/>
       <c r="I254" s="26"/>
@@ -9607,9 +9642,9 @@
       <c r="A255" s="8"/>
       <c r="B255" s="8"/>
       <c r="C255" s="8"/>
-      <c r="D255" s="41"/>
-      <c r="E255" s="41"/>
-      <c r="F255" s="41"/>
+      <c r="D255" s="42"/>
+      <c r="E255" s="42"/>
+      <c r="F255" s="42"/>
       <c r="G255" s="26"/>
       <c r="H255" s="26"/>
       <c r="I255" s="26"/>
@@ -9635,9 +9670,9 @@
       <c r="A256" s="8"/>
       <c r="B256" s="8"/>
       <c r="C256" s="8"/>
-      <c r="D256" s="41"/>
-      <c r="E256" s="41"/>
-      <c r="F256" s="41"/>
+      <c r="D256" s="42"/>
+      <c r="E256" s="42"/>
+      <c r="F256" s="42"/>
       <c r="G256" s="26"/>
       <c r="H256" s="26"/>
       <c r="I256" s="26"/>
@@ -9663,9 +9698,9 @@
       <c r="A257" s="8"/>
       <c r="B257" s="8"/>
       <c r="C257" s="8"/>
-      <c r="D257" s="41"/>
-      <c r="E257" s="41"/>
-      <c r="F257" s="41"/>
+      <c r="D257" s="42"/>
+      <c r="E257" s="42"/>
+      <c r="F257" s="42"/>
       <c r="G257" s="26"/>
       <c r="H257" s="26"/>
       <c r="I257" s="26"/>
@@ -9691,9 +9726,9 @@
       <c r="A258" s="8"/>
       <c r="B258" s="8"/>
       <c r="C258" s="8"/>
-      <c r="D258" s="41"/>
-      <c r="E258" s="41"/>
-      <c r="F258" s="41"/>
+      <c r="D258" s="42"/>
+      <c r="E258" s="42"/>
+      <c r="F258" s="42"/>
       <c r="G258" s="26"/>
       <c r="H258" s="26"/>
       <c r="I258" s="26"/>
@@ -9719,9 +9754,9 @@
       <c r="A259" s="8"/>
       <c r="B259" s="8"/>
       <c r="C259" s="8"/>
-      <c r="D259" s="41"/>
-      <c r="E259" s="41"/>
-      <c r="F259" s="41"/>
+      <c r="D259" s="42"/>
+      <c r="E259" s="42"/>
+      <c r="F259" s="42"/>
       <c r="G259" s="26"/>
       <c r="H259" s="26"/>
       <c r="I259" s="26"/>
@@ -9747,9 +9782,9 @@
       <c r="A260" s="8"/>
       <c r="B260" s="8"/>
       <c r="C260" s="8"/>
-      <c r="D260" s="41"/>
-      <c r="E260" s="41"/>
-      <c r="F260" s="41"/>
+      <c r="D260" s="42"/>
+      <c r="E260" s="42"/>
+      <c r="F260" s="42"/>
       <c r="G260" s="26"/>
       <c r="H260" s="26"/>
       <c r="I260" s="26"/>
@@ -9775,9 +9810,9 @@
       <c r="A261" s="8"/>
       <c r="B261" s="8"/>
       <c r="C261" s="8"/>
-      <c r="D261" s="41"/>
-      <c r="E261" s="41"/>
-      <c r="F261" s="41"/>
+      <c r="D261" s="42"/>
+      <c r="E261" s="42"/>
+      <c r="F261" s="42"/>
       <c r="G261" s="26"/>
       <c r="H261" s="26"/>
       <c r="I261" s="26"/>
@@ -9803,9 +9838,9 @@
       <c r="A262" s="8"/>
       <c r="B262" s="8"/>
       <c r="C262" s="8"/>
-      <c r="D262" s="41"/>
-      <c r="E262" s="41"/>
-      <c r="F262" s="41"/>
+      <c r="D262" s="42"/>
+      <c r="E262" s="42"/>
+      <c r="F262" s="42"/>
       <c r="G262" s="26"/>
       <c r="H262" s="26"/>
       <c r="I262" s="26"/>
@@ -9831,9 +9866,9 @@
       <c r="A263" s="8"/>
       <c r="B263" s="8"/>
       <c r="C263" s="8"/>
-      <c r="D263" s="41"/>
-      <c r="E263" s="41"/>
-      <c r="F263" s="41"/>
+      <c r="D263" s="42"/>
+      <c r="E263" s="42"/>
+      <c r="F263" s="42"/>
       <c r="G263" s="26"/>
       <c r="H263" s="26"/>
       <c r="I263" s="26"/>
@@ -11031,7 +11066,9 @@
       <c r="G302" s="27"/>
       <c r="H302" s="27"/>
       <c r="I302" s="27"/>
-      <c r="J302" s="3"/>
+      <c r="J302" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="K302" s="3"/>
       <c r="L302" s="3"/>
       <c r="M302" s="3"/>
@@ -11040,7 +11077,9 @@
       <c r="P302" s="3"/>
       <c r="Q302" s="3"/>
       <c r="R302" s="3"/>
-      <c r="S302" s="3"/>
+      <c r="S302" s="50" t="s">
+        <v>289</v>
+      </c>
       <c r="T302" s="3"/>
       <c r="U302" s="3"/>
       <c r="V302" s="3"/>
@@ -11059,7 +11098,9 @@
       <c r="G303" s="27"/>
       <c r="H303" s="27"/>
       <c r="I303" s="27"/>
-      <c r="J303" s="3"/>
+      <c r="J303" s="3" t="s">
+        <v>290</v>
+      </c>
       <c r="K303" s="3"/>
       <c r="L303" s="3"/>
       <c r="M303" s="3"/>
@@ -11068,7 +11109,9 @@
       <c r="P303" s="3"/>
       <c r="Q303" s="3"/>
       <c r="R303" s="3"/>
-      <c r="S303" s="3"/>
+      <c r="S303" s="50" t="s">
+        <v>291</v>
+      </c>
       <c r="T303" s="3"/>
       <c r="U303" s="3"/>
       <c r="V303" s="3"/>
@@ -11392,12 +11435,14 @@
       <c r="D315" s="24"/>
       <c r="E315" s="24"/>
       <c r="F315" s="24"/>
-      <c r="G315" s="43" t="s">
+      <c r="G315" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="H315" s="43"/>
-      <c r="I315" s="43"/>
-      <c r="J315" s="3"/>
+      <c r="H315" s="44"/>
+      <c r="I315" s="44"/>
+      <c r="J315" s="3" t="s">
+        <v>293</v>
+      </c>
       <c r="K315" s="3"/>
       <c r="L315" s="3"/>
       <c r="M315" s="3"/>
@@ -11406,7 +11451,9 @@
       <c r="P315" s="3"/>
       <c r="Q315" s="3"/>
       <c r="R315" s="3"/>
-      <c r="S315" s="3"/>
+      <c r="S315" s="50" t="s">
+        <v>292</v>
+      </c>
       <c r="T315" s="3"/>
       <c r="U315" s="3"/>
       <c r="V315" s="3"/>
@@ -11422,9 +11469,9 @@
       <c r="D316" s="24"/>
       <c r="E316" s="24"/>
       <c r="F316" s="24"/>
-      <c r="G316" s="43"/>
-      <c r="H316" s="43"/>
-      <c r="I316" s="43"/>
+      <c r="G316" s="44"/>
+      <c r="H316" s="44"/>
+      <c r="I316" s="44"/>
       <c r="J316" s="3"/>
       <c r="K316" s="3"/>
       <c r="L316" s="3"/>
@@ -11450,9 +11497,9 @@
       <c r="D317" s="24"/>
       <c r="E317" s="24"/>
       <c r="F317" s="24"/>
-      <c r="G317" s="43"/>
-      <c r="H317" s="43"/>
-      <c r="I317" s="43"/>
+      <c r="G317" s="44"/>
+      <c r="H317" s="44"/>
+      <c r="I317" s="44"/>
       <c r="J317" s="3"/>
       <c r="K317" s="3"/>
       <c r="L317" s="3"/>
@@ -11478,9 +11525,9 @@
       <c r="D318" s="24"/>
       <c r="E318" s="24"/>
       <c r="F318" s="24"/>
-      <c r="G318" s="43"/>
-      <c r="H318" s="43"/>
-      <c r="I318" s="43"/>
+      <c r="G318" s="44"/>
+      <c r="H318" s="44"/>
+      <c r="I318" s="44"/>
       <c r="J318" s="3"/>
       <c r="K318" s="3"/>
       <c r="L318" s="3"/>
@@ -11506,9 +11553,9 @@
       <c r="D319" s="24"/>
       <c r="E319" s="24"/>
       <c r="F319" s="24"/>
-      <c r="G319" s="43"/>
-      <c r="H319" s="43"/>
-      <c r="I319" s="43"/>
+      <c r="G319" s="44"/>
+      <c r="H319" s="44"/>
+      <c r="I319" s="44"/>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
       <c r="L319" s="3"/>
@@ -11534,9 +11581,9 @@
       <c r="D320" s="24"/>
       <c r="E320" s="24"/>
       <c r="F320" s="24"/>
-      <c r="G320" s="43"/>
-      <c r="H320" s="43"/>
-      <c r="I320" s="43"/>
+      <c r="G320" s="44"/>
+      <c r="H320" s="44"/>
+      <c r="I320" s="44"/>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
       <c r="L320" s="3"/>
@@ -11562,9 +11609,9 @@
       <c r="D321" s="24"/>
       <c r="E321" s="24"/>
       <c r="F321" s="24"/>
-      <c r="G321" s="43"/>
-      <c r="H321" s="43"/>
-      <c r="I321" s="43"/>
+      <c r="G321" s="44"/>
+      <c r="H321" s="44"/>
+      <c r="I321" s="44"/>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
       <c r="L321" s="3"/>
@@ -11590,9 +11637,9 @@
       <c r="D322" s="24"/>
       <c r="E322" s="24"/>
       <c r="F322" s="24"/>
-      <c r="G322" s="43"/>
-      <c r="H322" s="43"/>
-      <c r="I322" s="43"/>
+      <c r="G322" s="44"/>
+      <c r="H322" s="44"/>
+      <c r="I322" s="44"/>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
       <c r="L322" s="3"/>
@@ -11618,9 +11665,9 @@
       <c r="D323" s="24"/>
       <c r="E323" s="24"/>
       <c r="F323" s="24"/>
-      <c r="G323" s="43"/>
-      <c r="H323" s="43"/>
-      <c r="I323" s="43"/>
+      <c r="G323" s="44"/>
+      <c r="H323" s="44"/>
+      <c r="I323" s="44"/>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
       <c r="L323" s="3"/>
@@ -11646,9 +11693,9 @@
       <c r="D324" s="24"/>
       <c r="E324" s="24"/>
       <c r="F324" s="24"/>
-      <c r="G324" s="43"/>
-      <c r="H324" s="43"/>
-      <c r="I324" s="43"/>
+      <c r="G324" s="44"/>
+      <c r="H324" s="44"/>
+      <c r="I324" s="44"/>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
       <c r="L324" s="3"/>
@@ -11674,9 +11721,9 @@
       <c r="D325" s="24"/>
       <c r="E325" s="24"/>
       <c r="F325" s="24"/>
-      <c r="G325" s="43"/>
-      <c r="H325" s="43"/>
-      <c r="I325" s="43"/>
+      <c r="G325" s="44"/>
+      <c r="H325" s="44"/>
+      <c r="I325" s="44"/>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
       <c r="L325" s="3"/>
@@ -17181,7 +17228,6 @@
     </row>
   </sheetData>
   <mergeCells count="1194">
-    <mergeCell ref="J302:R302"/>
     <mergeCell ref="J303:R303"/>
     <mergeCell ref="J304:R304"/>
     <mergeCell ref="J305:R305"/>
@@ -17213,7 +17259,6 @@
     <mergeCell ref="J285:R285"/>
     <mergeCell ref="S285:Z285"/>
     <mergeCell ref="S287:Z287"/>
-    <mergeCell ref="J283:R283"/>
     <mergeCell ref="J284:R284"/>
     <mergeCell ref="J286:R286"/>
     <mergeCell ref="J288:R288"/>
@@ -17230,6 +17275,7 @@
     <mergeCell ref="J299:R299"/>
     <mergeCell ref="J300:R300"/>
     <mergeCell ref="J301:R301"/>
+    <mergeCell ref="J302:R302"/>
     <mergeCell ref="J583:R583"/>
     <mergeCell ref="S583:Z583"/>
     <mergeCell ref="J584:R584"/>
@@ -17306,6 +17352,11 @@
     <mergeCell ref="S548:Z548"/>
     <mergeCell ref="J562:R562"/>
     <mergeCell ref="S562:Z562"/>
+    <mergeCell ref="S547:Z547"/>
+    <mergeCell ref="J556:R556"/>
+    <mergeCell ref="S556:Z556"/>
+    <mergeCell ref="J557:R557"/>
+    <mergeCell ref="S557:Z557"/>
     <mergeCell ref="J485:R485"/>
     <mergeCell ref="S485:Z485"/>
     <mergeCell ref="J486:R486"/>
@@ -17428,6 +17479,10 @@
     <mergeCell ref="S411:Z411"/>
     <mergeCell ref="J408:R408"/>
     <mergeCell ref="S408:Z408"/>
+    <mergeCell ref="J416:R416"/>
+    <mergeCell ref="S416:Z416"/>
+    <mergeCell ref="J417:R417"/>
+    <mergeCell ref="S417:Z417"/>
     <mergeCell ref="J383:R383"/>
     <mergeCell ref="S383:Z383"/>
     <mergeCell ref="J384:R384"/>
@@ -17448,6 +17503,16 @@
     <mergeCell ref="S396:Z396"/>
     <mergeCell ref="J397:R397"/>
     <mergeCell ref="S397:Z397"/>
+    <mergeCell ref="J386:R386"/>
+    <mergeCell ref="S386:Z386"/>
+    <mergeCell ref="J394:R394"/>
+    <mergeCell ref="S394:Z394"/>
+    <mergeCell ref="J405:R405"/>
+    <mergeCell ref="S405:Z405"/>
+    <mergeCell ref="J391:R391"/>
+    <mergeCell ref="S391:Z391"/>
+    <mergeCell ref="J385:R385"/>
+    <mergeCell ref="S385:Z385"/>
     <mergeCell ref="J349:R349"/>
     <mergeCell ref="S349:Z349"/>
     <mergeCell ref="J357:R357"/>
@@ -17480,7 +17545,6 @@
     <mergeCell ref="S388:Z388"/>
     <mergeCell ref="J382:R382"/>
     <mergeCell ref="S382:Z382"/>
-    <mergeCell ref="S271:Z271"/>
     <mergeCell ref="J272:R272"/>
     <mergeCell ref="S272:Z272"/>
     <mergeCell ref="J273:R273"/>
@@ -17512,7 +17576,7 @@
     <mergeCell ref="S277:Z277"/>
     <mergeCell ref="J278:R278"/>
     <mergeCell ref="J282:R282"/>
-    <mergeCell ref="J312:R312"/>
+    <mergeCell ref="J283:R283"/>
     <mergeCell ref="S312:Z312"/>
     <mergeCell ref="J313:R313"/>
     <mergeCell ref="S313:Z313"/>
@@ -17544,6 +17608,7 @@
     <mergeCell ref="S258:Z258"/>
     <mergeCell ref="J259:R259"/>
     <mergeCell ref="J271:R271"/>
+    <mergeCell ref="S271:Z271"/>
     <mergeCell ref="J246:R246"/>
     <mergeCell ref="S246:Z246"/>
     <mergeCell ref="J240:R240"/>
@@ -17605,6 +17670,7 @@
     <mergeCell ref="S188:Z188"/>
     <mergeCell ref="J178:R178"/>
     <mergeCell ref="S178:Z178"/>
+    <mergeCell ref="J184:R184"/>
     <mergeCell ref="J167:R167"/>
     <mergeCell ref="S167:Z167"/>
     <mergeCell ref="S130:Z130"/>
@@ -17633,16 +17699,10 @@
     <mergeCell ref="J185:R185"/>
     <mergeCell ref="J186:R186"/>
     <mergeCell ref="J187:R187"/>
-    <mergeCell ref="S84:Z84"/>
-    <mergeCell ref="S85:Z85"/>
-    <mergeCell ref="S129:Z129"/>
-    <mergeCell ref="J155:R155"/>
-    <mergeCell ref="S155:Z155"/>
-    <mergeCell ref="S122:Z122"/>
-    <mergeCell ref="J123:R123"/>
-    <mergeCell ref="S123:Z123"/>
-    <mergeCell ref="J124:R124"/>
-    <mergeCell ref="S124:Z124"/>
+    <mergeCell ref="S135:Z135"/>
+    <mergeCell ref="S139:Z139"/>
+    <mergeCell ref="S140:Z140"/>
+    <mergeCell ref="S141:Z141"/>
     <mergeCell ref="J125:R125"/>
     <mergeCell ref="S125:Z125"/>
     <mergeCell ref="J126:R126"/>
@@ -17665,15 +17725,6 @@
     <mergeCell ref="J128:R128"/>
     <mergeCell ref="S128:Z128"/>
     <mergeCell ref="J135:R135"/>
-    <mergeCell ref="S135:Z135"/>
-    <mergeCell ref="S139:Z139"/>
-    <mergeCell ref="S140:Z140"/>
-    <mergeCell ref="S141:Z141"/>
-    <mergeCell ref="S142:Z142"/>
-    <mergeCell ref="J129:R129"/>
-    <mergeCell ref="J130:R130"/>
-    <mergeCell ref="J131:R131"/>
-    <mergeCell ref="J132:R132"/>
     <mergeCell ref="D228:F263"/>
     <mergeCell ref="G111:I126"/>
     <mergeCell ref="G32:I43"/>
@@ -17701,7 +17752,11 @@
     <mergeCell ref="J44:R44"/>
     <mergeCell ref="S44:Z44"/>
     <mergeCell ref="J45:R45"/>
-    <mergeCell ref="S45:Z45"/>
+    <mergeCell ref="S84:Z84"/>
+    <mergeCell ref="S85:Z85"/>
+    <mergeCell ref="S129:Z129"/>
+    <mergeCell ref="J155:R155"/>
+    <mergeCell ref="S155:Z155"/>
     <mergeCell ref="S274:Z274"/>
     <mergeCell ref="J275:R275"/>
     <mergeCell ref="S275:Z275"/>
@@ -17733,15 +17788,7 @@
     <mergeCell ref="J553:R553"/>
     <mergeCell ref="S553:Z553"/>
     <mergeCell ref="J547:R547"/>
-    <mergeCell ref="S547:Z547"/>
-    <mergeCell ref="J556:R556"/>
-    <mergeCell ref="S556:Z556"/>
-    <mergeCell ref="J557:R557"/>
-    <mergeCell ref="S557:Z557"/>
-    <mergeCell ref="J508:R508"/>
-    <mergeCell ref="S508:Z508"/>
-    <mergeCell ref="J509:R509"/>
-    <mergeCell ref="S509:Z509"/>
+    <mergeCell ref="J312:R312"/>
     <mergeCell ref="J510:R510"/>
     <mergeCell ref="S510:Z510"/>
     <mergeCell ref="J542:R542"/>
@@ -17770,10 +17817,6 @@
     <mergeCell ref="S525:Z525"/>
     <mergeCell ref="J533:R533"/>
     <mergeCell ref="S533:Z533"/>
-    <mergeCell ref="J479:R479"/>
-    <mergeCell ref="S479:Z479"/>
-    <mergeCell ref="J484:R484"/>
-    <mergeCell ref="S484:Z484"/>
     <mergeCell ref="J495:R495"/>
     <mergeCell ref="S495:Z495"/>
     <mergeCell ref="J496:R496"/>
@@ -17802,10 +17845,10 @@
     <mergeCell ref="S513:Z513"/>
     <mergeCell ref="J514:R514"/>
     <mergeCell ref="S514:Z514"/>
-    <mergeCell ref="J434:R434"/>
-    <mergeCell ref="S434:Z434"/>
-    <mergeCell ref="J435:R435"/>
-    <mergeCell ref="S435:Z435"/>
+    <mergeCell ref="J508:R508"/>
+    <mergeCell ref="S508:Z508"/>
+    <mergeCell ref="J509:R509"/>
+    <mergeCell ref="S509:Z509"/>
     <mergeCell ref="J443:R443"/>
     <mergeCell ref="S443:Z443"/>
     <mergeCell ref="J441:R441"/>
@@ -17834,10 +17877,10 @@
     <mergeCell ref="S468:Z468"/>
     <mergeCell ref="J469:R469"/>
     <mergeCell ref="S469:Z469"/>
-    <mergeCell ref="J416:R416"/>
-    <mergeCell ref="S416:Z416"/>
-    <mergeCell ref="J417:R417"/>
-    <mergeCell ref="S417:Z417"/>
+    <mergeCell ref="J479:R479"/>
+    <mergeCell ref="S479:Z479"/>
+    <mergeCell ref="J484:R484"/>
+    <mergeCell ref="S484:Z484"/>
     <mergeCell ref="J425:R425"/>
     <mergeCell ref="S425:Z425"/>
     <mergeCell ref="J428:R428"/>
@@ -17866,8 +17909,10 @@
     <mergeCell ref="S432:Z432"/>
     <mergeCell ref="J433:R433"/>
     <mergeCell ref="S433:Z433"/>
-    <mergeCell ref="J386:R386"/>
-    <mergeCell ref="S386:Z386"/>
+    <mergeCell ref="J434:R434"/>
+    <mergeCell ref="S434:Z434"/>
+    <mergeCell ref="J435:R435"/>
+    <mergeCell ref="S435:Z435"/>
     <mergeCell ref="J377:R377"/>
     <mergeCell ref="S377:Z377"/>
     <mergeCell ref="J378:R378"/>
@@ -17900,10 +17945,6 @@
     <mergeCell ref="S415:Z415"/>
     <mergeCell ref="J393:R393"/>
     <mergeCell ref="S393:Z393"/>
-    <mergeCell ref="J394:R394"/>
-    <mergeCell ref="S394:Z394"/>
-    <mergeCell ref="J405:R405"/>
-    <mergeCell ref="S405:Z405"/>
     <mergeCell ref="J372:R372"/>
     <mergeCell ref="S372:Z372"/>
     <mergeCell ref="J373:R373"/>
@@ -17926,10 +17967,6 @@
     <mergeCell ref="S371:Z371"/>
     <mergeCell ref="J370:R370"/>
     <mergeCell ref="S370:Z370"/>
-    <mergeCell ref="J391:R391"/>
-    <mergeCell ref="S391:Z391"/>
-    <mergeCell ref="J385:R385"/>
-    <mergeCell ref="S385:Z385"/>
     <mergeCell ref="S343:Z343"/>
     <mergeCell ref="J334:R334"/>
     <mergeCell ref="S334:Z334"/>
@@ -18115,15 +18152,6 @@
     <mergeCell ref="J180:R180"/>
     <mergeCell ref="S180:Z180"/>
     <mergeCell ref="J193:R193"/>
-    <mergeCell ref="S61:Z61"/>
-    <mergeCell ref="S65:Z65"/>
-    <mergeCell ref="S87:Z87"/>
-    <mergeCell ref="S88:Z88"/>
-    <mergeCell ref="S89:Z89"/>
-    <mergeCell ref="S90:Z90"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S92:Z92"/>
-    <mergeCell ref="G99:I110"/>
     <mergeCell ref="D111:F171"/>
     <mergeCell ref="S70:Z70"/>
     <mergeCell ref="S71:Z71"/>
@@ -18141,22 +18169,21 @@
     <mergeCell ref="S110:Z110"/>
     <mergeCell ref="J111:R111"/>
     <mergeCell ref="S111:Z111"/>
-    <mergeCell ref="S69:Z69"/>
     <mergeCell ref="S75:Z75"/>
     <mergeCell ref="S76:Z76"/>
     <mergeCell ref="S81:Z81"/>
     <mergeCell ref="S82:Z82"/>
     <mergeCell ref="S83:Z83"/>
-    <mergeCell ref="S41:Z41"/>
-    <mergeCell ref="J28:R28"/>
-    <mergeCell ref="J29:R29"/>
-    <mergeCell ref="J30:R30"/>
-    <mergeCell ref="S28:Z28"/>
-    <mergeCell ref="S29:Z29"/>
-    <mergeCell ref="S30:Z30"/>
-    <mergeCell ref="S42:Z42"/>
-    <mergeCell ref="S26:Z26"/>
-    <mergeCell ref="J26:R26"/>
+    <mergeCell ref="S142:Z142"/>
+    <mergeCell ref="J129:R129"/>
+    <mergeCell ref="J130:R130"/>
+    <mergeCell ref="J131:R131"/>
+    <mergeCell ref="J132:R132"/>
+    <mergeCell ref="S122:Z122"/>
+    <mergeCell ref="J123:R123"/>
+    <mergeCell ref="S123:Z123"/>
+    <mergeCell ref="J124:R124"/>
+    <mergeCell ref="S124:Z124"/>
     <mergeCell ref="S18:Z18"/>
     <mergeCell ref="S55:Z55"/>
     <mergeCell ref="S56:Z56"/>
@@ -18164,6 +18191,18 @@
     <mergeCell ref="S58:Z58"/>
     <mergeCell ref="S59:Z59"/>
     <mergeCell ref="S60:Z60"/>
+    <mergeCell ref="S19:Z19"/>
+    <mergeCell ref="S20:Z20"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="S22:Z22"/>
+    <mergeCell ref="S50:Z50"/>
+    <mergeCell ref="S51:Z51"/>
+    <mergeCell ref="S52:Z52"/>
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="S65:Z65"/>
+    <mergeCell ref="S87:Z87"/>
+    <mergeCell ref="S69:Z69"/>
+    <mergeCell ref="S45:Z45"/>
     <mergeCell ref="J230:R230"/>
     <mergeCell ref="J248:R248"/>
     <mergeCell ref="J266:R266"/>
@@ -18215,17 +18254,19 @@
     <mergeCell ref="J18:R18"/>
     <mergeCell ref="J19:R19"/>
     <mergeCell ref="J20:R20"/>
-    <mergeCell ref="S19:Z19"/>
-    <mergeCell ref="S20:Z20"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="S22:Z22"/>
     <mergeCell ref="J68:R68"/>
     <mergeCell ref="J50:R50"/>
     <mergeCell ref="J51:R51"/>
     <mergeCell ref="J52:R52"/>
-    <mergeCell ref="S50:Z50"/>
-    <mergeCell ref="S51:Z51"/>
-    <mergeCell ref="S52:Z52"/>
+    <mergeCell ref="J69:R69"/>
+    <mergeCell ref="J70:R70"/>
+    <mergeCell ref="J71:R71"/>
+    <mergeCell ref="J72:R72"/>
+    <mergeCell ref="J93:R93"/>
+    <mergeCell ref="J94:R94"/>
+    <mergeCell ref="J104:R104"/>
+    <mergeCell ref="J105:R105"/>
+    <mergeCell ref="J106:R106"/>
     <mergeCell ref="S68:Z68"/>
     <mergeCell ref="J53:R53"/>
     <mergeCell ref="J54:R54"/>
@@ -18247,16 +18288,16 @@
     <mergeCell ref="J46:R46"/>
     <mergeCell ref="S54:Z54"/>
     <mergeCell ref="J62:R62"/>
-    <mergeCell ref="J184:R184"/>
-    <mergeCell ref="J69:R69"/>
-    <mergeCell ref="J70:R70"/>
-    <mergeCell ref="J71:R71"/>
-    <mergeCell ref="J72:R72"/>
-    <mergeCell ref="J93:R93"/>
-    <mergeCell ref="J94:R94"/>
-    <mergeCell ref="J104:R104"/>
-    <mergeCell ref="J105:R105"/>
-    <mergeCell ref="J106:R106"/>
+    <mergeCell ref="S41:Z41"/>
+    <mergeCell ref="J28:R28"/>
+    <mergeCell ref="J29:R29"/>
+    <mergeCell ref="J30:R30"/>
+    <mergeCell ref="S28:Z28"/>
+    <mergeCell ref="S29:Z29"/>
+    <mergeCell ref="S30:Z30"/>
+    <mergeCell ref="S42:Z42"/>
+    <mergeCell ref="S26:Z26"/>
+    <mergeCell ref="J26:R26"/>
     <mergeCell ref="J107:R107"/>
     <mergeCell ref="S104:Z104"/>
     <mergeCell ref="S105:Z105"/>
@@ -18279,6 +18320,12 @@
     <mergeCell ref="J89:R89"/>
     <mergeCell ref="J90:R90"/>
     <mergeCell ref="J91:R91"/>
+    <mergeCell ref="S88:Z88"/>
+    <mergeCell ref="S89:Z89"/>
+    <mergeCell ref="S90:Z90"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S92:Z92"/>
+    <mergeCell ref="G99:I110"/>
     <mergeCell ref="S148:Z148"/>
     <mergeCell ref="S149:Z149"/>
     <mergeCell ref="S150:Z150"/>
@@ -18527,9 +18574,12 @@
     <hyperlink ref="S299" r:id="rId123"/>
     <hyperlink ref="S300" r:id="rId124"/>
     <hyperlink ref="S301" r:id="rId125"/>
+    <hyperlink ref="S302" r:id="rId126"/>
+    <hyperlink ref="S303" r:id="rId127"/>
+    <hyperlink ref="S315" r:id="rId128"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId126"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId129"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/边角料/搜索记录.xlsx
+++ b/边角料/搜索记录.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="366">
   <si>
     <r>
       <rPr>
@@ -1496,6 +1496,38 @@
   </si>
   <si>
     <t>MySQL 触发器简单实例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/wishyouhappy/p/3678852.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.cnblogs.com/huangfr/archive/2012/06/20/2555530.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://blog.csdn.net/zhou920786312/article/details/70695492</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oracle连接总结（内连接、外连接、自然连接，交叉连接，自连接）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://zhidao.baidu.com/question/488182341402837332.html</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join操作基本：外连接、自然连接、内连接</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛卡尔积、等值连接、自然连接三者有什么区别</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表连接+内连接+等值连接+不等值连接+自然连接+using+外连接+ 左外连接+右外连接+全连接+自连接+交叉连接</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1953,11 +1985,11 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2362,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z630"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC312" sqref="AC312"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J264" sqref="J264:R264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2598,17 +2630,17 @@
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
-      <c r="J9" s="16" t="s">
+      <c r="J9" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
       <c r="S9" s="4" t="s">
         <v>172</v>
       </c>
@@ -3370,7 +3402,7 @@
       <c r="G35" s="44"/>
       <c r="H35" s="44"/>
       <c r="I35" s="44"/>
-      <c r="J35" s="17" t="s">
+      <c r="J35" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K35" s="2"/>
@@ -3646,17 +3678,17 @@
       <c r="I44" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="J44" s="16" t="s">
+      <c r="J44" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
-      <c r="O44" s="16"/>
-      <c r="P44" s="16"/>
-      <c r="Q44" s="16"/>
-      <c r="R44" s="16"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
       <c r="S44" s="4" t="s">
         <v>101</v>
       </c>
@@ -3710,17 +3742,17 @@
       <c r="G46" s="45"/>
       <c r="H46" s="45"/>
       <c r="I46" s="46"/>
-      <c r="J46" s="16" t="s">
+      <c r="J46" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
-      <c r="R46" s="16"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
       <c r="S46" s="4" t="s">
         <v>104</v>
       </c>
@@ -3806,17 +3838,17 @@
       <c r="G49" s="45"/>
       <c r="H49" s="45"/>
       <c r="I49" s="46"/>
-      <c r="J49" s="16" t="s">
+      <c r="J49" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
-      <c r="O49" s="16"/>
-      <c r="P49" s="16"/>
-      <c r="Q49" s="16"/>
-      <c r="R49" s="16"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
       <c r="S49" s="4" t="s">
         <v>109</v>
       </c>
@@ -3838,17 +3870,17 @@
       <c r="G50" s="45"/>
       <c r="H50" s="45"/>
       <c r="I50" s="46"/>
-      <c r="J50" s="16" t="s">
+      <c r="J50" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
       <c r="S50" s="4" t="s">
         <v>110</v>
       </c>
@@ -3963,14 +3995,14 @@
       <c r="J54" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
-      <c r="O54" s="16"/>
-      <c r="P54" s="16"/>
-      <c r="Q54" s="16"/>
-      <c r="R54" s="16"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
       <c r="S54" s="4" t="s">
         <v>116</v>
       </c>
@@ -3992,17 +4024,17 @@
       <c r="G55" s="45"/>
       <c r="H55" s="45"/>
       <c r="I55" s="47"/>
-      <c r="J55" s="16" t="s">
+      <c r="J55" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="K55" s="16"/>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
-      <c r="N55" s="16"/>
-      <c r="O55" s="16"/>
-      <c r="P55" s="16"/>
-      <c r="Q55" s="16"/>
-      <c r="R55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
       <c r="S55" s="4" t="s">
         <v>117</v>
       </c>
@@ -4216,7 +4248,7 @@
       <c r="G62" s="45"/>
       <c r="H62" s="45"/>
       <c r="I62" s="47"/>
-      <c r="J62" s="17" t="s">
+      <c r="J62" s="16" t="s">
         <v>136</v>
       </c>
       <c r="K62" s="2"/>
@@ -4280,17 +4312,17 @@
       <c r="G64" s="45"/>
       <c r="H64" s="45"/>
       <c r="I64" s="47"/>
-      <c r="J64" s="16" t="s">
+      <c r="J64" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
-      <c r="R64" s="16"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="17"/>
+      <c r="N64" s="17"/>
+      <c r="O64" s="17"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
       <c r="S64" s="4" t="s">
         <v>135</v>
       </c>
@@ -4401,14 +4433,14 @@
       <c r="J68" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-      <c r="R68" s="16"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="17"/>
+      <c r="N68" s="17"/>
+      <c r="O68" s="17"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
       <c r="S68" s="4" t="s">
         <v>138</v>
       </c>
@@ -4784,7 +4816,7 @@
       <c r="I81" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="J81" s="17" t="s">
+      <c r="J81" s="16" t="s">
         <v>160</v>
       </c>
       <c r="K81" s="2"/>
@@ -4880,17 +4912,17 @@
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
       <c r="I84" s="7"/>
-      <c r="J84" s="16" t="s">
+      <c r="J84" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-      <c r="R84" s="16"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
       <c r="S84" s="4" t="s">
         <v>151</v>
       </c>
@@ -4944,17 +4976,17 @@
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
       <c r="I86" s="7"/>
-      <c r="J86" s="16" t="s">
+      <c r="J86" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="K86" s="16"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
-      <c r="N86" s="16"/>
-      <c r="O86" s="16"/>
-      <c r="P86" s="16"/>
-      <c r="Q86" s="16"/>
-      <c r="R86" s="16"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
       <c r="S86" s="4" t="s">
         <v>153</v>
       </c>
@@ -5040,17 +5072,17 @@
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
       <c r="I89" s="7"/>
-      <c r="J89" s="16" t="s">
+      <c r="J89" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="K89" s="16"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
-      <c r="N89" s="16"/>
-      <c r="O89" s="16"/>
-      <c r="P89" s="16"/>
-      <c r="Q89" s="16"/>
-      <c r="R89" s="16"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17"/>
       <c r="S89" s="4" t="s">
         <v>168</v>
       </c>
@@ -5332,17 +5364,17 @@
       </c>
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
-      <c r="J99" s="16" t="s">
+      <c r="J99" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="K99" s="16"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
-      <c r="N99" s="16"/>
-      <c r="O99" s="16"/>
-      <c r="P99" s="16"/>
-      <c r="Q99" s="16"/>
-      <c r="R99" s="16"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
       <c r="S99" s="4" t="s">
         <v>49</v>
       </c>
@@ -5364,17 +5396,17 @@
       <c r="G100" s="15"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
-      <c r="J100" s="16" t="s">
+      <c r="J100" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="K100" s="16"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
-      <c r="N100" s="16"/>
-      <c r="O100" s="16"/>
-      <c r="P100" s="16"/>
-      <c r="Q100" s="16"/>
-      <c r="R100" s="16"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="17"/>
+      <c r="M100" s="17"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
       <c r="S100" s="4" t="s">
         <v>51</v>
       </c>
@@ -5492,17 +5524,17 @@
       <c r="G104" s="15"/>
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
-      <c r="J104" s="16" t="s">
+      <c r="J104" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="K104" s="16"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
-      <c r="N104" s="16"/>
-      <c r="O104" s="16"/>
-      <c r="P104" s="16"/>
-      <c r="Q104" s="16"/>
-      <c r="R104" s="16"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="17"/>
       <c r="S104" s="4" t="s">
         <v>91</v>
       </c>
@@ -5524,17 +5556,17 @@
       <c r="G105" s="15"/>
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
-      <c r="J105" s="16" t="s">
+      <c r="J105" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="K105" s="16"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
-      <c r="N105" s="16"/>
-      <c r="O105" s="16"/>
-      <c r="P105" s="16"/>
-      <c r="Q105" s="16"/>
-      <c r="R105" s="16"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
+      <c r="R105" s="17"/>
       <c r="S105" s="4" t="s">
         <v>92</v>
       </c>
@@ -5556,17 +5588,17 @@
       <c r="G106" s="15"/>
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
-      <c r="J106" s="16" t="s">
+      <c r="J106" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="K106" s="16"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
-      <c r="N106" s="16"/>
-      <c r="O106" s="16"/>
-      <c r="P106" s="16"/>
-      <c r="Q106" s="16"/>
-      <c r="R106" s="16"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="17"/>
       <c r="S106" s="4" t="s">
         <v>94</v>
       </c>
@@ -5704,7 +5736,7 @@
       </c>
       <c r="H111" s="27"/>
       <c r="I111" s="27"/>
-      <c r="J111" s="16" t="s">
+      <c r="J111" s="17" t="s">
         <v>62</v>
       </c>
       <c r="K111" s="2"/>
@@ -6192,7 +6224,7 @@
       <c r="I127" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="J127" s="16" t="s">
+      <c r="J127" s="17" t="s">
         <v>187</v>
       </c>
       <c r="K127" s="2"/>
@@ -6224,7 +6256,7 @@
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="12"/>
-      <c r="J128" s="16" t="s">
+      <c r="J128" s="17" t="s">
         <v>186</v>
       </c>
       <c r="K128" s="2"/>
@@ -6256,17 +6288,17 @@
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="12"/>
-      <c r="J129" s="16" t="s">
+      <c r="J129" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="K129" s="16"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
-      <c r="N129" s="16"/>
-      <c r="O129" s="16"/>
-      <c r="P129" s="16"/>
-      <c r="Q129" s="16"/>
-      <c r="R129" s="16"/>
+      <c r="K129" s="17"/>
+      <c r="L129" s="17"/>
+      <c r="M129" s="17"/>
+      <c r="N129" s="17"/>
+      <c r="O129" s="17"/>
+      <c r="P129" s="17"/>
+      <c r="Q129" s="17"/>
+      <c r="R129" s="17"/>
       <c r="S129" s="4" t="s">
         <v>191</v>
       </c>
@@ -6288,17 +6320,17 @@
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="12"/>
-      <c r="J130" s="16" t="s">
+      <c r="J130" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="K130" s="16"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
-      <c r="N130" s="16"/>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="16"/>
-      <c r="R130" s="16"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
+      <c r="R130" s="17"/>
       <c r="S130" s="4" t="s">
         <v>193</v>
       </c>
@@ -6480,17 +6512,17 @@
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="12"/>
-      <c r="J136" s="16" t="s">
+      <c r="J136" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="K136" s="16"/>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
-      <c r="N136" s="16"/>
-      <c r="O136" s="16"/>
-      <c r="P136" s="16"/>
-      <c r="Q136" s="16"/>
-      <c r="R136" s="16"/>
+      <c r="K136" s="17"/>
+      <c r="L136" s="17"/>
+      <c r="M136" s="17"/>
+      <c r="N136" s="17"/>
+      <c r="O136" s="17"/>
+      <c r="P136" s="17"/>
+      <c r="Q136" s="17"/>
+      <c r="R136" s="17"/>
       <c r="S136" s="4" t="s">
         <v>205</v>
       </c>
@@ -6512,17 +6544,17 @@
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="12"/>
-      <c r="J137" s="16" t="s">
+      <c r="J137" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="K137" s="16"/>
-      <c r="L137" s="16"/>
-      <c r="M137" s="16"/>
-      <c r="N137" s="16"/>
-      <c r="O137" s="16"/>
-      <c r="P137" s="16"/>
-      <c r="Q137" s="16"/>
-      <c r="R137" s="16"/>
+      <c r="K137" s="17"/>
+      <c r="L137" s="17"/>
+      <c r="M137" s="17"/>
+      <c r="N137" s="17"/>
+      <c r="O137" s="17"/>
+      <c r="P137" s="17"/>
+      <c r="Q137" s="17"/>
+      <c r="R137" s="17"/>
       <c r="S137" s="4" t="s">
         <v>207</v>
       </c>
@@ -6608,17 +6640,17 @@
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="12"/>
-      <c r="J140" s="16" t="s">
+      <c r="J140" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="K140" s="16"/>
-      <c r="L140" s="16"/>
-      <c r="M140" s="16"/>
-      <c r="N140" s="16"/>
-      <c r="O140" s="16"/>
-      <c r="P140" s="16"/>
-      <c r="Q140" s="16"/>
-      <c r="R140" s="16"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+      <c r="N140" s="17"/>
+      <c r="O140" s="17"/>
+      <c r="P140" s="17"/>
+      <c r="Q140" s="17"/>
+      <c r="R140" s="17"/>
       <c r="S140" s="4" t="s">
         <v>214</v>
       </c>
@@ -6640,17 +6672,17 @@
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="12"/>
-      <c r="J141" s="16" t="s">
+      <c r="J141" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="K141" s="16"/>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
-      <c r="N141" s="16"/>
-      <c r="O141" s="16"/>
-      <c r="P141" s="16"/>
-      <c r="Q141" s="16"/>
-      <c r="R141" s="16"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+      <c r="N141" s="17"/>
+      <c r="O141" s="17"/>
+      <c r="P141" s="17"/>
+      <c r="Q141" s="17"/>
+      <c r="R141" s="17"/>
       <c r="S141" s="4" t="s">
         <v>217</v>
       </c>
@@ -6768,17 +6800,17 @@
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="12"/>
-      <c r="J145" s="16" t="s">
+      <c r="J145" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="K145" s="16"/>
-      <c r="L145" s="16"/>
-      <c r="M145" s="16"/>
-      <c r="N145" s="16"/>
-      <c r="O145" s="16"/>
-      <c r="P145" s="16"/>
-      <c r="Q145" s="16"/>
-      <c r="R145" s="16"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+      <c r="N145" s="17"/>
+      <c r="O145" s="17"/>
+      <c r="P145" s="17"/>
+      <c r="Q145" s="17"/>
+      <c r="R145" s="17"/>
       <c r="S145" s="4" t="s">
         <v>225</v>
       </c>
@@ -7066,17 +7098,17 @@
       <c r="I155" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="J155" s="16" t="s">
+      <c r="J155" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="K155" s="16"/>
-      <c r="L155" s="16"/>
-      <c r="M155" s="16"/>
-      <c r="N155" s="16"/>
-      <c r="O155" s="16"/>
-      <c r="P155" s="16"/>
-      <c r="Q155" s="16"/>
-      <c r="R155" s="16"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
+      <c r="R155" s="17"/>
       <c r="S155" s="4" t="s">
         <v>176</v>
       </c>
@@ -10180,7 +10212,9 @@
       </c>
       <c r="H264" s="27"/>
       <c r="I264" s="27"/>
-      <c r="J264" s="2"/>
+      <c r="J264" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
       <c r="M264" s="2"/>
@@ -10189,7 +10223,9 @@
       <c r="P264" s="2"/>
       <c r="Q264" s="2"/>
       <c r="R264" s="2"/>
-      <c r="S264" s="2"/>
+      <c r="S264" s="4" t="s">
+        <v>358</v>
+      </c>
       <c r="T264" s="2"/>
       <c r="U264" s="2"/>
       <c r="V264" s="2"/>
@@ -10208,7 +10244,9 @@
       <c r="G265" s="27"/>
       <c r="H265" s="27"/>
       <c r="I265" s="27"/>
-      <c r="J265" s="2"/>
+      <c r="J265" s="2" t="s">
+        <v>363</v>
+      </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
       <c r="M265" s="2"/>
@@ -10217,7 +10255,9 @@
       <c r="P265" s="2"/>
       <c r="Q265" s="2"/>
       <c r="R265" s="2"/>
-      <c r="S265" s="2"/>
+      <c r="S265" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="T265" s="2"/>
       <c r="U265" s="2"/>
       <c r="V265" s="2"/>
@@ -10236,7 +10276,9 @@
       <c r="G266" s="27"/>
       <c r="H266" s="27"/>
       <c r="I266" s="27"/>
-      <c r="J266" s="2"/>
+      <c r="J266" s="2" t="s">
+        <v>365</v>
+      </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
       <c r="M266" s="2"/>
@@ -10245,7 +10287,9 @@
       <c r="P266" s="2"/>
       <c r="Q266" s="2"/>
       <c r="R266" s="2"/>
-      <c r="S266" s="2"/>
+      <c r="S266" s="4" t="s">
+        <v>360</v>
+      </c>
       <c r="T266" s="2"/>
       <c r="U266" s="2"/>
       <c r="V266" s="2"/>
@@ -10264,7 +10308,9 @@
       <c r="G267" s="27"/>
       <c r="H267" s="27"/>
       <c r="I267" s="27"/>
-      <c r="J267" s="2"/>
+      <c r="J267" s="2" t="s">
+        <v>364</v>
+      </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
       <c r="M267" s="2"/>
@@ -10273,7 +10319,9 @@
       <c r="P267" s="2"/>
       <c r="Q267" s="2"/>
       <c r="R267" s="2"/>
-      <c r="S267" s="2"/>
+      <c r="S267" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="T267" s="2"/>
       <c r="U267" s="2"/>
       <c r="V267" s="2"/>
@@ -10609,14 +10657,14 @@
       <c r="J279" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="K279" s="16"/>
-      <c r="L279" s="16"/>
-      <c r="M279" s="16"/>
-      <c r="N279" s="16"/>
-      <c r="O279" s="16"/>
-      <c r="P279" s="16"/>
-      <c r="Q279" s="16"/>
-      <c r="R279" s="16"/>
+      <c r="K279" s="17"/>
+      <c r="L279" s="17"/>
+      <c r="M279" s="17"/>
+      <c r="N279" s="17"/>
+      <c r="O279" s="17"/>
+      <c r="P279" s="17"/>
+      <c r="Q279" s="17"/>
+      <c r="R279" s="17"/>
       <c r="S279" s="4" t="s">
         <v>242</v>
       </c>
@@ -10641,14 +10689,14 @@
       <c r="J280" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="K280" s="16"/>
-      <c r="L280" s="16"/>
-      <c r="M280" s="16"/>
-      <c r="N280" s="16"/>
-      <c r="O280" s="16"/>
-      <c r="P280" s="16"/>
-      <c r="Q280" s="16"/>
-      <c r="R280" s="16"/>
+      <c r="K280" s="17"/>
+      <c r="L280" s="17"/>
+      <c r="M280" s="17"/>
+      <c r="N280" s="17"/>
+      <c r="O280" s="17"/>
+      <c r="P280" s="17"/>
+      <c r="Q280" s="17"/>
+      <c r="R280" s="17"/>
       <c r="S280" s="4" t="s">
         <v>260</v>
       </c>
@@ -10673,14 +10721,14 @@
       <c r="J281" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="K281" s="16"/>
-      <c r="L281" s="16"/>
-      <c r="M281" s="16"/>
-      <c r="N281" s="16"/>
-      <c r="O281" s="16"/>
-      <c r="P281" s="16"/>
-      <c r="Q281" s="16"/>
-      <c r="R281" s="16"/>
+      <c r="K281" s="17"/>
+      <c r="L281" s="17"/>
+      <c r="M281" s="17"/>
+      <c r="N281" s="17"/>
+      <c r="O281" s="17"/>
+      <c r="P281" s="17"/>
+      <c r="Q281" s="17"/>
+      <c r="R281" s="17"/>
       <c r="S281" s="4" t="s">
         <v>261</v>
       </c>
@@ -10705,14 +10753,14 @@
       <c r="J282" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="K282" s="16"/>
-      <c r="L282" s="16"/>
-      <c r="M282" s="16"/>
-      <c r="N282" s="16"/>
-      <c r="O282" s="16"/>
-      <c r="P282" s="16"/>
-      <c r="Q282" s="16"/>
-      <c r="R282" s="16"/>
+      <c r="K282" s="17"/>
+      <c r="L282" s="17"/>
+      <c r="M282" s="17"/>
+      <c r="N282" s="17"/>
+      <c r="O282" s="17"/>
+      <c r="P282" s="17"/>
+      <c r="Q282" s="17"/>
+      <c r="R282" s="17"/>
       <c r="S282" s="4" t="s">
         <v>262</v>
       </c>
@@ -10737,14 +10785,14 @@
       <c r="J283" s="19" t="s">
         <v>247</v>
       </c>
-      <c r="K283" s="16"/>
-      <c r="L283" s="16"/>
-      <c r="M283" s="16"/>
-      <c r="N283" s="16"/>
-      <c r="O283" s="16"/>
-      <c r="P283" s="16"/>
-      <c r="Q283" s="16"/>
-      <c r="R283" s="16"/>
+      <c r="K283" s="17"/>
+      <c r="L283" s="17"/>
+      <c r="M283" s="17"/>
+      <c r="N283" s="17"/>
+      <c r="O283" s="17"/>
+      <c r="P283" s="17"/>
+      <c r="Q283" s="17"/>
+      <c r="R283" s="17"/>
       <c r="S283" s="4" t="s">
         <v>263</v>
       </c>
@@ -10766,17 +10814,17 @@
       <c r="G284" s="29"/>
       <c r="H284" s="29"/>
       <c r="I284" s="29"/>
-      <c r="J284" s="16" t="s">
+      <c r="J284" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="K284" s="16"/>
-      <c r="L284" s="16"/>
-      <c r="M284" s="16"/>
-      <c r="N284" s="16"/>
-      <c r="O284" s="16"/>
-      <c r="P284" s="16"/>
-      <c r="Q284" s="16"/>
-      <c r="R284" s="16"/>
+      <c r="K284" s="17"/>
+      <c r="L284" s="17"/>
+      <c r="M284" s="17"/>
+      <c r="N284" s="17"/>
+      <c r="O284" s="17"/>
+      <c r="P284" s="17"/>
+      <c r="Q284" s="17"/>
+      <c r="R284" s="17"/>
       <c r="S284" s="4" t="s">
         <v>264</v>
       </c>
@@ -10798,17 +10846,17 @@
       <c r="G285" s="29"/>
       <c r="H285" s="29"/>
       <c r="I285" s="29"/>
-      <c r="J285" s="16" t="s">
+      <c r="J285" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="K285" s="16"/>
-      <c r="L285" s="16"/>
-      <c r="M285" s="16"/>
-      <c r="N285" s="16"/>
-      <c r="O285" s="16"/>
-      <c r="P285" s="16"/>
-      <c r="Q285" s="16"/>
-      <c r="R285" s="16"/>
+      <c r="K285" s="17"/>
+      <c r="L285" s="17"/>
+      <c r="M285" s="17"/>
+      <c r="N285" s="17"/>
+      <c r="O285" s="17"/>
+      <c r="P285" s="17"/>
+      <c r="Q285" s="17"/>
+      <c r="R285" s="17"/>
       <c r="S285" s="4" t="s">
         <v>265</v>
       </c>
@@ -10833,14 +10881,14 @@
       <c r="J286" s="19" t="s">
         <v>250</v>
       </c>
-      <c r="K286" s="16"/>
-      <c r="L286" s="16"/>
-      <c r="M286" s="16"/>
-      <c r="N286" s="16"/>
-      <c r="O286" s="16"/>
-      <c r="P286" s="16"/>
-      <c r="Q286" s="16"/>
-      <c r="R286" s="16"/>
+      <c r="K286" s="17"/>
+      <c r="L286" s="17"/>
+      <c r="M286" s="17"/>
+      <c r="N286" s="17"/>
+      <c r="O286" s="17"/>
+      <c r="P286" s="17"/>
+      <c r="Q286" s="17"/>
+      <c r="R286" s="17"/>
       <c r="S286" s="4" t="s">
         <v>266</v>
       </c>
@@ -10897,14 +10945,14 @@
       <c r="J288" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="K288" s="16"/>
-      <c r="L288" s="16"/>
-      <c r="M288" s="16"/>
-      <c r="N288" s="16"/>
-      <c r="O288" s="16"/>
-      <c r="P288" s="16"/>
-      <c r="Q288" s="16"/>
-      <c r="R288" s="16"/>
+      <c r="K288" s="17"/>
+      <c r="L288" s="17"/>
+      <c r="M288" s="17"/>
+      <c r="N288" s="17"/>
+      <c r="O288" s="17"/>
+      <c r="P288" s="17"/>
+      <c r="Q288" s="17"/>
+      <c r="R288" s="17"/>
       <c r="S288" s="4" t="s">
         <v>268</v>
       </c>
@@ -10926,17 +10974,17 @@
       <c r="G289" s="29"/>
       <c r="H289" s="29"/>
       <c r="I289" s="29"/>
-      <c r="J289" s="16" t="s">
+      <c r="J289" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="K289" s="16"/>
-      <c r="L289" s="16"/>
-      <c r="M289" s="16"/>
-      <c r="N289" s="16"/>
-      <c r="O289" s="16"/>
-      <c r="P289" s="16"/>
-      <c r="Q289" s="16"/>
-      <c r="R289" s="16"/>
+      <c r="K289" s="17"/>
+      <c r="L289" s="17"/>
+      <c r="M289" s="17"/>
+      <c r="N289" s="17"/>
+      <c r="O289" s="17"/>
+      <c r="P289" s="17"/>
+      <c r="Q289" s="17"/>
+      <c r="R289" s="17"/>
       <c r="S289" s="4" t="s">
         <v>269</v>
       </c>
@@ -10961,14 +11009,14 @@
       <c r="J290" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="K290" s="16"/>
-      <c r="L290" s="16"/>
-      <c r="M290" s="16"/>
-      <c r="N290" s="16"/>
-      <c r="O290" s="16"/>
-      <c r="P290" s="16"/>
-      <c r="Q290" s="16"/>
-      <c r="R290" s="16"/>
+      <c r="K290" s="17"/>
+      <c r="L290" s="17"/>
+      <c r="M290" s="17"/>
+      <c r="N290" s="17"/>
+      <c r="O290" s="17"/>
+      <c r="P290" s="17"/>
+      <c r="Q290" s="17"/>
+      <c r="R290" s="17"/>
       <c r="S290" s="4" t="s">
         <v>270</v>
       </c>
@@ -10990,17 +11038,17 @@
       <c r="G291" s="29"/>
       <c r="H291" s="29"/>
       <c r="I291" s="29"/>
-      <c r="J291" s="16" t="s">
+      <c r="J291" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="K291" s="16"/>
-      <c r="L291" s="16"/>
-      <c r="M291" s="16"/>
-      <c r="N291" s="16"/>
-      <c r="O291" s="16"/>
-      <c r="P291" s="16"/>
-      <c r="Q291" s="16"/>
-      <c r="R291" s="16"/>
+      <c r="K291" s="17"/>
+      <c r="L291" s="17"/>
+      <c r="M291" s="17"/>
+      <c r="N291" s="17"/>
+      <c r="O291" s="17"/>
+      <c r="P291" s="17"/>
+      <c r="Q291" s="17"/>
+      <c r="R291" s="17"/>
       <c r="S291" s="4" t="s">
         <v>271</v>
       </c>
@@ -11022,17 +11070,17 @@
       <c r="G292" s="29"/>
       <c r="H292" s="29"/>
       <c r="I292" s="29"/>
-      <c r="J292" s="16" t="s">
+      <c r="J292" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="K292" s="16"/>
-      <c r="L292" s="16"/>
-      <c r="M292" s="16"/>
-      <c r="N292" s="16"/>
-      <c r="O292" s="16"/>
-      <c r="P292" s="16"/>
-      <c r="Q292" s="16"/>
-      <c r="R292" s="16"/>
+      <c r="K292" s="17"/>
+      <c r="L292" s="17"/>
+      <c r="M292" s="17"/>
+      <c r="N292" s="17"/>
+      <c r="O292" s="17"/>
+      <c r="P292" s="17"/>
+      <c r="Q292" s="17"/>
+      <c r="R292" s="17"/>
       <c r="S292" s="4" t="s">
         <v>272</v>
       </c>
@@ -11054,17 +11102,17 @@
       <c r="G293" s="29"/>
       <c r="H293" s="29"/>
       <c r="I293" s="29"/>
-      <c r="J293" s="16" t="s">
+      <c r="J293" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="K293" s="16"/>
-      <c r="L293" s="16"/>
-      <c r="M293" s="16"/>
-      <c r="N293" s="16"/>
-      <c r="O293" s="16"/>
-      <c r="P293" s="16"/>
-      <c r="Q293" s="16"/>
-      <c r="R293" s="16"/>
+      <c r="K293" s="17"/>
+      <c r="L293" s="17"/>
+      <c r="M293" s="17"/>
+      <c r="N293" s="17"/>
+      <c r="O293" s="17"/>
+      <c r="P293" s="17"/>
+      <c r="Q293" s="17"/>
+      <c r="R293" s="17"/>
       <c r="S293" s="4" t="s">
         <v>273</v>
       </c>
@@ -11086,17 +11134,17 @@
       <c r="G294" s="29"/>
       <c r="H294" s="29"/>
       <c r="I294" s="29"/>
-      <c r="J294" s="16" t="s">
+      <c r="J294" s="17" t="s">
         <v>258</v>
       </c>
-      <c r="K294" s="16"/>
-      <c r="L294" s="16"/>
-      <c r="M294" s="16"/>
-      <c r="N294" s="16"/>
-      <c r="O294" s="16"/>
-      <c r="P294" s="16"/>
-      <c r="Q294" s="16"/>
-      <c r="R294" s="16"/>
+      <c r="K294" s="17"/>
+      <c r="L294" s="17"/>
+      <c r="M294" s="17"/>
+      <c r="N294" s="17"/>
+      <c r="O294" s="17"/>
+      <c r="P294" s="17"/>
+      <c r="Q294" s="17"/>
+      <c r="R294" s="17"/>
       <c r="S294" s="4" t="s">
         <v>274</v>
       </c>
@@ -11118,17 +11166,17 @@
       <c r="G295" s="29"/>
       <c r="H295" s="29"/>
       <c r="I295" s="29"/>
-      <c r="J295" s="16" t="s">
+      <c r="J295" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="K295" s="16"/>
-      <c r="L295" s="16"/>
-      <c r="M295" s="16"/>
-      <c r="N295" s="16"/>
-      <c r="O295" s="16"/>
-      <c r="P295" s="16"/>
-      <c r="Q295" s="16"/>
-      <c r="R295" s="16"/>
+      <c r="K295" s="17"/>
+      <c r="L295" s="17"/>
+      <c r="M295" s="17"/>
+      <c r="N295" s="17"/>
+      <c r="O295" s="17"/>
+      <c r="P295" s="17"/>
+      <c r="Q295" s="17"/>
+      <c r="R295" s="17"/>
       <c r="S295" s="4" t="s">
         <v>275</v>
       </c>
@@ -11406,17 +11454,17 @@
       <c r="G304" s="29"/>
       <c r="H304" s="29"/>
       <c r="I304" s="29"/>
-      <c r="J304" s="16" t="s">
+      <c r="J304" s="17" t="s">
         <v>312</v>
       </c>
-      <c r="K304" s="16"/>
-      <c r="L304" s="16"/>
-      <c r="M304" s="16"/>
-      <c r="N304" s="16"/>
-      <c r="O304" s="16"/>
-      <c r="P304" s="16"/>
-      <c r="Q304" s="16"/>
-      <c r="R304" s="16"/>
+      <c r="K304" s="17"/>
+      <c r="L304" s="17"/>
+      <c r="M304" s="17"/>
+      <c r="N304" s="17"/>
+      <c r="O304" s="17"/>
+      <c r="P304" s="17"/>
+      <c r="Q304" s="17"/>
+      <c r="R304" s="17"/>
       <c r="S304" s="3" t="s">
         <v>311</v>
       </c>
@@ -11438,17 +11486,17 @@
       <c r="G305" s="29"/>
       <c r="H305" s="29"/>
       <c r="I305" s="29"/>
-      <c r="J305" s="16" t="s">
+      <c r="J305" s="17" t="s">
         <v>313</v>
       </c>
-      <c r="K305" s="16"/>
-      <c r="L305" s="16"/>
-      <c r="M305" s="16"/>
-      <c r="N305" s="16"/>
-      <c r="O305" s="16"/>
-      <c r="P305" s="16"/>
-      <c r="Q305" s="16"/>
-      <c r="R305" s="16"/>
+      <c r="K305" s="17"/>
+      <c r="L305" s="17"/>
+      <c r="M305" s="17"/>
+      <c r="N305" s="17"/>
+      <c r="O305" s="17"/>
+      <c r="P305" s="17"/>
+      <c r="Q305" s="17"/>
+      <c r="R305" s="17"/>
       <c r="S305" s="3" t="s">
         <v>294</v>
       </c>
@@ -11566,17 +11614,17 @@
       <c r="G309" s="29"/>
       <c r="H309" s="29"/>
       <c r="I309" s="29"/>
-      <c r="J309" s="16" t="s">
+      <c r="J309" s="17" t="s">
         <v>302</v>
       </c>
-      <c r="K309" s="16"/>
-      <c r="L309" s="16"/>
-      <c r="M309" s="16"/>
-      <c r="N309" s="16"/>
-      <c r="O309" s="16"/>
-      <c r="P309" s="16"/>
-      <c r="Q309" s="16"/>
-      <c r="R309" s="16"/>
+      <c r="K309" s="17"/>
+      <c r="L309" s="17"/>
+      <c r="M309" s="17"/>
+      <c r="N309" s="17"/>
+      <c r="O309" s="17"/>
+      <c r="P309" s="17"/>
+      <c r="Q309" s="17"/>
+      <c r="R309" s="17"/>
       <c r="S309" s="3" t="s">
         <v>301</v>
       </c>
@@ -11726,17 +11774,17 @@
       <c r="G314" s="29"/>
       <c r="H314" s="29"/>
       <c r="I314" s="29"/>
-      <c r="J314" s="16" t="s">
+      <c r="J314" s="17" t="s">
         <v>314</v>
       </c>
-      <c r="K314" s="16"/>
-      <c r="L314" s="16"/>
-      <c r="M314" s="16"/>
-      <c r="N314" s="16"/>
-      <c r="O314" s="16"/>
-      <c r="P314" s="16"/>
-      <c r="Q314" s="16"/>
-      <c r="R314" s="16"/>
+      <c r="K314" s="17"/>
+      <c r="L314" s="17"/>
+      <c r="M314" s="17"/>
+      <c r="N314" s="17"/>
+      <c r="O314" s="17"/>
+      <c r="P314" s="17"/>
+      <c r="Q314" s="17"/>
+      <c r="R314" s="17"/>
       <c r="S314" s="3" t="s">
         <v>315</v>
       </c>
@@ -11822,17 +11870,17 @@
       <c r="G317" s="29"/>
       <c r="H317" s="29"/>
       <c r="I317" s="29"/>
-      <c r="J317" s="16" t="s">
+      <c r="J317" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="K317" s="16"/>
-      <c r="L317" s="16"/>
-      <c r="M317" s="16"/>
-      <c r="N317" s="16"/>
-      <c r="O317" s="16"/>
-      <c r="P317" s="16"/>
-      <c r="Q317" s="16"/>
-      <c r="R317" s="16"/>
+      <c r="K317" s="17"/>
+      <c r="L317" s="17"/>
+      <c r="M317" s="17"/>
+      <c r="N317" s="17"/>
+      <c r="O317" s="17"/>
+      <c r="P317" s="17"/>
+      <c r="Q317" s="17"/>
+      <c r="R317" s="17"/>
       <c r="S317" s="3" t="s">
         <v>321</v>
       </c>
@@ -11854,17 +11902,17 @@
       <c r="G318" s="29"/>
       <c r="H318" s="29"/>
       <c r="I318" s="29"/>
-      <c r="J318" s="16" t="s">
+      <c r="J318" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="K318" s="16"/>
-      <c r="L318" s="16"/>
-      <c r="M318" s="16"/>
-      <c r="N318" s="16"/>
-      <c r="O318" s="16"/>
-      <c r="P318" s="16"/>
-      <c r="Q318" s="16"/>
-      <c r="R318" s="16"/>
+      <c r="K318" s="17"/>
+      <c r="L318" s="17"/>
+      <c r="M318" s="17"/>
+      <c r="N318" s="17"/>
+      <c r="O318" s="17"/>
+      <c r="P318" s="17"/>
+      <c r="Q318" s="17"/>
+      <c r="R318" s="17"/>
       <c r="S318" s="3" t="s">
         <v>322</v>
       </c>
@@ -11918,17 +11966,17 @@
       <c r="G320" s="29"/>
       <c r="H320" s="29"/>
       <c r="I320" s="29"/>
-      <c r="J320" s="16" t="s">
+      <c r="J320" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="K320" s="16"/>
-      <c r="L320" s="16"/>
-      <c r="M320" s="16"/>
-      <c r="N320" s="16"/>
-      <c r="O320" s="16"/>
-      <c r="P320" s="16"/>
-      <c r="Q320" s="16"/>
-      <c r="R320" s="16"/>
+      <c r="K320" s="17"/>
+      <c r="L320" s="17"/>
+      <c r="M320" s="17"/>
+      <c r="N320" s="17"/>
+      <c r="O320" s="17"/>
+      <c r="P320" s="17"/>
+      <c r="Q320" s="17"/>
+      <c r="R320" s="17"/>
       <c r="S320" s="3" t="s">
         <v>326</v>
       </c>
@@ -11982,17 +12030,17 @@
       <c r="G322" s="29"/>
       <c r="H322" s="29"/>
       <c r="I322" s="29"/>
-      <c r="J322" s="16" t="s">
+      <c r="J322" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="K322" s="16"/>
-      <c r="L322" s="16"/>
-      <c r="M322" s="16"/>
-      <c r="N322" s="16"/>
-      <c r="O322" s="16"/>
-      <c r="P322" s="16"/>
-      <c r="Q322" s="16"/>
-      <c r="R322" s="16"/>
+      <c r="K322" s="17"/>
+      <c r="L322" s="17"/>
+      <c r="M322" s="17"/>
+      <c r="N322" s="17"/>
+      <c r="O322" s="17"/>
+      <c r="P322" s="17"/>
+      <c r="Q322" s="17"/>
+      <c r="R322" s="17"/>
       <c r="S322" s="3" t="s">
         <v>331</v>
       </c>
@@ -12014,17 +12062,17 @@
       <c r="G323" s="29"/>
       <c r="H323" s="29"/>
       <c r="I323" s="29"/>
-      <c r="J323" s="16" t="s">
+      <c r="J323" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="K323" s="16"/>
-      <c r="L323" s="16"/>
-      <c r="M323" s="16"/>
-      <c r="N323" s="16"/>
-      <c r="O323" s="16"/>
-      <c r="P323" s="16"/>
-      <c r="Q323" s="16"/>
-      <c r="R323" s="16"/>
+      <c r="K323" s="17"/>
+      <c r="L323" s="17"/>
+      <c r="M323" s="17"/>
+      <c r="N323" s="17"/>
+      <c r="O323" s="17"/>
+      <c r="P323" s="17"/>
+      <c r="Q323" s="17"/>
+      <c r="R323" s="17"/>
       <c r="S323" s="3" t="s">
         <v>333</v>
       </c>
@@ -12078,7 +12126,7 @@
       <c r="G325" s="29"/>
       <c r="H325" s="29"/>
       <c r="I325" s="29"/>
-      <c r="J325" s="16" t="s">
+      <c r="J325" s="17" t="s">
         <v>337</v>
       </c>
       <c r="K325" s="2"/>
@@ -12110,7 +12158,7 @@
       <c r="G326" s="29"/>
       <c r="H326" s="29"/>
       <c r="I326" s="29"/>
-      <c r="J326" s="16" t="s">
+      <c r="J326" s="17" t="s">
         <v>339</v>
       </c>
       <c r="K326" s="2"/>
@@ -12206,7 +12254,7 @@
       <c r="G329" s="29"/>
       <c r="H329" s="29"/>
       <c r="I329" s="29"/>
-      <c r="J329" s="16" t="s">
+      <c r="J329" s="17" t="s">
         <v>344</v>
       </c>
       <c r="K329" s="2"/>
@@ -12398,7 +12446,7 @@
       <c r="G335" s="29"/>
       <c r="H335" s="29"/>
       <c r="I335" s="29"/>
-      <c r="J335" s="16" t="s">
+      <c r="J335" s="17" t="s">
         <v>357</v>
       </c>
       <c r="K335" s="2"/>
@@ -19500,6 +19548,16 @@
     <mergeCell ref="S106:Z106"/>
     <mergeCell ref="S107:Z107"/>
     <mergeCell ref="J145:R145"/>
+    <mergeCell ref="J140:R140"/>
+    <mergeCell ref="J141:R141"/>
+    <mergeCell ref="J142:R142"/>
+    <mergeCell ref="S136:Z136"/>
+    <mergeCell ref="S137:Z137"/>
+    <mergeCell ref="S138:Z138"/>
+    <mergeCell ref="S157:Z157"/>
+    <mergeCell ref="S158:Z158"/>
+    <mergeCell ref="S159:Z159"/>
+    <mergeCell ref="S160:Z160"/>
     <mergeCell ref="D228:F263"/>
     <mergeCell ref="G111:I126"/>
     <mergeCell ref="G32:I43"/>
@@ -19974,6 +20032,11 @@
     <mergeCell ref="S45:Z45"/>
     <mergeCell ref="S68:Z68"/>
     <mergeCell ref="S74:Z74"/>
+    <mergeCell ref="S62:Z62"/>
+    <mergeCell ref="S63:Z63"/>
+    <mergeCell ref="S64:Z64"/>
+    <mergeCell ref="S66:Z66"/>
+    <mergeCell ref="S67:Z67"/>
     <mergeCell ref="J230:R230"/>
     <mergeCell ref="J248:R248"/>
     <mergeCell ref="J266:R266"/>
@@ -20068,6 +20131,8 @@
     <mergeCell ref="S42:Z42"/>
     <mergeCell ref="S26:Z26"/>
     <mergeCell ref="J26:R26"/>
+    <mergeCell ref="J63:R63"/>
+    <mergeCell ref="J64:R64"/>
     <mergeCell ref="I81:I92"/>
     <mergeCell ref="J73:R73"/>
     <mergeCell ref="J74:R74"/>
@@ -20090,20 +20155,7 @@
     <mergeCell ref="S91:Z91"/>
     <mergeCell ref="S92:Z92"/>
     <mergeCell ref="S86:Z86"/>
-    <mergeCell ref="J140:R140"/>
-    <mergeCell ref="J141:R141"/>
-    <mergeCell ref="J142:R142"/>
-    <mergeCell ref="S136:Z136"/>
-    <mergeCell ref="S137:Z137"/>
-    <mergeCell ref="S138:Z138"/>
-    <mergeCell ref="J63:R63"/>
-    <mergeCell ref="J64:R64"/>
-    <mergeCell ref="S62:Z62"/>
-    <mergeCell ref="S63:Z63"/>
-    <mergeCell ref="S64:Z64"/>
     <mergeCell ref="S73:Z73"/>
-    <mergeCell ref="S66:Z66"/>
-    <mergeCell ref="S67:Z67"/>
     <mergeCell ref="J66:R66"/>
     <mergeCell ref="J92:R92"/>
     <mergeCell ref="J77:R77"/>
@@ -20121,10 +20173,6 @@
     <mergeCell ref="S125:Z125"/>
     <mergeCell ref="J126:R126"/>
     <mergeCell ref="S126:Z126"/>
-    <mergeCell ref="S157:Z157"/>
-    <mergeCell ref="S158:Z158"/>
-    <mergeCell ref="S159:Z159"/>
-    <mergeCell ref="S160:Z160"/>
     <mergeCell ref="S161:Z161"/>
     <mergeCell ref="S162:Z162"/>
     <mergeCell ref="S163:Z163"/>
@@ -20393,9 +20441,13 @@
     <hyperlink ref="S333" r:id="rId158"/>
     <hyperlink ref="S334" r:id="rId159"/>
     <hyperlink ref="S335" r:id="rId160"/>
+    <hyperlink ref="S264" r:id="rId161"/>
+    <hyperlink ref="S265" r:id="rId162"/>
+    <hyperlink ref="S266" r:id="rId163"/>
+    <hyperlink ref="S267" r:id="rId164"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId161"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId165"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
